--- a/Src/Data_files/metod02.xlsx
+++ b/Src/Data_files/metod02.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="231">
   <si>
     <t>Radio address</t>
   </si>
@@ -822,18 +822,27 @@
   <si>
     <t>Qfun_sys</t>
   </si>
+  <si>
+    <t>Qмзк</t>
+  </si>
+  <si>
+    <t>gk_Qmzk</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#0.00"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.000E+00"/>
+    <numFmt numFmtId="168" formatCode="0.0000000000"/>
+    <numFmt numFmtId="169" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="170" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -874,13 +883,6 @@
       <i/>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1319,7 +1321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1505,30 +1507,28 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
@@ -1548,13 +1548,13 @@
     </xf>
     <xf numFmtId="166" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="16" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1580,15 +1580,19 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="17" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3065,7 +3069,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11934825" y="24203025"/>
+          <a:off x="12401550" y="24203025"/>
           <a:ext cx="438150" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3122,7 +3126,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11934825" y="24412575"/>
+          <a:off x="12401550" y="24412575"/>
           <a:ext cx="295275" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3179,7 +3183,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11934825" y="24003000"/>
+          <a:off x="12401550" y="24003000"/>
           <a:ext cx="257175" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3293,7 +3297,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11934825" y="24622125"/>
+          <a:off x="12401550" y="24622125"/>
           <a:ext cx="314325" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3350,7 +3354,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11934825" y="24822150"/>
+          <a:off x="12401550" y="24822150"/>
           <a:ext cx="314325" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3407,7 +3411,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11934825" y="25441275"/>
+          <a:off x="12401550" y="25441275"/>
           <a:ext cx="485775" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3521,7 +3525,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11934825" y="25022175"/>
+          <a:off x="12401550" y="25022175"/>
           <a:ext cx="314325" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3578,7 +3582,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11934825" y="25231725"/>
+          <a:off x="12401550" y="25231725"/>
           <a:ext cx="314325" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3727,7 +3731,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9858375" y="31184850"/>
+          <a:off x="10325100" y="31184850"/>
           <a:ext cx="466725" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3784,7 +3788,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9858375" y="33299400"/>
+          <a:off x="10325100" y="33299400"/>
           <a:ext cx="533400" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9944,10 +9948,10 @@
       </c>
     </row>
     <row r="96" spans="1:20">
-      <c r="C96" s="123" t="s">
+      <c r="C96" s="121" t="s">
         <v>226</v>
       </c>
-      <c r="E96" s="123">
+      <c r="E96" s="121">
         <v>1550</v>
       </c>
       <c r="G96" s="2">
@@ -9978,28 +9982,28 @@
       </c>
     </row>
     <row r="100" spans="3:11">
-      <c r="C100" s="120">
+      <c r="C100" s="118">
         <v>1514.4</v>
       </c>
-      <c r="D100" s="120"/>
+      <c r="D100" s="118"/>
       <c r="E100" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F100" s="120"/>
+      <c r="F100" s="118"/>
       <c r="G100" s="3">
         <v>1394.62</v>
       </c>
-      <c r="H100" s="120"/>
+      <c r="H100" s="118"/>
       <c r="I100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J100" s="120"/>
+      <c r="J100" s="118"/>
       <c r="K100" s="3" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10012,9 +10016,9 @@
   </sheetPr>
   <dimension ref="A1:AP203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB11" sqref="AB11"/>
+      <selection pane="bottomLeft" activeCell="AL8" sqref="AL8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10036,11 +10040,15 @@
     <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" customWidth="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19" customWidth="1"/>
     <col min="21" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="128"/>
+    <col min="25" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="126"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.140625" style="126"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="90" customHeight="1" thickBot="1">
@@ -10077,22 +10085,22 @@
       <c r="K1" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="97" t="s">
+      <c r="L1" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="M1" s="97" t="s">
+      <c r="M1" s="95" t="s">
         <v>198</v>
       </c>
-      <c r="N1" s="97" t="s">
+      <c r="N1" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="O1" s="97" t="s">
+      <c r="O1" s="95" t="s">
         <v>200</v>
       </c>
-      <c r="P1" s="99" t="s">
+      <c r="P1" s="97" t="s">
         <v>201</v>
       </c>
-      <c r="Q1" s="99"/>
+      <c r="Q1" s="97"/>
       <c r="R1" s="58" t="s">
         <v>119</v>
       </c>
@@ -10123,7 +10131,7 @@
       <c r="AA1" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="AB1" s="124" t="s">
+      <c r="AB1" s="122" t="s">
         <v>168</v>
       </c>
       <c r="AC1" s="69" t="s">
@@ -10141,13 +10149,13 @@
       <c r="AG1" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="AH1" s="69" t="s">
+      <c r="AH1" s="122" t="s">
         <v>168</v>
       </c>
       <c r="AI1" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="AJ1" s="87" t="s">
+      <c r="AJ1" s="85" t="s">
         <v>209</v>
       </c>
       <c r="AK1" s="69" t="s">
@@ -10156,7 +10164,7 @@
       <c r="AL1" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="AM1" s="87" t="s">
+      <c r="AM1" s="85" t="s">
         <v>210</v>
       </c>
       <c r="AN1" s="69" t="s">
@@ -10165,7 +10173,7 @@
       <c r="AO1" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="AP1" s="87" t="s">
+      <c r="AP1" s="85" t="s">
         <v>158</v>
       </c>
     </row>
@@ -10198,26 +10206,26 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-      <c r="AB2" s="125">
+      <c r="AB2" s="123">
         <f t="shared" ref="AB2:AB8" si="0">IF(AA2=0,F2,0)</f>
         <v>59.3</v>
       </c>
-      <c r="AC2" s="86">
+      <c r="AC2" s="84">
         <f t="shared" ref="AC2:AC8" si="1">-AB2*$T$122</f>
-        <v>-0.2397412566722347</v>
+        <v>-0.23708422173008203</v>
       </c>
       <c r="AF2" s="64"/>
-      <c r="AH2" s="84">
+      <c r="AH2" s="123">
         <f t="shared" ref="AH2:AH8" si="2">IF(AF2=0,F2,0)</f>
         <v>59.3</v>
       </c>
-      <c r="AI2" s="86">
+      <c r="AI2" s="84">
         <f>-AH2*$T$126</f>
-        <v>-2.6126151294965389E-2</v>
+        <v>-2.5715497302489718E-2</v>
       </c>
       <c r="AM2" s="72">
         <f t="shared" ref="AM2:AM7" si="3">F2*$Y$171</f>
-        <v>2.6630610596505369</v>
+        <v>2.666128748585165</v>
       </c>
       <c r="AN2" s="72">
         <f t="shared" ref="AN2:AN8" si="4">$Z$112*F2</f>
@@ -10227,9 +10235,9 @@
         <f t="shared" ref="AO2:AO8" si="5">$Z$113*F2</f>
         <v>0.16319902562485702</v>
       </c>
-      <c r="AP2" s="90">
+      <c r="AP2" s="88">
         <f t="shared" ref="AP2:AP8" si="6">AJ2+AM2+AN2+AO2</f>
-        <v>2.9078595980878226</v>
+        <v>2.9109272870224507</v>
       </c>
     </row>
     <row r="3" spans="1:42" ht="15.75">
@@ -10260,26 +10268,26 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
-      <c r="AB3" s="125">
+      <c r="AB3" s="123">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="AC3" s="86">
+      <c r="AC3" s="84">
         <f t="shared" si="1"/>
-        <v>-0.21022842069066111</v>
+        <v>-0.20789847436701966</v>
       </c>
       <c r="AF3" s="64"/>
-      <c r="AH3" s="84">
+      <c r="AH3" s="123">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="AI3" s="86">
+      <c r="AI3" s="84">
         <f t="shared" ref="AI3:AI8" si="7">-AH3*$T$126</f>
-        <v>-2.2909947172650932E-2</v>
+        <v>-2.2549845863903295E-2</v>
       </c>
       <c r="AM3" s="72">
         <f t="shared" si="3"/>
-        <v>2.335230608799796</v>
+        <v>2.3379206564321855</v>
       </c>
       <c r="AN3" s="72">
         <f t="shared" si="4"/>
@@ -10289,9 +10297,9 @@
         <f t="shared" si="5"/>
         <v>0.14310875771488307</v>
       </c>
-      <c r="AP3" s="90">
+      <c r="AP3" s="88">
         <f t="shared" si="6"/>
-        <v>2.5498937453721209</v>
+        <v>2.5525837930045099</v>
       </c>
     </row>
     <row r="4" spans="1:42" ht="15.75">
@@ -10322,26 +10330,26 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-      <c r="AB4" s="125">
+      <c r="AB4" s="123">
         <f t="shared" si="0"/>
         <v>50.88</v>
       </c>
-      <c r="AC4" s="86">
+      <c r="AC4" s="84">
         <f t="shared" si="1"/>
-        <v>-0.20570042393732382</v>
+        <v>-0.20342066107296081</v>
       </c>
       <c r="AF4" s="64"/>
-      <c r="AH4" s="84">
+      <c r="AH4" s="123">
         <f t="shared" si="2"/>
         <v>50.88</v>
       </c>
-      <c r="AI4" s="86">
+      <c r="AI4" s="84">
         <f t="shared" si="7"/>
-        <v>-2.2416502156624604E-2</v>
+        <v>-2.2064156876065378E-2</v>
       </c>
       <c r="AM4" s="72">
         <f t="shared" si="3"/>
-        <v>2.2849333341487239</v>
+        <v>2.287565442293646</v>
       </c>
       <c r="AN4" s="72">
         <f t="shared" si="4"/>
@@ -10351,9 +10359,9 @@
         <f t="shared" si="5"/>
         <v>0.14002641524102405</v>
       </c>
-      <c r="AP4" s="90">
+      <c r="AP4" s="88">
         <f t="shared" si="6"/>
-        <v>2.4949729570102601</v>
+        <v>2.4976050651551822</v>
       </c>
     </row>
     <row r="5" spans="1:42" ht="15.75">
@@ -10385,26 +10393,26 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="U5" s="44"/>
-      <c r="AB5" s="125">
+      <c r="AB5" s="123">
         <f t="shared" si="0"/>
         <v>67.2</v>
       </c>
-      <c r="AC5" s="86">
+      <c r="AC5" s="84">
         <f t="shared" si="1"/>
-        <v>-0.27167980520023899</v>
+        <v>-0.26866879764353313</v>
       </c>
       <c r="AF5" s="64"/>
-      <c r="AH5" s="84">
+      <c r="AH5" s="123">
         <f t="shared" si="2"/>
         <v>67.2</v>
       </c>
-      <c r="AI5" s="86">
+      <c r="AI5" s="84">
         <f t="shared" si="7"/>
-        <v>-2.9606700961579666E-2</v>
+        <v>-2.9141339270275027E-2</v>
       </c>
       <c r="AM5" s="72">
         <f t="shared" si="3"/>
-        <v>3.0178364790643522</v>
+        <v>3.021312848312363</v>
       </c>
       <c r="AN5" s="72">
         <f t="shared" si="4"/>
@@ -10414,9 +10422,9 @@
         <f t="shared" si="5"/>
         <v>0.1849405484315412</v>
       </c>
-      <c r="AP5" s="90">
+      <c r="AP5" s="88">
         <f t="shared" si="6"/>
-        <v>3.2952473017116639</v>
+        <v>3.2987236709596748</v>
       </c>
     </row>
     <row r="6" spans="1:42" ht="15.75">
@@ -10448,26 +10456,26 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-      <c r="AB6" s="125">
+      <c r="AB6" s="123">
         <f t="shared" si="0"/>
         <v>68.03</v>
       </c>
-      <c r="AC6" s="86">
+      <c r="AC6" s="84">
         <f t="shared" si="1"/>
-        <v>-0.27503537422280144</v>
+        <v>-0.27198717713823745</v>
       </c>
       <c r="AF6" s="64"/>
-      <c r="AH6" s="84">
+      <c r="AH6" s="123">
         <f t="shared" si="2"/>
         <v>68.03</v>
       </c>
-      <c r="AI6" s="86">
+      <c r="AI6" s="84">
         <f t="shared" si="7"/>
-        <v>-2.9972378964527747E-2</v>
+        <v>-2.9501269502333484E-2</v>
       </c>
       <c r="AM6" s="72">
         <f t="shared" si="3"/>
-        <v>3.0551103522432719</v>
+        <v>3.0586296587900303</v>
       </c>
       <c r="AN6" s="72">
         <f t="shared" si="4"/>
@@ -10477,9 +10485,9 @@
         <f t="shared" si="5"/>
         <v>0.18722478437199028</v>
       </c>
-      <c r="AP6" s="90">
+      <c r="AP6" s="88">
         <f t="shared" si="6"/>
-        <v>3.335947528801257</v>
+        <v>3.3394668353480155</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="16.5" thickBot="1">
@@ -10512,26 +10520,26 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="AA7" s="70"/>
-      <c r="AB7" s="125">
+      <c r="AB7" s="123">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="AC7" s="86">
+      <c r="AC7" s="84">
         <f t="shared" si="1"/>
-        <v>-0.21022842069066111</v>
+        <v>-0.20789847436701966</v>
       </c>
       <c r="AF7" s="64"/>
-      <c r="AH7" s="84">
+      <c r="AH7" s="123">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="AI7" s="86">
+      <c r="AI7" s="84">
         <f t="shared" si="7"/>
-        <v>-2.2909947172650932E-2</v>
+        <v>-2.2549845863903295E-2</v>
       </c>
       <c r="AM7" s="72">
         <f t="shared" si="3"/>
-        <v>2.335230608799796</v>
+        <v>2.3379206564321855</v>
       </c>
       <c r="AN7" s="72">
         <f t="shared" si="4"/>
@@ -10541,9 +10549,9 @@
         <f t="shared" si="5"/>
         <v>0.14310875771488307</v>
       </c>
-      <c r="AP7" s="90">
+      <c r="AP7" s="88">
         <f t="shared" si="6"/>
-        <v>2.5498937453721209</v>
+        <v>2.5525837930045099</v>
       </c>
     </row>
     <row r="8" spans="1:42" ht="15.75">
@@ -10580,21 +10588,21 @@
       <c r="K8" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="L8" s="98">
+      <c r="L8" s="96">
         <f>J8*$K$188</f>
         <v>1665</v>
       </c>
-      <c r="M8" s="98">
+      <c r="M8" s="96">
         <f>L8/1000</f>
         <v>1.665</v>
       </c>
-      <c r="N8" s="98">
+      <c r="N8" s="96">
         <v>1.28</v>
       </c>
-      <c r="O8" s="98">
+      <c r="O8" s="96">
         <v>0.9</v>
       </c>
-      <c r="P8" s="102">
+      <c r="P8" s="100">
         <f>M8*N8*O8</f>
         <v>1.9180800000000002</v>
       </c>
@@ -10626,7 +10634,7 @@
         <f>W8/F8</f>
         <v>3.8846150289017345</v>
       </c>
-      <c r="Y8" s="70">
+      <c r="Y8" s="128">
         <f>$T$160*W8</f>
         <v>0.60479224198995662</v>
       </c>
@@ -10638,11 +10646,11 @@
         <f>IF(Z8&lt;$T$178,($T$178-Z8)*F8,0)</f>
         <v>2.250339413126566E-3</v>
       </c>
-      <c r="AB8" s="125">
+      <c r="AB8" s="123">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC8" s="86">
+      <c r="AC8" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10662,21 +10670,21 @@
         <f>AD8+AF8</f>
         <v>0.6070425814030832</v>
       </c>
-      <c r="AH8" s="84">
+      <c r="AH8" s="123">
         <f t="shared" si="2"/>
         <v>51.9</v>
       </c>
-      <c r="AI8" s="86">
+      <c r="AI8" s="84">
         <f t="shared" si="7"/>
-        <v>-2.2865889581934296E-2</v>
+        <v>-2.2506480775703479E-2</v>
       </c>
       <c r="AJ8" s="72">
         <f>AG8+AI8</f>
-        <v>0.58417669182114895</v>
+        <v>0.58453610062737971</v>
       </c>
       <c r="AK8">
         <f>AJ8/F8</f>
-        <v>1.1255812944530808E-2</v>
+        <v>1.1262737969699031E-2</v>
       </c>
       <c r="AL8" s="72">
         <f>IF(AK8&lt;$T$178,($T$178-AK8)*Q8,0)</f>
@@ -10690,9 +10698,9 @@
         <f t="shared" si="5"/>
         <v>0.14283354856543137</v>
       </c>
-      <c r="AP8" s="90">
+      <c r="AP8" s="88">
         <f t="shared" si="6"/>
-        <v>0.798427014669296</v>
+        <v>0.79878642347552675</v>
       </c>
     </row>
     <row r="9" spans="1:42" ht="15.75">
@@ -10714,21 +10722,21 @@
       <c r="K9" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="L9" s="98">
+      <c r="L9" s="96">
         <f>J9*$K$188</f>
         <v>2035</v>
       </c>
-      <c r="M9" s="98">
+      <c r="M9" s="96">
         <f t="shared" ref="M9:M72" si="8">L9/1000</f>
         <v>2.0350000000000001</v>
       </c>
-      <c r="N9" s="98">
+      <c r="N9" s="96">
         <v>1.28</v>
       </c>
-      <c r="O9" s="98">
+      <c r="O9" s="96">
         <v>0.9</v>
       </c>
-      <c r="P9" s="102">
+      <c r="P9" s="100">
         <f t="shared" ref="P9:P72" si="9">M9*N9*O9</f>
         <v>2.3443200000000006</v>
       </c>
@@ -10749,15 +10757,15 @@
         <v>0</v>
       </c>
       <c r="AA9" s="70"/>
-      <c r="AB9" s="125"/>
+      <c r="AB9" s="123"/>
       <c r="AC9" s="77"/>
       <c r="AD9" s="64"/>
       <c r="AF9" s="64"/>
       <c r="AG9" s="64"/>
-      <c r="AH9" s="84"/>
+      <c r="AH9" s="123"/>
       <c r="AI9" s="77"/>
       <c r="AJ9" s="64"/>
-      <c r="AP9" s="91"/>
+      <c r="AP9" s="89"/>
     </row>
     <row r="10" spans="1:42" ht="16.5" thickBot="1">
       <c r="B10" s="37"/>
@@ -10778,21 +10786,21 @@
       <c r="K10" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="98">
+      <c r="L10" s="96">
         <f>J10*$K$188</f>
         <v>1480</v>
       </c>
-      <c r="M10" s="98">
+      <c r="M10" s="96">
         <f t="shared" si="8"/>
         <v>1.48</v>
       </c>
-      <c r="N10" s="98">
+      <c r="N10" s="96">
         <v>1.28</v>
       </c>
-      <c r="O10" s="98">
+      <c r="O10" s="96">
         <v>0.9</v>
       </c>
-      <c r="P10" s="102">
+      <c r="P10" s="100">
         <f t="shared" si="9"/>
         <v>1.70496</v>
       </c>
@@ -10813,12 +10821,12 @@
         <v>105.70752</v>
       </c>
       <c r="AA10" s="70"/>
-      <c r="AB10" s="125"/>
+      <c r="AB10" s="123"/>
       <c r="AC10" s="77"/>
       <c r="AF10" s="64"/>
-      <c r="AH10" s="84"/>
+      <c r="AH10" s="123"/>
       <c r="AI10" s="77"/>
-      <c r="AP10" s="91"/>
+      <c r="AP10" s="89"/>
     </row>
     <row r="11" spans="1:42" ht="16.5" thickBot="1">
       <c r="A11" s="18">
@@ -10844,39 +10852,39 @@
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
       <c r="K11" s="28"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="102"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="100"/>
       <c r="R11" s="60"/>
       <c r="S11" s="60"/>
       <c r="T11" s="60"/>
       <c r="U11" s="75"/>
       <c r="AA11" s="70"/>
-      <c r="AB11" s="125">
+      <c r="AB11" s="123">
         <f>IF(AA11=0,F11,0)</f>
         <v>75.17</v>
       </c>
-      <c r="AC11" s="86">
+      <c r="AC11" s="84">
         <f>-AB11*$T$122</f>
-        <v>-0.30390135352532688</v>
+        <v>-0.30053323688786288</v>
       </c>
       <c r="AD11" s="64"/>
       <c r="AF11" s="64"/>
       <c r="AG11" s="64"/>
-      <c r="AH11" s="84">
+      <c r="AH11" s="123">
         <f>IF(AF11=0,F11,0)</f>
         <v>75.17</v>
       </c>
-      <c r="AI11" s="86">
+      <c r="AI11" s="84">
         <f>-AH11*$T$126</f>
-        <v>-3.3118090941695585E-2</v>
+        <v>-3.2597536799800202E-2</v>
       </c>
       <c r="AJ11" s="64"/>
       <c r="AM11" s="72">
         <f>F11*$Y$171</f>
-        <v>3.3757554781438595</v>
+        <v>3.379644148923219</v>
       </c>
       <c r="AN11" s="72">
         <f>$Z$112*F11</f>
@@ -10886,9 +10894,9 @@
         <f>$Z$113*F11</f>
         <v>0.20687471764284154</v>
       </c>
-      <c r="AP11" s="90">
+      <c r="AP11" s="88">
         <f>AJ11+AM11+AN11+AO11</f>
-        <v>3.6860675546081216</v>
+        <v>3.6899562253874811</v>
       </c>
     </row>
     <row r="12" spans="1:42" ht="15.75">
@@ -10925,21 +10933,21 @@
       <c r="K12" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="L12" s="98">
+      <c r="L12" s="96">
         <f>J12*$K$187</f>
         <v>1395</v>
       </c>
-      <c r="M12" s="98">
+      <c r="M12" s="96">
         <f t="shared" si="8"/>
         <v>1.395</v>
       </c>
-      <c r="N12" s="98">
+      <c r="N12" s="96">
         <v>1.34</v>
       </c>
-      <c r="O12" s="98">
+      <c r="O12" s="96">
         <v>0.9</v>
       </c>
-      <c r="P12" s="102">
+      <c r="P12" s="100">
         <f t="shared" si="9"/>
         <v>1.6823700000000001</v>
       </c>
@@ -10983,45 +10991,45 @@
         <f>IF(Z12&lt;$T$178,($T$178-Z12)*F12,0)</f>
         <v>0</v>
       </c>
-      <c r="AB12" s="125">
+      <c r="AB12" s="123">
         <f>IF(AA12=0,F12,0)</f>
         <v>68.03</v>
       </c>
-      <c r="AC12" s="86">
+      <c r="AC12" s="132">
         <f>-AB12*$T$122</f>
-        <v>-0.27503537422280144</v>
-      </c>
-      <c r="AD12" s="72">
+        <v>-0.27198717713823745</v>
+      </c>
+      <c r="AD12" s="131">
         <f>AA12+Y12+AC12</f>
-        <v>0.59861431550174637</v>
+        <v>0.60166251258631043</v>
       </c>
       <c r="AE12">
         <f>AD12/F12</f>
-        <v>8.7992696678192914E-3</v>
+        <v>8.8440763278893192E-3</v>
       </c>
       <c r="AF12" s="72">
         <f>IF(AE12&lt;$T$178,($T$178-AE12)*F12,0)</f>
-        <v>0.19709101807921217</v>
+        <v>0.1940428209946482</v>
       </c>
       <c r="AG12" s="72">
         <f>AD12+AF12</f>
-        <v>0.79570533358095852</v>
-      </c>
-      <c r="AH12" s="84">
+        <v>0.79570533358095863</v>
+      </c>
+      <c r="AH12" s="123">
         <f>IF(AF12=0,F12,0)</f>
         <v>0</v>
       </c>
-      <c r="AI12" s="86">
+      <c r="AI12" s="84">
         <f>-AH12*$T$126</f>
         <v>0</v>
       </c>
       <c r="AJ12" s="72">
         <f>AG12+AI12</f>
-        <v>0.79570533358095852</v>
+        <v>0.79570533358095863</v>
       </c>
       <c r="AK12">
         <f>AJ12/F12</f>
-        <v>1.169638885169717E-2</v>
+        <v>1.1696388851697171E-2</v>
       </c>
       <c r="AL12" s="72">
         <f>IF(AK12&lt;$T$178,($T$178-AK12)*Q12,0)</f>
@@ -11035,9 +11043,9 @@
         <f>$Z$113*F12</f>
         <v>0.18722478437199028</v>
       </c>
-      <c r="AP12" s="90">
+      <c r="AP12" s="88">
         <f>AJ12+AM12+AN12+AO12</f>
-        <v>1.0765425101389439</v>
+        <v>1.0765425101389441</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="15.75">
@@ -11059,21 +11067,21 @@
       <c r="K13" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="L13" s="98">
+      <c r="L13" s="96">
         <f t="shared" ref="L13:L23" si="12">J13*$K$187</f>
         <v>1860</v>
       </c>
-      <c r="M13" s="98">
+      <c r="M13" s="96">
         <f t="shared" si="8"/>
         <v>1.86</v>
       </c>
-      <c r="N13" s="98">
+      <c r="N13" s="96">
         <v>1.34</v>
       </c>
-      <c r="O13" s="98">
+      <c r="O13" s="96">
         <v>0.9</v>
       </c>
-      <c r="P13" s="102">
+      <c r="P13" s="100">
         <f t="shared" si="9"/>
         <v>2.2431600000000005</v>
       </c>
@@ -11094,15 +11102,15 @@
         <v>89.726400000000012</v>
       </c>
       <c r="AA13" s="70"/>
-      <c r="AB13" s="125"/>
+      <c r="AB13" s="123"/>
       <c r="AC13" s="77"/>
       <c r="AD13" s="64"/>
       <c r="AF13" s="64"/>
       <c r="AG13" s="64"/>
-      <c r="AH13" s="84"/>
+      <c r="AH13" s="123"/>
       <c r="AI13" s="77"/>
       <c r="AJ13" s="64"/>
-      <c r="AP13" s="91"/>
+      <c r="AP13" s="89"/>
     </row>
     <row r="14" spans="1:42" ht="15.75">
       <c r="B14" s="37"/>
@@ -11123,21 +11131,21 @@
       <c r="K14" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="98">
+      <c r="L14" s="96">
         <f t="shared" si="12"/>
         <v>1705</v>
       </c>
-      <c r="M14" s="98">
+      <c r="M14" s="96">
         <f t="shared" si="8"/>
         <v>1.7050000000000001</v>
       </c>
-      <c r="N14" s="98">
+      <c r="N14" s="96">
         <v>1.34</v>
       </c>
-      <c r="O14" s="98">
+      <c r="O14" s="96">
         <v>0.9</v>
       </c>
-      <c r="P14" s="102">
+      <c r="P14" s="100">
         <f t="shared" si="9"/>
         <v>2.0562300000000002</v>
       </c>
@@ -11158,15 +11166,15 @@
         <v>74.024280000000005</v>
       </c>
       <c r="AA14" s="70"/>
-      <c r="AB14" s="125"/>
+      <c r="AB14" s="123"/>
       <c r="AC14" s="77"/>
       <c r="AD14" s="64"/>
       <c r="AF14" s="64"/>
       <c r="AG14" s="64"/>
-      <c r="AH14" s="84"/>
+      <c r="AH14" s="123"/>
       <c r="AI14" s="77"/>
       <c r="AJ14" s="64"/>
-      <c r="AP14" s="91"/>
+      <c r="AP14" s="89"/>
     </row>
     <row r="15" spans="1:42" ht="16.5" thickBot="1">
       <c r="B15" s="37"/>
@@ -11187,21 +11195,21 @@
       <c r="K15" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="L15" s="98">
+      <c r="L15" s="96">
         <f t="shared" si="12"/>
         <v>620</v>
       </c>
-      <c r="M15" s="98">
+      <c r="M15" s="96">
         <f t="shared" si="8"/>
         <v>0.62</v>
       </c>
-      <c r="N15" s="98">
+      <c r="N15" s="96">
         <v>1.34</v>
       </c>
-      <c r="O15" s="98">
+      <c r="O15" s="96">
         <v>0.9</v>
       </c>
-      <c r="P15" s="102">
+      <c r="P15" s="100">
         <f t="shared" si="9"/>
         <v>0.74772000000000005</v>
       </c>
@@ -11222,12 +11230,12 @@
         <v>29.908800000000003</v>
       </c>
       <c r="AA15" s="70"/>
-      <c r="AB15" s="125"/>
+      <c r="AB15" s="123"/>
       <c r="AC15" s="77"/>
       <c r="AF15" s="64"/>
-      <c r="AH15" s="84"/>
+      <c r="AH15" s="123"/>
       <c r="AI15" s="77"/>
-      <c r="AP15" s="91"/>
+      <c r="AP15" s="89"/>
     </row>
     <row r="16" spans="1:42" ht="15.75">
       <c r="A16" s="18">
@@ -11263,21 +11271,21 @@
       <c r="K16" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="L16" s="98">
+      <c r="L16" s="96">
         <f t="shared" si="12"/>
         <v>1395</v>
       </c>
-      <c r="M16" s="98">
+      <c r="M16" s="96">
         <f t="shared" si="8"/>
         <v>1.395</v>
       </c>
-      <c r="N16" s="98">
+      <c r="N16" s="96">
         <v>1.34</v>
       </c>
-      <c r="O16" s="98">
+      <c r="O16" s="96">
         <v>0.9</v>
       </c>
-      <c r="P16" s="102">
+      <c r="P16" s="100">
         <f t="shared" si="9"/>
         <v>1.6823700000000001</v>
       </c>
@@ -11321,11 +11329,11 @@
         <f>IF(Z16&lt;$T$178,($T$178-Z16)*F16,0)</f>
         <v>0.10353653302760275</v>
       </c>
-      <c r="AB16" s="125">
+      <c r="AB16" s="123">
         <f>IF(AA16=0,F16,0)</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="86">
+      <c r="AC16" s="84">
         <f>-AB16*$T$122</f>
         <v>0</v>
       </c>
@@ -11345,21 +11353,21 @@
         <f>AD16+AF16</f>
         <v>0.60821222028825295</v>
       </c>
-      <c r="AH16" s="84">
+      <c r="AH16" s="123">
         <f>IF(AF16=0,F16,0)</f>
         <v>52</v>
       </c>
-      <c r="AI16" s="86">
+      <c r="AI16" s="84">
         <f>-AH16*$T$126</f>
-        <v>-2.2909947172650932E-2</v>
+        <v>-2.2549845863903295E-2</v>
       </c>
       <c r="AJ16" s="72">
         <f>AG16+AI16</f>
-        <v>0.58530227311560201</v>
+        <v>0.58566237442434965</v>
       </c>
       <c r="AK16">
         <f>AJ16/F16</f>
-        <v>1.1255812944530808E-2</v>
+        <v>1.1262737969699031E-2</v>
       </c>
       <c r="AL16" s="72">
         <f>IF(AK16&lt;$T$178,($T$178-AK16)*Q16,0)</f>
@@ -11373,9 +11381,9 @@
         <f>$Z$113*F16</f>
         <v>0.14310875771488307</v>
       </c>
-      <c r="AP16" s="90">
+      <c r="AP16" s="88">
         <f>AJ16+AM16+AN16+AO16</f>
-        <v>0.79996540968792662</v>
+        <v>0.80032551099667426</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="15.75">
@@ -11397,21 +11405,21 @@
       <c r="K17" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="L17" s="98">
+      <c r="L17" s="96">
         <f t="shared" si="12"/>
         <v>465</v>
       </c>
-      <c r="M17" s="98">
+      <c r="M17" s="96">
         <f t="shared" si="8"/>
         <v>0.46500000000000002</v>
       </c>
-      <c r="N17" s="98">
+      <c r="N17" s="96">
         <v>1.34</v>
       </c>
-      <c r="O17" s="98">
+      <c r="O17" s="96">
         <v>0.9</v>
       </c>
-      <c r="P17" s="102">
+      <c r="P17" s="100">
         <f t="shared" si="9"/>
         <v>0.56079000000000012</v>
       </c>
@@ -11432,15 +11440,15 @@
         <v>17.945280000000004</v>
       </c>
       <c r="AA17" s="70"/>
-      <c r="AB17" s="125"/>
+      <c r="AB17" s="123"/>
       <c r="AC17" s="77"/>
       <c r="AD17" s="64"/>
       <c r="AF17" s="64"/>
       <c r="AG17" s="64"/>
-      <c r="AH17" s="84"/>
+      <c r="AH17" s="123"/>
       <c r="AI17" s="77"/>
       <c r="AJ17" s="64"/>
-      <c r="AP17" s="91"/>
+      <c r="AP17" s="89"/>
     </row>
     <row r="18" spans="1:42" ht="15.75">
       <c r="B18" s="50"/>
@@ -11461,21 +11469,21 @@
       <c r="K18" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="L18" s="98">
+      <c r="L18" s="96">
         <f t="shared" si="12"/>
         <v>930</v>
       </c>
-      <c r="M18" s="98">
+      <c r="M18" s="96">
         <f t="shared" si="8"/>
         <v>0.93</v>
       </c>
-      <c r="N18" s="98">
+      <c r="N18" s="96">
         <v>1.34</v>
       </c>
-      <c r="O18" s="98">
+      <c r="O18" s="96">
         <v>0.9</v>
       </c>
-      <c r="P18" s="102">
+      <c r="P18" s="100">
         <f t="shared" si="9"/>
         <v>1.1215800000000002</v>
       </c>
@@ -11496,15 +11504,15 @@
         <v>40.376880000000007</v>
       </c>
       <c r="AA18" s="70"/>
-      <c r="AB18" s="125"/>
+      <c r="AB18" s="123"/>
       <c r="AC18" s="77"/>
       <c r="AD18" s="64"/>
       <c r="AF18" s="64"/>
       <c r="AG18" s="64"/>
-      <c r="AH18" s="84"/>
+      <c r="AH18" s="123"/>
       <c r="AI18" s="77"/>
       <c r="AJ18" s="64"/>
-      <c r="AP18" s="91"/>
+      <c r="AP18" s="89"/>
     </row>
     <row r="19" spans="1:42" ht="16.5" thickBot="1">
       <c r="B19" s="50"/>
@@ -11525,21 +11533,21 @@
       <c r="K19" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="L19" s="98">
+      <c r="L19" s="96">
         <f t="shared" si="12"/>
         <v>465</v>
       </c>
-      <c r="M19" s="98">
+      <c r="M19" s="96">
         <f t="shared" si="8"/>
         <v>0.46500000000000002</v>
       </c>
-      <c r="N19" s="98">
+      <c r="N19" s="96">
         <v>1.34</v>
       </c>
-      <c r="O19" s="98">
+      <c r="O19" s="96">
         <v>0.9</v>
       </c>
-      <c r="P19" s="102">
+      <c r="P19" s="100">
         <f t="shared" si="9"/>
         <v>0.56079000000000012</v>
       </c>
@@ -11560,12 +11568,12 @@
         <v>24.113970000000005</v>
       </c>
       <c r="AA19" s="70"/>
-      <c r="AB19" s="125"/>
+      <c r="AB19" s="123"/>
       <c r="AC19" s="77"/>
       <c r="AF19" s="64"/>
-      <c r="AH19" s="84"/>
+      <c r="AH19" s="123"/>
       <c r="AI19" s="77"/>
-      <c r="AP19" s="91"/>
+      <c r="AP19" s="89"/>
     </row>
     <row r="20" spans="1:42" ht="15.75">
       <c r="A20" s="18">
@@ -11601,21 +11609,21 @@
       <c r="K20" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="L20" s="98">
+      <c r="L20" s="96">
         <f t="shared" si="12"/>
         <v>465</v>
       </c>
-      <c r="M20" s="98">
+      <c r="M20" s="96">
         <f t="shared" si="8"/>
         <v>0.46500000000000002</v>
       </c>
-      <c r="N20" s="98">
+      <c r="N20" s="96">
         <v>1.34</v>
       </c>
-      <c r="O20" s="98">
+      <c r="O20" s="96">
         <v>0.9</v>
       </c>
-      <c r="P20" s="102">
+      <c r="P20" s="100">
         <f t="shared" si="9"/>
         <v>0.56079000000000012</v>
       </c>
@@ -11659,11 +11667,11 @@
         <f>IF(Z20&lt;$T$178,($T$178-Z20)*F20,0)</f>
         <v>0.33676071333682384</v>
       </c>
-      <c r="AB20" s="125">
+      <c r="AB20" s="123">
         <f>IF(AA20=0,F20,0)</f>
         <v>0</v>
       </c>
-      <c r="AC20" s="86">
+      <c r="AC20" s="84">
         <f>-AB20*$T$122</f>
         <v>0</v>
       </c>
@@ -11683,21 +11691,21 @@
         <f>AD20+AF20</f>
         <v>0.6070425814030832</v>
       </c>
-      <c r="AH20" s="84">
+      <c r="AH20" s="123">
         <f>IF(AF20=0,F20,0)</f>
         <v>51.9</v>
       </c>
-      <c r="AI20" s="86">
+      <c r="AI20" s="84">
         <f>-AH20*$T$126</f>
-        <v>-2.2865889581934296E-2</v>
+        <v>-2.2506480775703479E-2</v>
       </c>
       <c r="AJ20" s="72">
         <f>AG20+AI20</f>
-        <v>0.58417669182114895</v>
+        <v>0.58453610062737971</v>
       </c>
       <c r="AK20">
         <f>AJ20/F20</f>
-        <v>1.1255812944530808E-2</v>
+        <v>1.1262737969699031E-2</v>
       </c>
       <c r="AL20" s="72">
         <f>IF(AK20&lt;$T$178,($T$178-AK20)*Q20,0)</f>
@@ -11711,9 +11719,9 @@
         <f>$Z$113*F20</f>
         <v>0.14283354856543137</v>
       </c>
-      <c r="AP20" s="90">
+      <c r="AP20" s="88">
         <f>AJ20+AM20+AN20+AO20</f>
-        <v>0.798427014669296</v>
+        <v>0.79878642347552675</v>
       </c>
     </row>
     <row r="21" spans="1:42" ht="15.75">
@@ -11735,21 +11743,21 @@
       <c r="K21" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L21" s="98">
+      <c r="L21" s="96">
         <f t="shared" si="12"/>
         <v>930</v>
       </c>
-      <c r="M21" s="98">
+      <c r="M21" s="96">
         <f t="shared" si="8"/>
         <v>0.93</v>
       </c>
-      <c r="N21" s="98">
+      <c r="N21" s="96">
         <v>1.34</v>
       </c>
-      <c r="O21" s="98">
+      <c r="O21" s="96">
         <v>0.9</v>
       </c>
-      <c r="P21" s="102">
+      <c r="P21" s="100">
         <f t="shared" si="9"/>
         <v>1.1215800000000002</v>
       </c>
@@ -11770,15 +11778,15 @@
         <v>15.702120000000004</v>
       </c>
       <c r="AA21" s="70"/>
-      <c r="AB21" s="125"/>
+      <c r="AB21" s="123"/>
       <c r="AC21" s="77"/>
       <c r="AD21" s="64"/>
       <c r="AF21" s="64"/>
       <c r="AG21" s="64"/>
-      <c r="AH21" s="84"/>
+      <c r="AH21" s="123"/>
       <c r="AI21" s="77"/>
       <c r="AJ21" s="64"/>
-      <c r="AP21" s="91"/>
+      <c r="AP21" s="89"/>
     </row>
     <row r="22" spans="1:42" ht="15.75">
       <c r="B22" s="37"/>
@@ -11799,21 +11807,21 @@
       <c r="K22" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="L22" s="98">
+      <c r="L22" s="96">
         <f t="shared" si="12"/>
         <v>1085</v>
       </c>
-      <c r="M22" s="98">
+      <c r="M22" s="96">
         <f t="shared" si="8"/>
         <v>1.085</v>
       </c>
-      <c r="N22" s="98">
+      <c r="N22" s="96">
         <v>1.34</v>
       </c>
-      <c r="O22" s="98">
+      <c r="O22" s="96">
         <v>0.9</v>
       </c>
-      <c r="P22" s="102">
+      <c r="P22" s="100">
         <f t="shared" si="9"/>
         <v>1.3085100000000001</v>
       </c>
@@ -11834,15 +11842,15 @@
         <v>49.723380000000006</v>
       </c>
       <c r="AA22" s="70"/>
-      <c r="AB22" s="125"/>
+      <c r="AB22" s="123"/>
       <c r="AC22" s="77"/>
       <c r="AD22" s="64"/>
       <c r="AF22" s="64"/>
       <c r="AG22" s="64"/>
-      <c r="AH22" s="84"/>
+      <c r="AH22" s="123"/>
       <c r="AI22" s="77"/>
       <c r="AJ22" s="64"/>
-      <c r="AP22" s="91"/>
+      <c r="AP22" s="89"/>
     </row>
     <row r="23" spans="1:42" ht="16.5" thickBot="1">
       <c r="B23" s="37"/>
@@ -11863,21 +11871,21 @@
       <c r="K23" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="L23" s="98">
+      <c r="L23" s="96">
         <f t="shared" si="12"/>
         <v>1550</v>
       </c>
-      <c r="M23" s="98">
+      <c r="M23" s="96">
         <f t="shared" si="8"/>
         <v>1.55</v>
       </c>
-      <c r="N23" s="98">
+      <c r="N23" s="96">
         <v>1.34</v>
       </c>
-      <c r="O23" s="98">
+      <c r="O23" s="96">
         <v>0.9</v>
       </c>
-      <c r="P23" s="102">
+      <c r="P23" s="100">
         <f t="shared" si="9"/>
         <v>1.8693000000000004</v>
       </c>
@@ -11898,12 +11906,12 @@
         <v>0</v>
       </c>
       <c r="AA23" s="70"/>
-      <c r="AB23" s="125"/>
+      <c r="AB23" s="123"/>
       <c r="AC23" s="77"/>
       <c r="AF23" s="64"/>
-      <c r="AH23" s="84"/>
+      <c r="AH23" s="123"/>
       <c r="AI23" s="77"/>
-      <c r="AP23" s="91"/>
+      <c r="AP23" s="89"/>
     </row>
     <row r="24" spans="1:42" ht="16.5" thickBot="1">
       <c r="A24" s="18">
@@ -11929,39 +11937,39 @@
       <c r="I24" s="33"/>
       <c r="J24" s="33"/>
       <c r="K24" s="54"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="102"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="100"/>
       <c r="R24" s="60"/>
       <c r="S24" s="60"/>
       <c r="T24" s="60"/>
       <c r="U24" s="75"/>
       <c r="AA24" s="70"/>
-      <c r="AB24" s="125">
+      <c r="AB24" s="123">
         <f>IF(AA24=0,F24,0)</f>
         <v>73.8</v>
       </c>
-      <c r="AC24" s="86">
+      <c r="AC24" s="84">
         <f>-AB24*$T$122</f>
-        <v>-0.29836264321097672</v>
+        <v>-0.2950559116978087</v>
       </c>
       <c r="AD24" s="64"/>
       <c r="AF24" s="64"/>
       <c r="AG24" s="64"/>
-      <c r="AH24" s="84">
+      <c r="AH24" s="123">
         <f>IF(AF24=0,F24,0)</f>
         <v>73.8</v>
       </c>
-      <c r="AI24" s="86">
+      <c r="AI24" s="84">
         <f>-AH24*$T$126</f>
-        <v>-3.2514501948877665E-2</v>
+        <v>-3.2003435091462751E-2</v>
       </c>
       <c r="AJ24" s="64"/>
       <c r="AM24" s="72">
         <f>F24*$Y$171</f>
-        <v>3.314231133258172</v>
+        <v>3.3180489316287551</v>
       </c>
       <c r="AN24" s="72">
         <f>$Z$112*F24</f>
@@ -11971,9 +11979,9 @@
         <f>$Z$113*F24</f>
         <v>0.20310435229535326</v>
       </c>
-      <c r="AP24" s="90">
+      <c r="AP24" s="88">
         <f>AJ24+AM24+AN24+AO24</f>
-        <v>3.6188876617012018</v>
+        <v>3.622705460071785</v>
       </c>
     </row>
     <row r="25" spans="1:42" ht="16.5" thickBot="1">
@@ -12000,39 +12008,39 @@
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
       <c r="K25" s="28"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="102"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="100"/>
       <c r="R25" s="60"/>
       <c r="S25" s="60"/>
       <c r="T25" s="60"/>
       <c r="U25" s="75"/>
       <c r="AA25" s="70"/>
-      <c r="AB25" s="125">
+      <c r="AB25" s="123">
         <f>IF(AA25=0,F25,0)</f>
         <v>69.5</v>
       </c>
-      <c r="AC25" s="86">
+      <c r="AC25" s="84">
         <f>-AB25*$T$122</f>
-        <v>-0.28097836996155667</v>
+        <v>-0.27786430708668974</v>
       </c>
       <c r="AD25" s="64"/>
       <c r="AF25" s="64"/>
       <c r="AG25" s="64"/>
-      <c r="AH25" s="84">
+      <c r="AH25" s="123">
         <f>IF(AF25=0,F25,0)</f>
         <v>69.5</v>
       </c>
-      <c r="AI25" s="86">
+      <c r="AI25" s="84">
         <f>-AH25*$T$126</f>
-        <v>-3.0620025548062303E-2</v>
+        <v>-3.0138736298870747E-2</v>
       </c>
       <c r="AJ25" s="64"/>
       <c r="AM25" s="72">
         <f>F25*$Y$171</f>
-        <v>3.1211255252228045</v>
+        <v>3.1247208773468631</v>
       </c>
       <c r="AN25" s="72">
         <f>$Z$112*F25</f>
@@ -12042,9 +12050,9 @@
         <f>$Z$113*F25</f>
         <v>0.19127035886893023</v>
       </c>
-      <c r="AP25" s="90">
+      <c r="AP25" s="88">
         <f>AJ25+AM25+AN25+AO25</f>
-        <v>3.4080310635262001</v>
+        <v>3.4116264156502587</v>
       </c>
     </row>
     <row r="26" spans="1:42" ht="15.75">
@@ -12081,21 +12089,21 @@
       <c r="K26" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="L26" s="98">
+      <c r="L26" s="96">
         <f t="shared" ref="L26:L32" si="13">J26*$K$187</f>
         <v>1395</v>
       </c>
-      <c r="M26" s="98">
+      <c r="M26" s="96">
         <f t="shared" si="8"/>
         <v>1.395</v>
       </c>
-      <c r="N26" s="98">
+      <c r="N26" s="96">
         <v>1.34</v>
       </c>
-      <c r="O26" s="98">
+      <c r="O26" s="96">
         <v>0.9</v>
       </c>
-      <c r="P26" s="102">
+      <c r="P26" s="100">
         <f t="shared" si="9"/>
         <v>1.6823700000000001</v>
       </c>
@@ -12139,11 +12147,11 @@
         <f>IF(Z26&lt;$T$178,($T$178-Z26)*F26,0)</f>
         <v>0.22889962909443881</v>
       </c>
-      <c r="AB26" s="125">
+      <c r="AB26" s="123">
         <f>IF(AA26=0,F26,0)</f>
         <v>0</v>
       </c>
-      <c r="AC26" s="86">
+      <c r="AC26" s="84">
         <f>-AB26*$T$122</f>
         <v>0</v>
       </c>
@@ -12163,21 +12171,21 @@
         <f>AD26+AF26</f>
         <v>0.59511226477435208</v>
       </c>
-      <c r="AH26" s="84">
+      <c r="AH26" s="123">
         <f>IF(AF26=0,F26,0)</f>
         <v>50.88</v>
       </c>
-      <c r="AI26" s="86">
+      <c r="AI26" s="84">
         <f>-AH26*$T$126</f>
-        <v>-2.2416502156624604E-2</v>
+        <v>-2.2064156876065378E-2</v>
       </c>
       <c r="AJ26" s="72">
         <f>AG26+AI26</f>
-        <v>0.57269576261772748</v>
+        <v>0.57304810789828675</v>
       </c>
       <c r="AK26">
         <f>AJ26/F26</f>
-        <v>1.1255812944530806E-2</v>
+        <v>1.1262737969699031E-2</v>
       </c>
       <c r="AL26" s="72">
         <f>IF(AK26&lt;$T$178,($T$178-AK26)*Q26,0)</f>
@@ -12191,9 +12199,9 @@
         <f>$Z$113*F26</f>
         <v>0.14002641524102405</v>
       </c>
-      <c r="AP26" s="90">
+      <c r="AP26" s="88">
         <f>AJ26+AM26+AN26+AO26</f>
-        <v>0.78273538547926358</v>
+        <v>0.78308773075982274</v>
       </c>
     </row>
     <row r="27" spans="1:42" ht="15.75">
@@ -12217,21 +12225,21 @@
       <c r="K27" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="L27" s="98">
+      <c r="L27" s="96">
         <f t="shared" si="13"/>
         <v>1395</v>
       </c>
-      <c r="M27" s="98">
+      <c r="M27" s="96">
         <f t="shared" si="8"/>
         <v>1.395</v>
       </c>
-      <c r="N27" s="98">
+      <c r="N27" s="96">
         <v>1.34</v>
       </c>
-      <c r="O27" s="98">
+      <c r="O27" s="96">
         <v>0.9</v>
       </c>
-      <c r="P27" s="102">
+      <c r="P27" s="100">
         <f t="shared" si="9"/>
         <v>1.6823700000000001</v>
       </c>
@@ -12252,15 +12260,15 @@
         <v>16.823700000000002</v>
       </c>
       <c r="AA27" s="70"/>
-      <c r="AB27" s="125"/>
+      <c r="AB27" s="123"/>
       <c r="AC27" s="77"/>
       <c r="AD27" s="64"/>
       <c r="AF27" s="64"/>
       <c r="AG27" s="64"/>
-      <c r="AH27" s="84"/>
+      <c r="AH27" s="123"/>
       <c r="AI27" s="77"/>
       <c r="AJ27" s="64"/>
-      <c r="AP27" s="91"/>
+      <c r="AP27" s="89"/>
     </row>
     <row r="28" spans="1:42" ht="16.5" thickBot="1">
       <c r="B28" s="37"/>
@@ -12283,21 +12291,21 @@
       <c r="K28" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="L28" s="98">
+      <c r="L28" s="96">
         <f>J28*$K$188</f>
         <v>1480</v>
       </c>
-      <c r="M28" s="98">
+      <c r="M28" s="96">
         <f t="shared" si="8"/>
         <v>1.48</v>
       </c>
-      <c r="N28" s="98">
+      <c r="N28" s="96">
         <v>1.28</v>
       </c>
-      <c r="O28" s="98">
+      <c r="O28" s="96">
         <v>0.9</v>
       </c>
-      <c r="P28" s="102">
+      <c r="P28" s="100">
         <f t="shared" si="9"/>
         <v>1.70496</v>
       </c>
@@ -12318,12 +12326,12 @@
         <v>71.608320000000006</v>
       </c>
       <c r="AA28" s="70"/>
-      <c r="AB28" s="125"/>
+      <c r="AB28" s="123"/>
       <c r="AC28" s="77"/>
       <c r="AF28" s="64"/>
-      <c r="AH28" s="84"/>
+      <c r="AH28" s="123"/>
       <c r="AI28" s="77"/>
-      <c r="AP28" s="91"/>
+      <c r="AP28" s="89"/>
     </row>
     <row r="29" spans="1:42" ht="15.75">
       <c r="A29" s="18">
@@ -12359,21 +12367,21 @@
       <c r="K29" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="L29" s="98">
+      <c r="L29" s="96">
         <f t="shared" si="13"/>
         <v>1550</v>
       </c>
-      <c r="M29" s="98">
+      <c r="M29" s="96">
         <f t="shared" si="8"/>
         <v>1.55</v>
       </c>
-      <c r="N29" s="98">
+      <c r="N29" s="96">
         <v>1.34</v>
       </c>
-      <c r="O29" s="98">
+      <c r="O29" s="96">
         <v>0.9</v>
       </c>
-      <c r="P29" s="102">
+      <c r="P29" s="100">
         <f t="shared" si="9"/>
         <v>1.8693000000000004</v>
       </c>
@@ -12417,11 +12425,11 @@
         <f>IF(Z29&lt;$T$178,($T$178-Z29)*F29,0)</f>
         <v>0.50090613648569737</v>
       </c>
-      <c r="AB29" s="125">
+      <c r="AB29" s="123">
         <f>IF(AA29=0,F29,0)</f>
         <v>0</v>
       </c>
-      <c r="AC29" s="86">
+      <c r="AC29" s="84">
         <f>-AB29*$T$122</f>
         <v>0</v>
       </c>
@@ -12441,21 +12449,21 @@
         <f>AD29+AF29</f>
         <v>0.59511226477435208</v>
       </c>
-      <c r="AH29" s="84">
+      <c r="AH29" s="123">
         <f>IF(AF29=0,F29,0)</f>
         <v>50.88</v>
       </c>
-      <c r="AI29" s="86">
+      <c r="AI29" s="84">
         <f>-AH29*$T$126</f>
-        <v>-2.2416502156624604E-2</v>
+        <v>-2.2064156876065378E-2</v>
       </c>
       <c r="AJ29" s="72">
         <f>AG29+AI29</f>
-        <v>0.57269576261772748</v>
+        <v>0.57304810789828675</v>
       </c>
       <c r="AK29">
         <f>AJ29/F29</f>
-        <v>1.1255812944530806E-2</v>
+        <v>1.1262737969699031E-2</v>
       </c>
       <c r="AL29" s="72">
         <f>IF(AK29&lt;$T$178,($T$178-AK29)*Q29,0)</f>
@@ -12469,9 +12477,9 @@
         <f>$Z$113*F29</f>
         <v>0.14002641524102405</v>
       </c>
-      <c r="AP29" s="90">
+      <c r="AP29" s="88">
         <f>AJ29+AM29+AN29+AO29</f>
-        <v>0.78273538547926358</v>
+        <v>0.78308773075982274</v>
       </c>
     </row>
     <row r="30" spans="1:42" ht="15.75">
@@ -12493,21 +12501,21 @@
       <c r="K30" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L30" s="98">
+      <c r="L30" s="96">
         <f t="shared" si="13"/>
         <v>930</v>
       </c>
-      <c r="M30" s="98">
+      <c r="M30" s="96">
         <f t="shared" si="8"/>
         <v>0.93</v>
       </c>
-      <c r="N30" s="98">
+      <c r="N30" s="96">
         <v>1.34</v>
       </c>
-      <c r="O30" s="98">
+      <c r="O30" s="96">
         <v>0.9</v>
       </c>
-      <c r="P30" s="102">
+      <c r="P30" s="100">
         <f t="shared" si="9"/>
         <v>1.1215800000000002</v>
       </c>
@@ -12528,15 +12536,15 @@
         <v>11.215800000000002</v>
       </c>
       <c r="AA30" s="70"/>
-      <c r="AB30" s="125"/>
+      <c r="AB30" s="123"/>
       <c r="AC30" s="77"/>
       <c r="AD30" s="64"/>
       <c r="AF30" s="64"/>
       <c r="AG30" s="64"/>
-      <c r="AH30" s="84"/>
+      <c r="AH30" s="123"/>
       <c r="AI30" s="77"/>
       <c r="AJ30" s="64"/>
-      <c r="AP30" s="91"/>
+      <c r="AP30" s="89"/>
     </row>
     <row r="31" spans="1:42" ht="15.75">
       <c r="B31" s="37"/>
@@ -12557,21 +12565,21 @@
       <c r="K31" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L31" s="98">
+      <c r="L31" s="96">
         <f t="shared" si="13"/>
         <v>930</v>
       </c>
-      <c r="M31" s="98">
+      <c r="M31" s="96">
         <f t="shared" si="8"/>
         <v>0.93</v>
       </c>
-      <c r="N31" s="98">
+      <c r="N31" s="96">
         <v>1.34</v>
       </c>
-      <c r="O31" s="98">
+      <c r="O31" s="96">
         <v>0.9</v>
       </c>
-      <c r="P31" s="102">
+      <c r="P31" s="100">
         <f t="shared" si="9"/>
         <v>1.1215800000000002</v>
       </c>
@@ -12592,15 +12600,15 @@
         <v>8.9726400000000019</v>
       </c>
       <c r="AA31" s="70"/>
-      <c r="AB31" s="125"/>
+      <c r="AB31" s="123"/>
       <c r="AC31" s="77"/>
       <c r="AD31" s="64"/>
       <c r="AF31" s="64"/>
       <c r="AG31" s="64"/>
-      <c r="AH31" s="84"/>
+      <c r="AH31" s="123"/>
       <c r="AI31" s="77"/>
       <c r="AJ31" s="64"/>
-      <c r="AP31" s="91"/>
+      <c r="AP31" s="89"/>
     </row>
     <row r="32" spans="1:42" ht="16.5" thickBot="1">
       <c r="B32" s="37"/>
@@ -12621,21 +12629,21 @@
       <c r="K32" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="L32" s="98">
+      <c r="L32" s="96">
         <f t="shared" si="13"/>
         <v>930</v>
       </c>
-      <c r="M32" s="98">
+      <c r="M32" s="96">
         <f t="shared" si="8"/>
         <v>0.93</v>
       </c>
-      <c r="N32" s="98">
+      <c r="N32" s="96">
         <v>1.34</v>
       </c>
-      <c r="O32" s="98">
+      <c r="O32" s="96">
         <v>0.9</v>
       </c>
-      <c r="P32" s="102">
+      <c r="P32" s="100">
         <f t="shared" si="9"/>
         <v>1.1215800000000002</v>
       </c>
@@ -12656,12 +12664,12 @@
         <v>11.215800000000002</v>
       </c>
       <c r="AA32" s="70"/>
-      <c r="AB32" s="125"/>
+      <c r="AB32" s="123"/>
       <c r="AC32" s="77"/>
       <c r="AF32" s="64"/>
-      <c r="AH32" s="84"/>
+      <c r="AH32" s="123"/>
       <c r="AI32" s="77"/>
-      <c r="AP32" s="91"/>
+      <c r="AP32" s="89"/>
     </row>
     <row r="33" spans="1:42" ht="15.75">
       <c r="A33" s="18">
@@ -12697,21 +12705,21 @@
       <c r="K33" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="L33" s="98">
+      <c r="L33" s="96">
         <f>J33*$K$188</f>
         <v>2220</v>
       </c>
-      <c r="M33" s="98">
+      <c r="M33" s="96">
         <f t="shared" si="8"/>
         <v>2.2200000000000002</v>
       </c>
-      <c r="N33" s="98">
+      <c r="N33" s="96">
         <v>1.28</v>
       </c>
-      <c r="O33" s="98">
+      <c r="O33" s="96">
         <v>0.9</v>
       </c>
-      <c r="P33" s="102">
+      <c r="P33" s="100">
         <f t="shared" si="9"/>
         <v>2.5574400000000002</v>
       </c>
@@ -12755,11 +12763,11 @@
         <f>IF(Z33&lt;$T$178,($T$178-Z33)*F33,0)</f>
         <v>0.19958425075887168</v>
       </c>
-      <c r="AB33" s="125">
+      <c r="AB33" s="123">
         <f>IF(AA33=0,F33,0)</f>
         <v>0</v>
       </c>
-      <c r="AC33" s="86">
+      <c r="AC33" s="84">
         <f>-AB33*$T$122</f>
         <v>0</v>
       </c>
@@ -12779,21 +12787,21 @@
         <f>AD33+AF33</f>
         <v>0.86319349725525119</v>
       </c>
-      <c r="AH33" s="84">
+      <c r="AH33" s="123">
         <f>IF(AF33=0,F33,0)</f>
         <v>73.8</v>
       </c>
-      <c r="AI33" s="86">
+      <c r="AI33" s="84">
         <f>-AH33*$T$126</f>
-        <v>-3.2514501948877665E-2</v>
+        <v>-3.2003435091462751E-2</v>
       </c>
       <c r="AJ33" s="72">
         <f>AG33+AI33</f>
-        <v>0.83067899530637357</v>
+        <v>0.83119006216378843</v>
       </c>
       <c r="AK33">
         <f>AJ33/F33</f>
-        <v>1.1255812944530808E-2</v>
+        <v>1.1262737969699031E-2</v>
       </c>
       <c r="AL33" s="72">
         <f>IF(AK33&lt;$T$178,($T$178-AK33)*Q33,0)</f>
@@ -12807,9 +12815,9 @@
         <f>$Z$113*F33</f>
         <v>0.20310435229535326</v>
       </c>
-      <c r="AP33" s="90">
+      <c r="AP33" s="88">
         <f>AJ33+AM33+AN33+AO33</f>
-        <v>1.1353355237494034</v>
+        <v>1.1358465906068183</v>
       </c>
     </row>
     <row r="34" spans="1:42" ht="15.75">
@@ -12831,21 +12839,21 @@
       <c r="K34" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="L34" s="98">
+      <c r="L34" s="96">
         <f>J34*$K$188</f>
         <v>2220</v>
       </c>
-      <c r="M34" s="98">
+      <c r="M34" s="96">
         <f t="shared" si="8"/>
         <v>2.2200000000000002</v>
       </c>
-      <c r="N34" s="98">
+      <c r="N34" s="96">
         <v>1.28</v>
       </c>
-      <c r="O34" s="98">
+      <c r="O34" s="96">
         <v>0.9</v>
       </c>
-      <c r="P34" s="102">
+      <c r="P34" s="100">
         <f t="shared" si="9"/>
         <v>2.5574400000000002</v>
       </c>
@@ -12866,15 +12874,15 @@
         <v>0</v>
       </c>
       <c r="AA34" s="70"/>
-      <c r="AB34" s="125"/>
+      <c r="AB34" s="123"/>
       <c r="AC34" s="77"/>
       <c r="AD34" s="64"/>
       <c r="AF34" s="64"/>
       <c r="AG34" s="64"/>
-      <c r="AH34" s="84"/>
+      <c r="AH34" s="123"/>
       <c r="AI34" s="77"/>
       <c r="AJ34" s="64"/>
-      <c r="AP34" s="91"/>
+      <c r="AP34" s="89"/>
     </row>
     <row r="35" spans="1:42" ht="15.75">
       <c r="B35" s="37"/>
@@ -12895,21 +12903,21 @@
       <c r="K35" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="L35" s="98">
+      <c r="L35" s="96">
         <f>J35*$K$188</f>
         <v>2775</v>
       </c>
-      <c r="M35" s="98">
+      <c r="M35" s="96">
         <f t="shared" si="8"/>
         <v>2.7749999999999999</v>
       </c>
-      <c r="N35" s="98">
+      <c r="N35" s="96">
         <v>1.28</v>
       </c>
-      <c r="O35" s="98">
+      <c r="O35" s="96">
         <v>0.9</v>
       </c>
-      <c r="P35" s="102">
+      <c r="P35" s="100">
         <f t="shared" si="9"/>
         <v>3.1968000000000001</v>
       </c>
@@ -12930,15 +12938,15 @@
         <v>57.542400000000001</v>
       </c>
       <c r="AA35" s="70"/>
-      <c r="AB35" s="125"/>
+      <c r="AB35" s="123"/>
       <c r="AC35" s="77"/>
       <c r="AD35" s="64"/>
       <c r="AF35" s="64"/>
       <c r="AG35" s="64"/>
-      <c r="AH35" s="84"/>
+      <c r="AH35" s="123"/>
       <c r="AI35" s="77"/>
       <c r="AJ35" s="64"/>
-      <c r="AP35" s="91"/>
+      <c r="AP35" s="89"/>
     </row>
     <row r="36" spans="1:42" ht="16.5" thickBot="1">
       <c r="B36" s="37"/>
@@ -12959,21 +12967,21 @@
       <c r="K36" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="L36" s="98">
+      <c r="L36" s="96">
         <f>J36*$K$188</f>
         <v>2220</v>
       </c>
-      <c r="M36" s="98">
+      <c r="M36" s="96">
         <f t="shared" si="8"/>
         <v>2.2200000000000002</v>
       </c>
-      <c r="N36" s="98">
+      <c r="N36" s="96">
         <v>1.28</v>
       </c>
-      <c r="O36" s="98">
+      <c r="O36" s="96">
         <v>0.9</v>
       </c>
-      <c r="P36" s="102">
+      <c r="P36" s="100">
         <f t="shared" si="9"/>
         <v>2.5574400000000002</v>
       </c>
@@ -12994,12 +13002,12 @@
         <v>69.050880000000006</v>
       </c>
       <c r="AA36" s="70"/>
-      <c r="AB36" s="125"/>
+      <c r="AB36" s="123"/>
       <c r="AC36" s="77"/>
       <c r="AF36" s="64"/>
-      <c r="AH36" s="84"/>
+      <c r="AH36" s="123"/>
       <c r="AI36" s="77"/>
-      <c r="AP36" s="91"/>
+      <c r="AP36" s="89"/>
     </row>
     <row r="37" spans="1:42" ht="15.75">
       <c r="A37" s="18">
@@ -13035,21 +13043,21 @@
       <c r="K37" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="L37" s="98">
+      <c r="L37" s="96">
         <f>J37*$K$187</f>
         <v>1240</v>
       </c>
-      <c r="M37" s="98">
+      <c r="M37" s="96">
         <f t="shared" si="8"/>
         <v>1.24</v>
       </c>
-      <c r="N37" s="98">
+      <c r="N37" s="96">
         <v>1.34</v>
       </c>
-      <c r="O37" s="98">
+      <c r="O37" s="96">
         <v>0.9</v>
       </c>
-      <c r="P37" s="102">
+      <c r="P37" s="100">
         <f t="shared" si="9"/>
         <v>1.4954400000000001</v>
       </c>
@@ -13093,35 +13101,35 @@
         <f>IF(Z37&lt;$T$178,($T$178-Z37)*F37,0)</f>
         <v>0</v>
       </c>
-      <c r="AB37" s="125">
+      <c r="AB37" s="123">
         <f>IF(AA37=0,F37,0)</f>
         <v>68.03</v>
       </c>
-      <c r="AC37" s="86">
+      <c r="AC37" s="84">
         <f>-AB37*$T$122</f>
-        <v>-0.27503537422280144</v>
+        <v>-0.27198717713823745</v>
       </c>
       <c r="AD37" s="72">
         <f>AA37+Y37+AC37</f>
-        <v>0.52123071012178002</v>
+        <v>0.52427890720634407</v>
       </c>
       <c r="AE37">
         <f>AD37/F37</f>
-        <v>7.6617773059206237E-3</v>
+        <v>7.7065839659906524E-3</v>
       </c>
       <c r="AF37" s="72">
         <f>IF(AE37&lt;$T$178,($T$178-AE37)*F37,0)</f>
-        <v>0.27447462345917856</v>
+        <v>0.2714264263746145</v>
       </c>
       <c r="AG37" s="72">
         <f>AD37+AF37</f>
         <v>0.79570533358095852</v>
       </c>
-      <c r="AH37" s="84">
+      <c r="AH37" s="123">
         <f>IF(AF37=0,F37,0)</f>
         <v>0</v>
       </c>
-      <c r="AI37" s="86">
+      <c r="AI37" s="84">
         <f>-AH37*$T$126</f>
         <v>0</v>
       </c>
@@ -13145,7 +13153,7 @@
         <f>$Z$113*F37</f>
         <v>0.18722478437199028</v>
       </c>
-      <c r="AP37" s="90">
+      <c r="AP37" s="88">
         <f>AJ37+AM37+AN37+AO37</f>
         <v>1.0765425101389439</v>
       </c>
@@ -13169,21 +13177,21 @@
       <c r="K38" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="L38" s="98">
+      <c r="L38" s="96">
         <f>J38*$K$187</f>
         <v>1395</v>
       </c>
-      <c r="M38" s="98">
+      <c r="M38" s="96">
         <f t="shared" si="8"/>
         <v>1.395</v>
       </c>
-      <c r="N38" s="98">
+      <c r="N38" s="96">
         <v>1.34</v>
       </c>
-      <c r="O38" s="98">
+      <c r="O38" s="96">
         <v>0.9</v>
       </c>
-      <c r="P38" s="102">
+      <c r="P38" s="100">
         <f t="shared" si="9"/>
         <v>1.6823700000000001</v>
       </c>
@@ -13204,15 +13212,15 @@
         <v>80.75376</v>
       </c>
       <c r="AA38" s="70"/>
-      <c r="AB38" s="125"/>
+      <c r="AB38" s="123"/>
       <c r="AC38" s="77"/>
       <c r="AD38" s="64"/>
       <c r="AF38" s="64"/>
       <c r="AG38" s="64"/>
-      <c r="AH38" s="84"/>
+      <c r="AH38" s="123"/>
       <c r="AI38" s="77"/>
       <c r="AJ38" s="64"/>
-      <c r="AP38" s="91"/>
+      <c r="AP38" s="89"/>
     </row>
     <row r="39" spans="1:42" ht="15.75">
       <c r="B39" s="37"/>
@@ -13233,21 +13241,21 @@
       <c r="K39" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="L39" s="98">
+      <c r="L39" s="96">
         <f>J39*$K$187</f>
         <v>1395</v>
       </c>
-      <c r="M39" s="98">
+      <c r="M39" s="96">
         <f t="shared" si="8"/>
         <v>1.395</v>
       </c>
-      <c r="N39" s="98">
+      <c r="N39" s="96">
         <v>1.34</v>
       </c>
-      <c r="O39" s="98">
+      <c r="O39" s="96">
         <v>0.9</v>
       </c>
-      <c r="P39" s="102">
+      <c r="P39" s="100">
         <f t="shared" si="9"/>
         <v>1.6823700000000001</v>
       </c>
@@ -13268,15 +13276,15 @@
         <v>60.565320000000007</v>
       </c>
       <c r="AA39" s="70"/>
-      <c r="AB39" s="125"/>
+      <c r="AB39" s="123"/>
       <c r="AC39" s="77"/>
       <c r="AD39" s="64"/>
       <c r="AF39" s="64"/>
       <c r="AG39" s="64"/>
-      <c r="AH39" s="84"/>
+      <c r="AH39" s="123"/>
       <c r="AI39" s="77"/>
       <c r="AJ39" s="64"/>
-      <c r="AP39" s="91"/>
+      <c r="AP39" s="89"/>
     </row>
     <row r="40" spans="1:42" ht="16.5" thickBot="1">
       <c r="B40" s="37"/>
@@ -13297,21 +13305,21 @@
       <c r="K40" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="L40" s="98">
+      <c r="L40" s="96">
         <f>J40*$K$187</f>
         <v>775</v>
       </c>
-      <c r="M40" s="98">
+      <c r="M40" s="96">
         <f t="shared" si="8"/>
         <v>0.77500000000000002</v>
       </c>
-      <c r="N40" s="98">
+      <c r="N40" s="96">
         <v>1.34</v>
       </c>
-      <c r="O40" s="98">
+      <c r="O40" s="96">
         <v>0.9</v>
       </c>
-      <c r="P40" s="102">
+      <c r="P40" s="100">
         <f t="shared" si="9"/>
         <v>0.9346500000000002</v>
       </c>
@@ -13332,12 +13340,12 @@
         <v>44.863200000000006</v>
       </c>
       <c r="AA40" s="70"/>
-      <c r="AB40" s="125"/>
+      <c r="AB40" s="123"/>
       <c r="AC40" s="77"/>
       <c r="AF40" s="64"/>
-      <c r="AH40" s="84"/>
+      <c r="AH40" s="123"/>
       <c r="AI40" s="77"/>
-      <c r="AP40" s="91"/>
+      <c r="AP40" s="89"/>
     </row>
     <row r="41" spans="1:42" ht="15.75">
       <c r="A41" s="18">
@@ -13373,21 +13381,21 @@
       <c r="K41" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="L41" s="98">
+      <c r="L41" s="96">
         <f>J41*$K$188</f>
         <v>925</v>
       </c>
-      <c r="M41" s="98">
+      <c r="M41" s="96">
         <f t="shared" si="8"/>
         <v>0.92500000000000004</v>
       </c>
-      <c r="N41" s="98">
+      <c r="N41" s="96">
         <v>1.28</v>
       </c>
-      <c r="O41" s="98">
+      <c r="O41" s="96">
         <v>0.9</v>
       </c>
-      <c r="P41" s="102">
+      <c r="P41" s="100">
         <f t="shared" si="9"/>
         <v>1.0656000000000001</v>
       </c>
@@ -13431,35 +13439,35 @@
         <f>IF(Z41&lt;$T$178,($T$178-Z41)*F41,0)</f>
         <v>0</v>
       </c>
-      <c r="AB41" s="125">
+      <c r="AB41" s="123">
         <f>IF(AA41=0,F41,0)</f>
         <v>50.88</v>
       </c>
-      <c r="AC41" s="86">
+      <c r="AC41" s="84">
         <f>-AB41*$T$122</f>
-        <v>-0.20570042393732382</v>
+        <v>-0.20342066107296081</v>
       </c>
       <c r="AD41" s="72">
         <f>AA41+Y41+AC41</f>
-        <v>0.39102262266353194</v>
+        <v>0.39330238552789493</v>
       </c>
       <c r="AE41">
         <f>AD41/F41</f>
-        <v>7.6851930554939453E-3</v>
+        <v>7.7299997155639722E-3</v>
       </c>
       <c r="AF41" s="72">
         <f>IF(AE41&lt;$T$178,($T$178-AE41)*F41,0)</f>
-        <v>0.20408964211082015</v>
+        <v>0.20180987924645719</v>
       </c>
       <c r="AG41" s="72">
         <f>AD41+AF41</f>
         <v>0.59511226477435208</v>
       </c>
-      <c r="AH41" s="84">
+      <c r="AH41" s="123">
         <f>IF(AF41=0,F41,0)</f>
         <v>0</v>
       </c>
-      <c r="AI41" s="86">
+      <c r="AI41" s="84">
         <f>-AH41*$T$126</f>
         <v>0</v>
       </c>
@@ -13483,7 +13491,7 @@
         <f>$Z$113*F41</f>
         <v>0.14002641524102405</v>
       </c>
-      <c r="AP41" s="90">
+      <c r="AP41" s="88">
         <f>AJ41+AM41+AN41+AO41</f>
         <v>0.80515188763588807</v>
       </c>
@@ -13507,21 +13515,21 @@
       <c r="K42" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="L42" s="98">
+      <c r="L42" s="96">
         <f t="shared" ref="L42:L56" si="14">J42*$K$188</f>
         <v>925</v>
       </c>
-      <c r="M42" s="98">
+      <c r="M42" s="96">
         <f t="shared" si="8"/>
         <v>0.92500000000000004</v>
       </c>
-      <c r="N42" s="98">
+      <c r="N42" s="96">
         <v>1.28</v>
       </c>
-      <c r="O42" s="98">
+      <c r="O42" s="96">
         <v>0.9</v>
       </c>
-      <c r="P42" s="102">
+      <c r="P42" s="100">
         <f t="shared" si="9"/>
         <v>1.0656000000000001</v>
       </c>
@@ -13542,15 +13550,15 @@
         <v>38.361600000000003</v>
       </c>
       <c r="AA42" s="70"/>
-      <c r="AB42" s="125"/>
+      <c r="AB42" s="123"/>
       <c r="AC42" s="77"/>
       <c r="AD42" s="64"/>
       <c r="AF42" s="64"/>
       <c r="AG42" s="64"/>
-      <c r="AH42" s="84"/>
+      <c r="AH42" s="123"/>
       <c r="AI42" s="77"/>
       <c r="AJ42" s="64"/>
-      <c r="AP42" s="91"/>
+      <c r="AP42" s="89"/>
     </row>
     <row r="43" spans="1:42" ht="15.75">
       <c r="B43" s="37"/>
@@ -13571,21 +13579,21 @@
       <c r="K43" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="L43" s="98">
+      <c r="L43" s="96">
         <f>J43*$K$189</f>
         <v>1080</v>
       </c>
-      <c r="M43" s="98">
+      <c r="M43" s="96">
         <f t="shared" si="8"/>
         <v>1.08</v>
       </c>
-      <c r="N43" s="98">
+      <c r="N43" s="96">
         <v>1.28</v>
       </c>
-      <c r="O43" s="98">
+      <c r="O43" s="96">
         <v>0.9</v>
       </c>
-      <c r="P43" s="102">
+      <c r="P43" s="100">
         <f t="shared" si="9"/>
         <v>1.2441600000000002</v>
       </c>
@@ -13606,15 +13614,15 @@
         <v>43.545600000000007</v>
       </c>
       <c r="AA43" s="70"/>
-      <c r="AB43" s="125"/>
+      <c r="AB43" s="123"/>
       <c r="AC43" s="77"/>
       <c r="AD43" s="64"/>
       <c r="AF43" s="64"/>
       <c r="AG43" s="64"/>
-      <c r="AH43" s="84"/>
+      <c r="AH43" s="123"/>
       <c r="AI43" s="77"/>
       <c r="AJ43" s="64"/>
-      <c r="AP43" s="91"/>
+      <c r="AP43" s="89"/>
     </row>
     <row r="44" spans="1:42" ht="16.5" thickBot="1">
       <c r="B44" s="37"/>
@@ -13635,21 +13643,21 @@
       <c r="K44" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="L44" s="98">
+      <c r="L44" s="96">
         <f>J44*$K$189</f>
         <v>900</v>
       </c>
-      <c r="M44" s="98">
+      <c r="M44" s="96">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
-      <c r="N44" s="98">
+      <c r="N44" s="96">
         <v>1.28</v>
       </c>
-      <c r="O44" s="98">
+      <c r="O44" s="96">
         <v>0.9</v>
       </c>
-      <c r="P44" s="102">
+      <c r="P44" s="100">
         <f t="shared" si="9"/>
         <v>1.0368000000000002</v>
       </c>
@@ -13670,12 +13678,12 @@
         <v>45.619200000000006</v>
       </c>
       <c r="AA44" s="70"/>
-      <c r="AB44" s="125"/>
+      <c r="AB44" s="123"/>
       <c r="AC44" s="77"/>
       <c r="AF44" s="64"/>
-      <c r="AH44" s="84"/>
+      <c r="AH44" s="123"/>
       <c r="AI44" s="77"/>
-      <c r="AP44" s="91"/>
+      <c r="AP44" s="89"/>
     </row>
     <row r="45" spans="1:42" ht="16.5" thickBot="1">
       <c r="A45" s="18">
@@ -13701,39 +13709,39 @@
       <c r="I45" s="27"/>
       <c r="J45" s="27"/>
       <c r="K45" s="28"/>
-      <c r="L45" s="98"/>
-      <c r="M45" s="98"/>
-      <c r="N45" s="98"/>
-      <c r="O45" s="98"/>
-      <c r="P45" s="102"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="96"/>
+      <c r="O45" s="96"/>
+      <c r="P45" s="100"/>
       <c r="R45" s="60"/>
       <c r="S45" s="60"/>
       <c r="T45" s="60"/>
       <c r="U45" s="75"/>
       <c r="AA45" s="70"/>
-      <c r="AB45" s="125">
+      <c r="AB45" s="123">
         <f>IF(AA45=0,F45,0)</f>
         <v>51.9</v>
       </c>
-      <c r="AC45" s="86">
+      <c r="AC45" s="84">
         <f>-AB45*$T$122</f>
-        <v>-0.20982413526625598</v>
+        <v>-0.20749866960862154</v>
       </c>
       <c r="AD45" s="64"/>
       <c r="AF45" s="64"/>
       <c r="AG45" s="64"/>
-      <c r="AH45" s="84">
+      <c r="AH45" s="123">
         <f>IF(AF45=0,F45,0)</f>
         <v>51.9</v>
       </c>
-      <c r="AI45" s="86">
+      <c r="AI45" s="84">
         <f>-AH45*$T$126</f>
-        <v>-2.2865889581934296E-2</v>
+        <v>-2.2506480775703479E-2</v>
       </c>
       <c r="AJ45" s="64"/>
       <c r="AM45" s="72">
         <f>F45*$Y$171</f>
-        <v>2.3307397807059504</v>
+        <v>2.3334246551698157</v>
       </c>
       <c r="AN45" s="72">
         <f>$Z$112*F45</f>
@@ -13743,9 +13751,9 @@
         <f>$Z$113*F45</f>
         <v>0.14283354856543137</v>
       </c>
-      <c r="AP45" s="90">
+      <c r="AP45" s="88">
         <f>AJ45+AM45+AN45+AO45</f>
-        <v>2.5449901035540976</v>
+        <v>2.5476749780179628</v>
       </c>
     </row>
     <row r="46" spans="1:42" ht="15.75">
@@ -13782,21 +13790,21 @@
       <c r="K46" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="L46" s="98">
+      <c r="L46" s="96">
         <f t="shared" si="14"/>
         <v>1850</v>
       </c>
-      <c r="M46" s="98">
+      <c r="M46" s="96">
         <f t="shared" si="8"/>
         <v>1.85</v>
       </c>
-      <c r="N46" s="98">
+      <c r="N46" s="96">
         <v>1.28</v>
       </c>
-      <c r="O46" s="98">
+      <c r="O46" s="96">
         <v>0.9</v>
       </c>
-      <c r="P46" s="102">
+      <c r="P46" s="100">
         <f t="shared" si="9"/>
         <v>2.1312000000000002</v>
       </c>
@@ -13840,21 +13848,21 @@
         <f>IF(Z46&lt;$T$178,($T$178-Z46)*F46,0)</f>
         <v>0</v>
       </c>
-      <c r="AB46" s="125">
+      <c r="AB46" s="123">
         <f>IF(AA46=0,F46,0)</f>
         <v>66.81</v>
       </c>
-      <c r="AC46" s="86">
+      <c r="AC46" s="84">
         <f>-AB46*$T$122</f>
-        <v>-0.27010309204505906</v>
+        <v>-0.26710955908578049</v>
       </c>
       <c r="AD46" s="72">
         <f>AA46+Y46+AC46</f>
-        <v>0.82568327452025336</v>
+        <v>0.82867680747953198</v>
       </c>
       <c r="AE46">
         <f>AD46/F46</f>
-        <v>1.2358677960189393E-2</v>
+        <v>1.2403484620259421E-2</v>
       </c>
       <c r="AF46" s="72">
         <f>IF(AE46&lt;$T$178,($T$178-AE46)*F46,0)</f>
@@ -13862,23 +13870,23 @@
       </c>
       <c r="AG46" s="72">
         <f>AD46+AF46</f>
-        <v>0.82568327452025336</v>
-      </c>
-      <c r="AH46" s="84">
+        <v>0.82867680747953198</v>
+      </c>
+      <c r="AH46" s="123">
         <f>IF(AF46=0,F46,0)</f>
         <v>66.81</v>
       </c>
-      <c r="AI46" s="86">
+      <c r="AI46" s="84">
         <f>-AH46*$T$126</f>
-        <v>-2.9434876357784783E-2</v>
+        <v>-2.8972215426295751E-2</v>
       </c>
       <c r="AJ46" s="72">
         <f>AG46+AI46</f>
-        <v>0.79624839816246862</v>
+        <v>0.79970459205323619</v>
       </c>
       <c r="AK46">
         <f>AJ46/F46</f>
-        <v>1.1918102053023029E-2</v>
+        <v>1.1969833738261281E-2</v>
       </c>
       <c r="AL46" s="72">
         <f>IF(AK46&lt;$T$178,($T$178-AK46)*Q46,0)</f>
@@ -13892,9 +13900,9 @@
         <f>$Z$113*F46</f>
         <v>0.18386723274867958</v>
       </c>
-      <c r="AP46" s="90">
+      <c r="AP46" s="88">
         <f>AJ46+AM46+AN46+AO46</f>
-        <v>1.0720492472854881</v>
+        <v>1.0755054411762557</v>
       </c>
     </row>
     <row r="47" spans="1:42" ht="15.75">
@@ -13916,21 +13924,21 @@
       <c r="K47" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="L47" s="98">
+      <c r="L47" s="96">
         <f t="shared" si="14"/>
         <v>1850</v>
       </c>
-      <c r="M47" s="98">
+      <c r="M47" s="96">
         <f t="shared" si="8"/>
         <v>1.85</v>
       </c>
-      <c r="N47" s="98">
+      <c r="N47" s="96">
         <v>1.28</v>
       </c>
-      <c r="O47" s="98">
+      <c r="O47" s="96">
         <v>0.9</v>
       </c>
-      <c r="P47" s="102">
+      <c r="P47" s="100">
         <f t="shared" si="9"/>
         <v>2.1312000000000002</v>
       </c>
@@ -13951,15 +13959,15 @@
         <v>83.116800000000012</v>
       </c>
       <c r="AA47" s="70"/>
-      <c r="AB47" s="125"/>
+      <c r="AB47" s="123"/>
       <c r="AC47" s="77"/>
       <c r="AD47" s="64"/>
       <c r="AF47" s="64"/>
       <c r="AG47" s="64"/>
-      <c r="AH47" s="84"/>
+      <c r="AH47" s="123"/>
       <c r="AI47" s="77"/>
       <c r="AJ47" s="64"/>
-      <c r="AP47" s="91"/>
+      <c r="AP47" s="89"/>
     </row>
     <row r="48" spans="1:42" ht="15.75">
       <c r="B48" s="37"/>
@@ -13980,21 +13988,21 @@
       <c r="K48" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="L48" s="98">
+      <c r="L48" s="96">
         <f t="shared" si="14"/>
         <v>1850</v>
       </c>
-      <c r="M48" s="98">
+      <c r="M48" s="96">
         <f t="shared" si="8"/>
         <v>1.85</v>
       </c>
-      <c r="N48" s="98">
+      <c r="N48" s="96">
         <v>1.28</v>
       </c>
-      <c r="O48" s="98">
+      <c r="O48" s="96">
         <v>0.9</v>
       </c>
-      <c r="P48" s="102">
+      <c r="P48" s="100">
         <f t="shared" si="9"/>
         <v>2.1312000000000002</v>
       </c>
@@ -14015,15 +14023,15 @@
         <v>100.16640000000001</v>
       </c>
       <c r="AA48" s="70"/>
-      <c r="AB48" s="125"/>
+      <c r="AB48" s="123"/>
       <c r="AC48" s="77"/>
       <c r="AD48" s="64"/>
       <c r="AF48" s="64"/>
       <c r="AG48" s="64"/>
-      <c r="AH48" s="84"/>
+      <c r="AH48" s="123"/>
       <c r="AI48" s="77"/>
       <c r="AJ48" s="64"/>
-      <c r="AP48" s="91"/>
+      <c r="AP48" s="89"/>
     </row>
     <row r="49" spans="1:42" ht="16.5" thickBot="1">
       <c r="B49" s="37"/>
@@ -14044,21 +14052,21 @@
       <c r="K49" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="L49" s="98">
+      <c r="L49" s="96">
         <f t="shared" si="14"/>
         <v>1295</v>
       </c>
-      <c r="M49" s="98">
+      <c r="M49" s="96">
         <f t="shared" si="8"/>
         <v>1.2949999999999999</v>
       </c>
-      <c r="N49" s="98">
+      <c r="N49" s="96">
         <v>1.28</v>
       </c>
-      <c r="O49" s="98">
+      <c r="O49" s="96">
         <v>0.9</v>
       </c>
-      <c r="P49" s="102">
+      <c r="P49" s="100">
         <f t="shared" si="9"/>
         <v>1.4918400000000001</v>
       </c>
@@ -14079,12 +14087,12 @@
         <v>77.575680000000006</v>
       </c>
       <c r="AA49" s="70"/>
-      <c r="AB49" s="125"/>
+      <c r="AB49" s="123"/>
       <c r="AC49" s="77"/>
       <c r="AF49" s="64"/>
-      <c r="AH49" s="84"/>
+      <c r="AH49" s="123"/>
       <c r="AI49" s="77"/>
-      <c r="AP49" s="91"/>
+      <c r="AP49" s="89"/>
     </row>
     <row r="50" spans="1:42" ht="15.75">
       <c r="A50" s="18">
@@ -14120,21 +14128,21 @@
       <c r="K50" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="L50" s="98">
+      <c r="L50" s="96">
         <f t="shared" si="14"/>
         <v>1480</v>
       </c>
-      <c r="M50" s="98">
+      <c r="M50" s="96">
         <f t="shared" si="8"/>
         <v>1.48</v>
       </c>
-      <c r="N50" s="98">
+      <c r="N50" s="96">
         <v>1.28</v>
       </c>
-      <c r="O50" s="98">
+      <c r="O50" s="96">
         <v>0.9</v>
       </c>
-      <c r="P50" s="102">
+      <c r="P50" s="100">
         <f t="shared" si="9"/>
         <v>1.70496</v>
       </c>
@@ -14178,11 +14186,11 @@
         <f>IF(Z50&lt;$T$178,($T$178-Z50)*F50,0)</f>
         <v>0.81289902519295343</v>
       </c>
-      <c r="AB50" s="125">
+      <c r="AB50" s="123">
         <f>IF(AA50=0,F50,0)</f>
         <v>0</v>
       </c>
-      <c r="AC50" s="86">
+      <c r="AC50" s="84">
         <f>-AB50*$T$122</f>
         <v>0</v>
       </c>
@@ -14202,21 +14210,21 @@
         <f>AD50+AF50</f>
         <v>0.81289902519295343</v>
       </c>
-      <c r="AH50" s="84">
+      <c r="AH50" s="123">
         <f>IF(AF50=0,F50,0)</f>
         <v>69.5</v>
       </c>
-      <c r="AI50" s="86">
+      <c r="AI50" s="84">
         <f>-AH50*$T$126</f>
-        <v>-3.0620025548062303E-2</v>
+        <v>-3.0138736298870747E-2</v>
       </c>
       <c r="AJ50" s="72">
         <f>AG50+AI50</f>
-        <v>0.78227899964489112</v>
+        <v>0.78276028889408267</v>
       </c>
       <c r="AK50">
         <f>AJ50/F50</f>
-        <v>1.1255812944530808E-2</v>
+        <v>1.1262737969699031E-2</v>
       </c>
       <c r="AL50" s="72">
         <f>IF(AK50&lt;$T$178,($T$178-AK50)*Q50,0)</f>
@@ -14230,9 +14238,9 @@
         <f>$Z$113*F50</f>
         <v>0.19127035886893023</v>
       </c>
-      <c r="AP50" s="90">
+      <c r="AP50" s="88">
         <f>AJ50+AM50+AN50+AO50</f>
-        <v>1.0691845379482865</v>
+        <v>1.0696658271974779</v>
       </c>
     </row>
     <row r="51" spans="1:42" ht="15.75">
@@ -14254,21 +14262,21 @@
       <c r="K51" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="L51" s="98">
+      <c r="L51" s="96">
         <f t="shared" si="14"/>
         <v>2035</v>
       </c>
-      <c r="M51" s="98">
+      <c r="M51" s="96">
         <f t="shared" si="8"/>
         <v>2.0350000000000001</v>
       </c>
-      <c r="N51" s="98">
+      <c r="N51" s="96">
         <v>1.28</v>
       </c>
-      <c r="O51" s="98">
+      <c r="O51" s="96">
         <v>0.9</v>
       </c>
-      <c r="P51" s="102">
+      <c r="P51" s="100">
         <f t="shared" si="9"/>
         <v>2.3443200000000006</v>
       </c>
@@ -14289,15 +14297,15 @@
         <v>0</v>
       </c>
       <c r="AA51" s="70"/>
-      <c r="AB51" s="125"/>
+      <c r="AB51" s="123"/>
       <c r="AC51" s="77"/>
       <c r="AD51" s="64"/>
       <c r="AF51" s="64"/>
       <c r="AG51" s="64"/>
-      <c r="AH51" s="84"/>
+      <c r="AH51" s="123"/>
       <c r="AI51" s="77"/>
       <c r="AJ51" s="64"/>
-      <c r="AP51" s="91"/>
+      <c r="AP51" s="89"/>
     </row>
     <row r="52" spans="1:42" ht="15.75">
       <c r="B52" s="37"/>
@@ -14318,21 +14326,21 @@
       <c r="K52" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="L52" s="98">
+      <c r="L52" s="96">
         <f t="shared" si="14"/>
         <v>1480</v>
       </c>
-      <c r="M52" s="98">
+      <c r="M52" s="96">
         <f t="shared" si="8"/>
         <v>1.48</v>
       </c>
-      <c r="N52" s="98">
+      <c r="N52" s="96">
         <v>1.28</v>
       </c>
-      <c r="O52" s="98">
+      <c r="O52" s="96">
         <v>0.9</v>
       </c>
-      <c r="P52" s="102">
+      <c r="P52" s="100">
         <f t="shared" si="9"/>
         <v>1.70496</v>
       </c>
@@ -14353,15 +14361,15 @@
         <v>0</v>
       </c>
       <c r="AA52" s="70"/>
-      <c r="AB52" s="125"/>
+      <c r="AB52" s="123"/>
       <c r="AC52" s="77"/>
       <c r="AD52" s="64"/>
       <c r="AF52" s="64"/>
       <c r="AG52" s="64"/>
-      <c r="AH52" s="84"/>
+      <c r="AH52" s="123"/>
       <c r="AI52" s="77"/>
       <c r="AJ52" s="64"/>
-      <c r="AP52" s="91"/>
+      <c r="AP52" s="89"/>
     </row>
     <row r="53" spans="1:42" ht="16.5" thickBot="1">
       <c r="B53" s="37"/>
@@ -14382,21 +14390,21 @@
       <c r="K53" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="L53" s="98">
+      <c r="L53" s="96">
         <f t="shared" si="14"/>
         <v>2405</v>
       </c>
-      <c r="M53" s="98">
+      <c r="M53" s="96">
         <f t="shared" si="8"/>
         <v>2.4049999999999998</v>
       </c>
-      <c r="N53" s="98">
+      <c r="N53" s="96">
         <v>1.28</v>
       </c>
-      <c r="O53" s="98">
+      <c r="O53" s="96">
         <v>0.9</v>
       </c>
-      <c r="P53" s="102">
+      <c r="P53" s="100">
         <f t="shared" si="9"/>
         <v>2.7705599999999997</v>
       </c>
@@ -14417,12 +14425,12 @@
         <v>0</v>
       </c>
       <c r="AA53" s="70"/>
-      <c r="AB53" s="125"/>
+      <c r="AB53" s="123"/>
       <c r="AC53" s="77"/>
       <c r="AF53" s="64"/>
-      <c r="AH53" s="84"/>
+      <c r="AH53" s="123"/>
       <c r="AI53" s="77"/>
-      <c r="AP53" s="91"/>
+      <c r="AP53" s="89"/>
     </row>
     <row r="54" spans="1:42" ht="15.75">
       <c r="A54" s="18">
@@ -14458,21 +14466,21 @@
       <c r="K54" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="L54" s="98">
+      <c r="L54" s="96">
         <f t="shared" si="14"/>
         <v>1850</v>
       </c>
-      <c r="M54" s="98">
+      <c r="M54" s="96">
         <f t="shared" si="8"/>
         <v>1.85</v>
       </c>
-      <c r="N54" s="98">
+      <c r="N54" s="96">
         <v>1.28</v>
       </c>
-      <c r="O54" s="98">
+      <c r="O54" s="96">
         <v>0.9</v>
       </c>
-      <c r="P54" s="102">
+      <c r="P54" s="100">
         <f t="shared" si="9"/>
         <v>2.1312000000000002</v>
       </c>
@@ -14516,11 +14524,11 @@
         <f>IF(Z54&lt;$T$178,($T$178-Z54)*F54,0)</f>
         <v>0.60489725714082299</v>
       </c>
-      <c r="AB54" s="125">
+      <c r="AB54" s="123">
         <f>IF(AA54=0,F54,0)</f>
         <v>0</v>
       </c>
-      <c r="AC54" s="86">
+      <c r="AC54" s="84">
         <f>-AB54*$T$122</f>
         <v>0</v>
       </c>
@@ -14540,21 +14548,21 @@
         <f>AD54+AF54</f>
         <v>0.65476384791800757</v>
       </c>
-      <c r="AH54" s="84">
+      <c r="AH54" s="123">
         <f>IF(AF54=0,F54,0)</f>
         <v>55.98</v>
       </c>
-      <c r="AI54" s="86">
+      <c r="AI54" s="84">
         <f>-AH54*$T$126</f>
-        <v>-2.466343928317306E-2</v>
+        <v>-2.4275776374255889E-2</v>
       </c>
       <c r="AJ54" s="72">
         <f>AG54+AI54</f>
-        <v>0.63010040863483452</v>
+        <v>0.63048807154375164</v>
       </c>
       <c r="AK54">
         <f>AJ54/F54</f>
-        <v>1.1255812944530806E-2</v>
+        <v>1.126273796969903E-2</v>
       </c>
       <c r="AL54" s="72">
         <f>IF(AK54&lt;$T$178,($T$178-AK54)*Q54,0)</f>
@@ -14568,9 +14576,9 @@
         <f>$Z$113*F54</f>
         <v>0.15406208186306064</v>
       </c>
-      <c r="AP54" s="90">
+      <c r="AP54" s="88">
         <f>AJ54+AM54+AN54+AO54</f>
-        <v>0.86119353142942545</v>
+        <v>0.86158119433834268</v>
       </c>
     </row>
     <row r="55" spans="1:42" ht="15.75">
@@ -14592,21 +14600,21 @@
       <c r="K55" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="L55" s="98">
+      <c r="L55" s="96">
         <f t="shared" si="14"/>
         <v>1295</v>
       </c>
-      <c r="M55" s="98">
+      <c r="M55" s="96">
         <f t="shared" si="8"/>
         <v>1.2949999999999999</v>
       </c>
-      <c r="N55" s="98">
+      <c r="N55" s="96">
         <v>1.28</v>
       </c>
-      <c r="O55" s="98">
+      <c r="O55" s="96">
         <v>0.9</v>
       </c>
-      <c r="P55" s="102">
+      <c r="P55" s="100">
         <f t="shared" si="9"/>
         <v>1.4918400000000001</v>
       </c>
@@ -14627,15 +14635,15 @@
         <v>5.9673600000000002</v>
       </c>
       <c r="AA55" s="70"/>
-      <c r="AB55" s="125"/>
+      <c r="AB55" s="123"/>
       <c r="AC55" s="77"/>
       <c r="AD55" s="64"/>
       <c r="AF55" s="64"/>
       <c r="AG55" s="64"/>
-      <c r="AH55" s="84"/>
+      <c r="AH55" s="123"/>
       <c r="AI55" s="77"/>
       <c r="AJ55" s="64"/>
-      <c r="AP55" s="91"/>
+      <c r="AP55" s="89"/>
     </row>
     <row r="56" spans="1:42" ht="16.5" thickBot="1">
       <c r="B56" s="37"/>
@@ -14656,21 +14664,21 @@
       <c r="K56" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="L56" s="98">
+      <c r="L56" s="96">
         <f t="shared" si="14"/>
         <v>740</v>
       </c>
-      <c r="M56" s="98">
+      <c r="M56" s="96">
         <f t="shared" si="8"/>
         <v>0.74</v>
       </c>
-      <c r="N56" s="98">
+      <c r="N56" s="96">
         <v>1.28</v>
       </c>
-      <c r="O56" s="98">
+      <c r="O56" s="96">
         <v>0.9</v>
       </c>
-      <c r="P56" s="102">
+      <c r="P56" s="100">
         <f t="shared" si="9"/>
         <v>0.85248000000000002</v>
       </c>
@@ -14691,12 +14699,12 @@
         <v>4.2624000000000004</v>
       </c>
       <c r="AA56" s="70"/>
-      <c r="AB56" s="125"/>
+      <c r="AB56" s="123"/>
       <c r="AC56" s="77"/>
       <c r="AF56" s="64"/>
-      <c r="AH56" s="84"/>
+      <c r="AH56" s="123"/>
       <c r="AI56" s="77"/>
-      <c r="AP56" s="91"/>
+      <c r="AP56" s="89"/>
     </row>
     <row r="57" spans="1:42" ht="15.75">
       <c r="A57" s="18">
@@ -14732,21 +14740,21 @@
       <c r="K57" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="L57" s="98">
+      <c r="L57" s="96">
         <f t="shared" ref="L57:L68" si="15">J57*$K$187</f>
         <v>1550</v>
       </c>
-      <c r="M57" s="98">
+      <c r="M57" s="96">
         <f t="shared" si="8"/>
         <v>1.55</v>
       </c>
-      <c r="N57" s="98">
+      <c r="N57" s="96">
         <v>1.34</v>
       </c>
-      <c r="O57" s="98">
+      <c r="O57" s="96">
         <v>0.9</v>
       </c>
-      <c r="P57" s="102">
+      <c r="P57" s="100">
         <f t="shared" si="9"/>
         <v>1.8693000000000004</v>
       </c>
@@ -14790,11 +14798,11 @@
         <f>IF(Z57&lt;$T$178,($T$178-Z57)*F57,0)</f>
         <v>0.27283512628380813</v>
       </c>
-      <c r="AB57" s="125">
+      <c r="AB57" s="123">
         <f>IF(AA57=0,F57,0)</f>
         <v>0</v>
       </c>
-      <c r="AC57" s="86">
+      <c r="AC57" s="84">
         <f>-AB57*$T$122</f>
         <v>0</v>
       </c>
@@ -14814,21 +14822,21 @@
         <f>AD57+AF57</f>
         <v>0.60704258140308309</v>
       </c>
-      <c r="AH57" s="84">
+      <c r="AH57" s="123">
         <f>IF(AF57=0,F57,0)</f>
         <v>51.9</v>
       </c>
-      <c r="AI57" s="86">
+      <c r="AI57" s="84">
         <f>-AH57*$T$126</f>
-        <v>-2.2865889581934296E-2</v>
+        <v>-2.2506480775703479E-2</v>
       </c>
       <c r="AJ57" s="72">
         <f>AG57+AI57</f>
-        <v>0.58417669182114884</v>
+        <v>0.5845361006273796</v>
       </c>
       <c r="AK57">
         <f>AJ57/F57</f>
-        <v>1.1255812944530806E-2</v>
+        <v>1.126273796969903E-2</v>
       </c>
       <c r="AL57" s="72">
         <f>IF(AK57&lt;$T$178,($T$178-AK57)*Q57,0)</f>
@@ -14842,9 +14850,9 @@
         <f>$Z$113*F57</f>
         <v>0.14283354856543137</v>
       </c>
-      <c r="AP57" s="90">
+      <c r="AP57" s="88">
         <f>AJ57+AM57+AN57+AO57</f>
-        <v>0.79842701466929589</v>
+        <v>0.79878642347552664</v>
       </c>
     </row>
     <row r="58" spans="1:42" ht="15.75">
@@ -14866,21 +14874,21 @@
       <c r="K58" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="L58" s="98">
+      <c r="L58" s="96">
         <f t="shared" si="15"/>
         <v>1085</v>
       </c>
-      <c r="M58" s="98">
+      <c r="M58" s="96">
         <f t="shared" si="8"/>
         <v>1.085</v>
       </c>
-      <c r="N58" s="98">
+      <c r="N58" s="96">
         <v>1.34</v>
       </c>
-      <c r="O58" s="98">
+      <c r="O58" s="96">
         <v>0.9</v>
       </c>
-      <c r="P58" s="102">
+      <c r="P58" s="100">
         <f t="shared" si="9"/>
         <v>1.3085100000000001</v>
       </c>
@@ -14901,15 +14909,15 @@
         <v>77.202089999999998</v>
       </c>
       <c r="AA58" s="70"/>
-      <c r="AB58" s="125"/>
+      <c r="AB58" s="123"/>
       <c r="AC58" s="77"/>
       <c r="AD58" s="64"/>
       <c r="AF58" s="64"/>
       <c r="AG58" s="64"/>
-      <c r="AH58" s="84"/>
+      <c r="AH58" s="123"/>
       <c r="AI58" s="77"/>
       <c r="AJ58" s="64"/>
-      <c r="AP58" s="91"/>
+      <c r="AP58" s="89"/>
     </row>
     <row r="59" spans="1:42" ht="16.5" thickBot="1">
       <c r="B59" s="37"/>
@@ -14930,21 +14938,21 @@
       <c r="K59" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="L59" s="98">
+      <c r="L59" s="96">
         <f t="shared" si="15"/>
         <v>465</v>
       </c>
-      <c r="M59" s="98">
+      <c r="M59" s="96">
         <f t="shared" si="8"/>
         <v>0.46500000000000002</v>
       </c>
-      <c r="N59" s="98">
+      <c r="N59" s="96">
         <v>1.34</v>
       </c>
-      <c r="O59" s="98">
+      <c r="O59" s="96">
         <v>0.9</v>
       </c>
-      <c r="P59" s="102">
+      <c r="P59" s="100">
         <f t="shared" si="9"/>
         <v>0.56079000000000012</v>
       </c>
@@ -14965,12 +14973,12 @@
         <v>34.208190000000009</v>
       </c>
       <c r="AA59" s="70"/>
-      <c r="AB59" s="125"/>
+      <c r="AB59" s="123"/>
       <c r="AC59" s="77"/>
       <c r="AF59" s="64"/>
-      <c r="AH59" s="84"/>
+      <c r="AH59" s="123"/>
       <c r="AI59" s="77"/>
-      <c r="AP59" s="91"/>
+      <c r="AP59" s="89"/>
     </row>
     <row r="60" spans="1:42" ht="15.75">
       <c r="A60" s="18">
@@ -15006,21 +15014,21 @@
       <c r="K60" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="L60" s="98">
+      <c r="L60" s="96">
         <f t="shared" si="15"/>
         <v>1085</v>
       </c>
-      <c r="M60" s="98">
+      <c r="M60" s="96">
         <f t="shared" si="8"/>
         <v>1.085</v>
       </c>
-      <c r="N60" s="98">
+      <c r="N60" s="96">
         <v>1.34</v>
       </c>
-      <c r="O60" s="98">
+      <c r="O60" s="96">
         <v>0.9</v>
       </c>
-      <c r="P60" s="102">
+      <c r="P60" s="100">
         <f t="shared" si="9"/>
         <v>1.3085100000000001</v>
       </c>
@@ -15064,11 +15072,11 @@
         <f>IF(Z60&lt;$T$178,($T$178-Z60)*F60,0)</f>
         <v>0.25757335829342054</v>
       </c>
-      <c r="AB60" s="125">
+      <c r="AB60" s="123">
         <f>IF(AA60=0,F60,0)</f>
         <v>0</v>
       </c>
-      <c r="AC60" s="86">
+      <c r="AC60" s="84">
         <f>-AB60*$T$122</f>
         <v>0</v>
       </c>
@@ -15088,21 +15096,21 @@
         <f>AD60+AF60</f>
         <v>0.81664186962549645</v>
       </c>
-      <c r="AH60" s="84">
+      <c r="AH60" s="123">
         <f>IF(AF60=0,F60,0)</f>
         <v>69.819999999999993</v>
       </c>
-      <c r="AI60" s="86">
+      <c r="AI60" s="84">
         <f>-AH60*$T$126</f>
-        <v>-3.0761009838355537E-2</v>
+        <v>-3.027750458111015E-2</v>
       </c>
       <c r="AJ60" s="72">
         <f>AG60+AI60</f>
-        <v>0.78588085978714095</v>
+        <v>0.78636436504438634</v>
       </c>
       <c r="AK60">
         <f>AJ60/F60</f>
-        <v>1.1255812944530808E-2</v>
+        <v>1.1262737969699031E-2</v>
       </c>
       <c r="AL60" s="72">
         <f>IF(AK60&lt;$T$178,($T$178-AK60)*Q60,0)</f>
@@ -15116,9 +15124,9 @@
         <f>$Z$113*F60</f>
         <v>0.19215102814717566</v>
       </c>
-      <c r="AP60" s="90">
+      <c r="AP60" s="88">
         <f>AJ60+AM60+AN60+AO60</f>
-        <v>1.0741074020079044</v>
+        <v>1.0745909072651498</v>
       </c>
     </row>
     <row r="61" spans="1:42" ht="15.75">
@@ -15140,21 +15148,21 @@
       <c r="K61" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="L61" s="98">
+      <c r="L61" s="96">
         <f t="shared" si="15"/>
         <v>1550</v>
       </c>
-      <c r="M61" s="98">
+      <c r="M61" s="96">
         <f t="shared" si="8"/>
         <v>1.55</v>
       </c>
-      <c r="N61" s="98">
+      <c r="N61" s="96">
         <v>1.34</v>
       </c>
-      <c r="O61" s="98">
+      <c r="O61" s="96">
         <v>0.9</v>
       </c>
-      <c r="P61" s="102">
+      <c r="P61" s="100">
         <f t="shared" si="9"/>
         <v>1.8693000000000004</v>
       </c>
@@ -15175,15 +15183,15 @@
         <v>63.556200000000011</v>
       </c>
       <c r="AA61" s="70"/>
-      <c r="AB61" s="125"/>
+      <c r="AB61" s="123"/>
       <c r="AC61" s="77"/>
       <c r="AD61" s="64"/>
       <c r="AF61" s="64"/>
       <c r="AG61" s="64"/>
-      <c r="AH61" s="84"/>
+      <c r="AH61" s="123"/>
       <c r="AI61" s="77"/>
       <c r="AJ61" s="64"/>
-      <c r="AP61" s="91"/>
+      <c r="AP61" s="89"/>
     </row>
     <row r="62" spans="1:42" ht="15.75">
       <c r="B62" s="37"/>
@@ -15204,21 +15212,21 @@
       <c r="K62" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="L62" s="98">
+      <c r="L62" s="96">
         <f t="shared" si="15"/>
         <v>1705</v>
       </c>
-      <c r="M62" s="98">
+      <c r="M62" s="96">
         <f t="shared" si="8"/>
         <v>1.7050000000000001</v>
       </c>
-      <c r="N62" s="98">
+      <c r="N62" s="96">
         <v>1.34</v>
       </c>
-      <c r="O62" s="98">
+      <c r="O62" s="96">
         <v>0.9</v>
       </c>
-      <c r="P62" s="102">
+      <c r="P62" s="100">
         <f t="shared" si="9"/>
         <v>2.0562300000000002</v>
       </c>
@@ -15239,15 +15247,15 @@
         <v>78.136740000000003</v>
       </c>
       <c r="AA62" s="70"/>
-      <c r="AB62" s="125"/>
+      <c r="AB62" s="123"/>
       <c r="AC62" s="77"/>
       <c r="AD62" s="64"/>
       <c r="AF62" s="64"/>
       <c r="AG62" s="64"/>
-      <c r="AH62" s="84"/>
+      <c r="AH62" s="123"/>
       <c r="AI62" s="77"/>
       <c r="AJ62" s="64"/>
-      <c r="AP62" s="91"/>
+      <c r="AP62" s="89"/>
     </row>
     <row r="63" spans="1:42" ht="16.5" thickBot="1">
       <c r="B63" s="37"/>
@@ -15268,21 +15276,21 @@
       <c r="K63" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="L63" s="98">
+      <c r="L63" s="96">
         <f t="shared" si="15"/>
         <v>930</v>
       </c>
-      <c r="M63" s="98">
+      <c r="M63" s="96">
         <f t="shared" si="8"/>
         <v>0.93</v>
       </c>
-      <c r="N63" s="98">
+      <c r="N63" s="96">
         <v>1.34</v>
       </c>
-      <c r="O63" s="98">
+      <c r="O63" s="96">
         <v>0.9</v>
       </c>
-      <c r="P63" s="102">
+      <c r="P63" s="100">
         <f t="shared" si="9"/>
         <v>1.1215800000000002</v>
       </c>
@@ -15303,12 +15311,12 @@
         <v>38.133720000000011</v>
       </c>
       <c r="AA63" s="70"/>
-      <c r="AB63" s="125"/>
+      <c r="AB63" s="123"/>
       <c r="AC63" s="77"/>
       <c r="AF63" s="64"/>
-      <c r="AH63" s="84"/>
+      <c r="AH63" s="123"/>
       <c r="AI63" s="77"/>
-      <c r="AP63" s="91"/>
+      <c r="AP63" s="89"/>
     </row>
     <row r="64" spans="1:42" ht="15.75">
       <c r="A64" s="18">
@@ -15344,21 +15352,21 @@
       <c r="K64" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="L64" s="98">
+      <c r="L64" s="96">
         <f t="shared" si="15"/>
         <v>1550</v>
       </c>
-      <c r="M64" s="98">
+      <c r="M64" s="96">
         <f t="shared" si="8"/>
         <v>1.55</v>
       </c>
-      <c r="N64" s="98">
+      <c r="N64" s="96">
         <v>1.34</v>
       </c>
-      <c r="O64" s="98">
+      <c r="O64" s="96">
         <v>0.9</v>
       </c>
-      <c r="P64" s="102">
+      <c r="P64" s="100">
         <f t="shared" si="9"/>
         <v>1.8693000000000004</v>
       </c>
@@ -15402,21 +15410,21 @@
         <f>IF(Z64&lt;$T$178,($T$178-Z64)*F64,0)</f>
         <v>0</v>
       </c>
-      <c r="AB64" s="125">
+      <c r="AB64" s="123">
         <f>IF(AA64=0,F64,0)</f>
         <v>68.03</v>
       </c>
-      <c r="AC64" s="86">
+      <c r="AC64" s="84">
         <f>-AB64*$T$122</f>
-        <v>-0.27503537422280144</v>
+        <v>-0.27198717713823745</v>
       </c>
       <c r="AD64" s="72">
         <f>AA64+Y64+AC64</f>
-        <v>1.3163752929391159</v>
+        <v>1.3194234900236799</v>
       </c>
       <c r="AE64">
         <f>AD64/F64</f>
-        <v>1.9349923459343169E-2</v>
+        <v>1.9394730119413197E-2</v>
       </c>
       <c r="AF64" s="72">
         <f>IF(AE64&lt;$T$178,($T$178-AE64)*F64,0)</f>
@@ -15424,23 +15432,23 @@
       </c>
       <c r="AG64" s="72">
         <f>AD64+AF64</f>
-        <v>1.3163752929391159</v>
-      </c>
-      <c r="AH64" s="84">
+        <v>1.3194234900236799</v>
+      </c>
+      <c r="AH64" s="123">
         <f>IF(AF64=0,F64,0)</f>
         <v>68.03</v>
       </c>
-      <c r="AI64" s="86">
+      <c r="AI64" s="84">
         <f>-AH64*$T$126</f>
-        <v>-2.9972378964527747E-2</v>
+        <v>-2.9501269502333484E-2</v>
       </c>
       <c r="AJ64" s="72">
         <f>AG64+AI64</f>
-        <v>1.2864029139745883</v>
+        <v>1.2899222205213463</v>
       </c>
       <c r="AK64">
         <f>AJ64/F64</f>
-        <v>1.8909347552176808E-2</v>
+        <v>1.8961079237415055E-2</v>
       </c>
       <c r="AL64" s="72">
         <f>IF(AK64&lt;$T$178,($T$178-AK64)*Q64,0)</f>
@@ -15454,9 +15462,9 @@
         <f>$Z$113*F64</f>
         <v>0.18722478437199028</v>
       </c>
-      <c r="AP64" s="90">
+      <c r="AP64" s="88">
         <f>AJ64+AM64+AN64+AO64</f>
-        <v>1.5672400905325736</v>
+        <v>1.5707593970793317</v>
       </c>
     </row>
     <row r="65" spans="1:42" ht="15.75">
@@ -15478,21 +15486,21 @@
       <c r="K65" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="L65" s="98">
+      <c r="L65" s="96">
         <f t="shared" si="15"/>
         <v>1085</v>
       </c>
-      <c r="M65" s="98">
+      <c r="M65" s="96">
         <f t="shared" si="8"/>
         <v>1.085</v>
       </c>
-      <c r="N65" s="98">
+      <c r="N65" s="96">
         <v>1.34</v>
       </c>
-      <c r="O65" s="98">
+      <c r="O65" s="96">
         <v>0.9</v>
       </c>
-      <c r="P65" s="102">
+      <c r="P65" s="100">
         <f t="shared" si="9"/>
         <v>1.3085100000000001</v>
       </c>
@@ -15513,15 +15521,15 @@
         <v>105.98931</v>
       </c>
       <c r="AA65" s="70"/>
-      <c r="AB65" s="125"/>
+      <c r="AB65" s="123"/>
       <c r="AC65" s="77"/>
       <c r="AD65" s="64"/>
       <c r="AF65" s="64"/>
       <c r="AG65" s="64"/>
-      <c r="AH65" s="84"/>
+      <c r="AH65" s="123"/>
       <c r="AI65" s="77"/>
       <c r="AJ65" s="64"/>
-      <c r="AP65" s="91"/>
+      <c r="AP65" s="89"/>
     </row>
     <row r="66" spans="1:42" ht="15.75">
       <c r="B66" s="37"/>
@@ -15542,21 +15550,21 @@
       <c r="K66" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="L66" s="98">
+      <c r="L66" s="96">
         <f t="shared" si="15"/>
         <v>2325</v>
       </c>
-      <c r="M66" s="98">
+      <c r="M66" s="96">
         <f t="shared" si="8"/>
         <v>2.3250000000000002</v>
       </c>
-      <c r="N66" s="98">
+      <c r="N66" s="96">
         <v>1.34</v>
       </c>
-      <c r="O66" s="98">
+      <c r="O66" s="96">
         <v>0.9</v>
       </c>
-      <c r="P66" s="102">
+      <c r="P66" s="100">
         <f t="shared" si="9"/>
         <v>2.8039500000000004</v>
       </c>
@@ -15577,15 +15585,15 @@
         <v>171.04095000000001</v>
       </c>
       <c r="AA66" s="70"/>
-      <c r="AB66" s="125"/>
+      <c r="AB66" s="123"/>
       <c r="AC66" s="77"/>
       <c r="AD66" s="64"/>
       <c r="AF66" s="64"/>
       <c r="AG66" s="64"/>
-      <c r="AH66" s="84"/>
+      <c r="AH66" s="123"/>
       <c r="AI66" s="77"/>
       <c r="AJ66" s="64"/>
-      <c r="AP66" s="91"/>
+      <c r="AP66" s="89"/>
     </row>
     <row r="67" spans="1:42" ht="15.75">
       <c r="B67" s="37"/>
@@ -15606,21 +15614,21 @@
       <c r="K67" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="L67" s="98">
+      <c r="L67" s="96">
         <f t="shared" si="15"/>
         <v>1550</v>
       </c>
-      <c r="M67" s="98">
+      <c r="M67" s="96">
         <f t="shared" si="8"/>
         <v>1.55</v>
       </c>
-      <c r="N67" s="98">
+      <c r="N67" s="96">
         <v>1.34</v>
       </c>
-      <c r="O67" s="98">
+      <c r="O67" s="96">
         <v>0.9</v>
       </c>
-      <c r="P67" s="102">
+      <c r="P67" s="100">
         <f t="shared" si="9"/>
         <v>1.8693000000000004</v>
       </c>
@@ -15641,15 +15649,15 @@
         <v>108.41940000000002</v>
       </c>
       <c r="AA67" s="70"/>
-      <c r="AB67" s="125"/>
+      <c r="AB67" s="123"/>
       <c r="AC67" s="77"/>
       <c r="AD67" s="64"/>
       <c r="AF67" s="64"/>
       <c r="AG67" s="64"/>
-      <c r="AH67" s="84"/>
+      <c r="AH67" s="123"/>
       <c r="AI67" s="77"/>
       <c r="AJ67" s="64"/>
-      <c r="AP67" s="91"/>
+      <c r="AP67" s="89"/>
     </row>
     <row r="68" spans="1:42" ht="16.5" thickBot="1">
       <c r="B68" s="37"/>
@@ -15670,21 +15678,21 @@
       <c r="K68" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="L68" s="98">
+      <c r="L68" s="96">
         <f t="shared" si="15"/>
         <v>930</v>
       </c>
-      <c r="M68" s="98">
+      <c r="M68" s="96">
         <f t="shared" si="8"/>
         <v>0.93</v>
       </c>
-      <c r="N68" s="98">
+      <c r="N68" s="96">
         <v>1.34</v>
       </c>
-      <c r="O68" s="98">
+      <c r="O68" s="96">
         <v>0.9</v>
       </c>
-      <c r="P68" s="102">
+      <c r="P68" s="100">
         <f t="shared" si="9"/>
         <v>1.1215800000000002</v>
       </c>
@@ -15705,12 +15713,12 @@
         <v>57.200580000000009</v>
       </c>
       <c r="AA68" s="70"/>
-      <c r="AB68" s="125"/>
+      <c r="AB68" s="123"/>
       <c r="AC68" s="77"/>
       <c r="AF68" s="64"/>
-      <c r="AH68" s="84"/>
+      <c r="AH68" s="123"/>
       <c r="AI68" s="77"/>
-      <c r="AP68" s="91"/>
+      <c r="AP68" s="89"/>
     </row>
     <row r="69" spans="1:42" ht="16.5" thickBot="1">
       <c r="A69" s="18">
@@ -15736,39 +15744,39 @@
       <c r="I69" s="27"/>
       <c r="J69" s="27"/>
       <c r="K69" s="28"/>
-      <c r="L69" s="98"/>
-      <c r="M69" s="98"/>
-      <c r="N69" s="98"/>
-      <c r="O69" s="98"/>
-      <c r="P69" s="102"/>
+      <c r="L69" s="96"/>
+      <c r="M69" s="96"/>
+      <c r="N69" s="96"/>
+      <c r="O69" s="96"/>
+      <c r="P69" s="100"/>
       <c r="R69" s="60"/>
       <c r="S69" s="60"/>
       <c r="T69" s="60"/>
       <c r="U69" s="75"/>
       <c r="AA69" s="70"/>
-      <c r="AB69" s="125">
+      <c r="AB69" s="123">
         <f>IF(AA69=0,F69,0)</f>
         <v>52.3</v>
       </c>
-      <c r="AC69" s="86">
+      <c r="AC69" s="84">
         <f>-AB69*$T$122</f>
-        <v>-0.21144127696387646</v>
+        <v>-0.20909788864221401</v>
       </c>
       <c r="AD69" s="64"/>
       <c r="AF69" s="64"/>
       <c r="AG69" s="64"/>
-      <c r="AH69" s="84">
+      <c r="AH69" s="123">
         <f>IF(AF69=0,F69,0)</f>
         <v>52.3</v>
       </c>
-      <c r="AI69" s="86">
+      <c r="AI69" s="84">
         <f>-AH69*$T$126</f>
-        <v>-2.3042119944800838E-2</v>
+        <v>-2.2679941128502735E-2</v>
       </c>
       <c r="AJ69" s="64"/>
       <c r="AM69" s="72">
         <f>F69*$Y$171</f>
-        <v>2.3487030930813333</v>
+        <v>2.3514086602192941</v>
       </c>
       <c r="AN69" s="72">
         <f>$Z$112*F69</f>
@@ -15778,9 +15786,9 @@
         <f>$Z$113*F69</f>
         <v>0.14393438516323814</v>
       </c>
-      <c r="AP69" s="90">
+      <c r="AP69" s="88">
         <f>AJ69+AM69+AN69+AO69</f>
-        <v>2.5646046708261903</v>
+        <v>2.567310237964151</v>
       </c>
     </row>
     <row r="70" spans="1:42" ht="15.75">
@@ -15817,21 +15825,21 @@
       <c r="K70" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="L70" s="98">
+      <c r="L70" s="96">
         <f t="shared" ref="L70:L75" si="16">J70*$K$187</f>
         <v>1395</v>
       </c>
-      <c r="M70" s="98">
+      <c r="M70" s="96">
         <f t="shared" si="8"/>
         <v>1.395</v>
       </c>
-      <c r="N70" s="98">
+      <c r="N70" s="96">
         <v>1.34</v>
       </c>
-      <c r="O70" s="98">
+      <c r="O70" s="96">
         <v>0.9</v>
       </c>
-      <c r="P70" s="102">
+      <c r="P70" s="100">
         <f t="shared" si="9"/>
         <v>1.6823700000000001</v>
       </c>
@@ -15863,33 +15871,33 @@
         <f>W70/F70</f>
         <v>0.72755028901734109</v>
       </c>
-      <c r="Y70" s="70">
+      <c r="Y70" s="128">
         <f>$T$160*W70</f>
         <v>0.11327165425183483</v>
       </c>
       <c r="Z70">
-        <f>Y70/F69</f>
-        <v>2.1658060086392895E-3</v>
+        <f>Y70/F70</f>
+        <v>2.1824981551413262E-3</v>
       </c>
       <c r="AA70" s="70">
         <f>IF(Z70&lt;$T$178,($T$178-Z70)*F70,0)</f>
-        <v>0.49463724955470401</v>
-      </c>
-      <c r="AB70" s="125">
+        <v>0.49377092715124832</v>
+      </c>
+      <c r="AB70" s="123">
         <f>IF(AA70=0,F70,0)</f>
         <v>0</v>
       </c>
-      <c r="AC70" s="86">
+      <c r="AC70" s="84">
         <f>-AB70*$T$122</f>
         <v>0</v>
       </c>
       <c r="AD70" s="72">
         <f>AA70+Y70+AC70</f>
-        <v>0.60790890380653884</v>
+        <v>0.60704258140308309</v>
       </c>
       <c r="AE70">
         <f>AD70/F70</f>
-        <v>1.1713080998199208E-2</v>
+        <v>1.169638885169717E-2</v>
       </c>
       <c r="AF70" s="72">
         <f>IF(AE70&lt;$T$178,($T$178-AE70)*F70,0)</f>
@@ -15897,23 +15905,23 @@
       </c>
       <c r="AG70" s="72">
         <f>AD70+AF70</f>
-        <v>0.60790890380653884</v>
-      </c>
-      <c r="AH70" s="84">
+        <v>0.60704258140308309</v>
+      </c>
+      <c r="AH70" s="123">
         <f>IF(AF70=0,F70,0)</f>
         <v>51.9</v>
       </c>
-      <c r="AI70" s="86">
+      <c r="AI70" s="84">
         <f>-AH70*$T$126</f>
-        <v>-2.2865889581934296E-2</v>
+        <v>-2.2506480775703479E-2</v>
       </c>
       <c r="AJ70" s="72">
         <f>AG70+AI70</f>
-        <v>0.58504301422460459</v>
+        <v>0.5845361006273796</v>
       </c>
       <c r="AK70">
         <f>AJ70/F70</f>
-        <v>1.1272505091032843E-2</v>
+        <v>1.126273796969903E-2</v>
       </c>
       <c r="AL70" s="72">
         <f>IF(AK70&lt;$T$178,($T$178-AK70)*Q70,0)</f>
@@ -15927,9 +15935,9 @@
         <f>$Z$113*F70</f>
         <v>0.14283354856543137</v>
       </c>
-      <c r="AP70" s="90">
+      <c r="AP70" s="88">
         <f>AJ70+AM70+AN70+AO70</f>
-        <v>0.79929333707275163</v>
+        <v>0.79878642347552664</v>
       </c>
     </row>
     <row r="71" spans="1:42" ht="15.75">
@@ -15951,21 +15959,21 @@
       <c r="K71" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="L71" s="98">
+      <c r="L71" s="96">
         <f t="shared" si="16"/>
         <v>1240</v>
       </c>
-      <c r="M71" s="98">
+      <c r="M71" s="96">
         <f t="shared" si="8"/>
         <v>1.24</v>
       </c>
-      <c r="N71" s="98">
+      <c r="N71" s="96">
         <v>1.34</v>
       </c>
-      <c r="O71" s="98">
+      <c r="O71" s="96">
         <v>0.9</v>
       </c>
-      <c r="P71" s="102">
+      <c r="P71" s="100">
         <f t="shared" si="9"/>
         <v>1.4954400000000001</v>
       </c>
@@ -15986,15 +15994,15 @@
         <v>25.42248</v>
       </c>
       <c r="AA71" s="70"/>
-      <c r="AB71" s="125"/>
+      <c r="AB71" s="123"/>
       <c r="AC71" s="77"/>
       <c r="AD71" s="64"/>
       <c r="AF71" s="64"/>
       <c r="AG71" s="64"/>
-      <c r="AH71" s="84"/>
+      <c r="AH71" s="123"/>
       <c r="AI71" s="77"/>
       <c r="AJ71" s="64"/>
-      <c r="AP71" s="91"/>
+      <c r="AP71" s="89"/>
     </row>
     <row r="72" spans="1:42" ht="16.5" thickBot="1">
       <c r="B72" s="37"/>
@@ -16015,21 +16023,21 @@
       <c r="K72" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="L72" s="98">
+      <c r="L72" s="96">
         <f t="shared" si="16"/>
         <v>465</v>
       </c>
-      <c r="M72" s="98">
+      <c r="M72" s="96">
         <f t="shared" si="8"/>
         <v>0.46500000000000002</v>
       </c>
-      <c r="N72" s="98">
+      <c r="N72" s="96">
         <v>1.34</v>
       </c>
-      <c r="O72" s="98">
+      <c r="O72" s="96">
         <v>0.9</v>
       </c>
-      <c r="P72" s="102">
+      <c r="P72" s="100">
         <f t="shared" si="9"/>
         <v>0.56079000000000012</v>
       </c>
@@ -16050,12 +16058,12 @@
         <v>12.337380000000003</v>
       </c>
       <c r="AA72" s="70"/>
-      <c r="AB72" s="125"/>
+      <c r="AB72" s="123"/>
       <c r="AC72" s="77"/>
       <c r="AF72" s="64"/>
-      <c r="AH72" s="84"/>
+      <c r="AH72" s="123"/>
       <c r="AI72" s="77"/>
-      <c r="AP72" s="91"/>
+      <c r="AP72" s="89"/>
     </row>
     <row r="73" spans="1:42" ht="15.75">
       <c r="A73" s="18">
@@ -16091,21 +16099,21 @@
       <c r="K73" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="L73" s="98">
+      <c r="L73" s="96">
         <f t="shared" si="16"/>
         <v>1395</v>
       </c>
-      <c r="M73" s="98">
+      <c r="M73" s="96">
         <f t="shared" ref="M73:M107" si="17">L73/1000</f>
         <v>1.395</v>
       </c>
-      <c r="N73" s="98">
+      <c r="N73" s="96">
         <v>1.34</v>
       </c>
-      <c r="O73" s="98">
+      <c r="O73" s="96">
         <v>0.9</v>
       </c>
-      <c r="P73" s="102">
+      <c r="P73" s="100">
         <f t="shared" ref="P73:P107" si="18">M73*N73*O73</f>
         <v>1.6823700000000001</v>
       </c>
@@ -16149,21 +16157,21 @@
         <f>IF(Z73&lt;$T$178,($T$178-Z73)*F73,0)</f>
         <v>0</v>
       </c>
-      <c r="AB73" s="125">
+      <c r="AB73" s="123">
         <f>IF(AA73=0,F73,0)</f>
         <v>66.8</v>
       </c>
-      <c r="AC73" s="86">
+      <c r="AC73" s="84">
         <f>-AB73*$T$122</f>
-        <v>-0.27006266350261848</v>
+        <v>-0.26706957860994063</v>
       </c>
       <c r="AD73" s="72">
         <f>AA73+Y73+AC73</f>
-        <v>0.80515789207618593</v>
+        <v>0.80815097696886373</v>
       </c>
       <c r="AE73">
         <f>AD73/F73</f>
-        <v>1.2053261857427933E-2</v>
+        <v>1.2098068517497961E-2</v>
       </c>
       <c r="AF73" s="72">
         <f>IF(AE73&lt;$T$178,($T$178-AE73)*F73,0)</f>
@@ -16171,23 +16179,23 @@
       </c>
       <c r="AG73" s="72">
         <f>AD73+AF73</f>
-        <v>0.80515789207618593</v>
-      </c>
-      <c r="AH73" s="84">
+        <v>0.80815097696886373</v>
+      </c>
+      <c r="AH73" s="123">
         <f>IF(AF73=0,F73,0)</f>
         <v>66.8</v>
       </c>
-      <c r="AI73" s="86">
+      <c r="AI73" s="84">
         <f>-AH73*$T$126</f>
-        <v>-2.9430470598713118E-2</v>
+        <v>-2.8967878917475768E-2</v>
       </c>
       <c r="AJ73" s="72">
         <f>AG73+AI73</f>
-        <v>0.77572742147747287</v>
+        <v>0.77918309805138797</v>
       </c>
       <c r="AK73">
         <f>AJ73/F73</f>
-        <v>1.161268595026157E-2</v>
+        <v>1.1664417635499821E-2</v>
       </c>
       <c r="AL73" s="72">
         <f>IF(AK73&lt;$T$178,($T$178-AK73)*Q73,0)</f>
@@ -16201,9 +16209,9 @@
         <f>$Z$113*F73</f>
         <v>0.18383971183373438</v>
       </c>
-      <c r="AP73" s="90">
+      <c r="AP73" s="88">
         <f>AJ73+AM73+AN73+AO73</f>
-        <v>1.0514869892280743</v>
+        <v>1.0549426658019896</v>
       </c>
     </row>
     <row r="74" spans="1:42" ht="15.75">
@@ -16227,21 +16235,21 @@
       <c r="K74" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="L74" s="98">
+      <c r="L74" s="96">
         <f t="shared" si="16"/>
         <v>1860</v>
       </c>
-      <c r="M74" s="98">
+      <c r="M74" s="96">
         <f t="shared" si="17"/>
         <v>1.86</v>
       </c>
-      <c r="N74" s="98">
+      <c r="N74" s="96">
         <v>1.34</v>
       </c>
-      <c r="O74" s="98">
+      <c r="O74" s="96">
         <v>0.9</v>
       </c>
-      <c r="P74" s="102">
+      <c r="P74" s="100">
         <f t="shared" si="18"/>
         <v>2.2431600000000005</v>
       </c>
@@ -16262,15 +16270,15 @@
         <v>109.91484000000003</v>
       </c>
       <c r="AA74" s="70"/>
-      <c r="AB74" s="125"/>
+      <c r="AB74" s="123"/>
       <c r="AC74" s="77"/>
       <c r="AD74" s="64"/>
       <c r="AF74" s="64"/>
       <c r="AG74" s="64"/>
-      <c r="AH74" s="84"/>
+      <c r="AH74" s="123"/>
       <c r="AI74" s="77"/>
       <c r="AJ74" s="64"/>
-      <c r="AP74" s="91"/>
+      <c r="AP74" s="89"/>
     </row>
     <row r="75" spans="1:42" ht="15.75">
       <c r="B75" s="37"/>
@@ -16293,21 +16301,21 @@
       <c r="K75" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="L75" s="98">
+      <c r="L75" s="96">
         <f t="shared" si="16"/>
         <v>1705</v>
       </c>
-      <c r="M75" s="98">
+      <c r="M75" s="96">
         <f t="shared" si="17"/>
         <v>1.7050000000000001</v>
       </c>
-      <c r="N75" s="98">
+      <c r="N75" s="96">
         <v>1.34</v>
       </c>
-      <c r="O75" s="98">
+      <c r="O75" s="96">
         <v>0.9</v>
       </c>
-      <c r="P75" s="102">
+      <c r="P75" s="100">
         <f t="shared" si="18"/>
         <v>2.0562300000000002</v>
       </c>
@@ -16328,15 +16336,15 @@
         <v>106.92396000000001</v>
       </c>
       <c r="AA75" s="70"/>
-      <c r="AB75" s="125"/>
+      <c r="AB75" s="123"/>
       <c r="AC75" s="77"/>
       <c r="AD75" s="64"/>
       <c r="AF75" s="64"/>
       <c r="AG75" s="64"/>
-      <c r="AH75" s="84"/>
+      <c r="AH75" s="123"/>
       <c r="AI75" s="77"/>
       <c r="AJ75" s="64"/>
-      <c r="AP75" s="91"/>
+      <c r="AP75" s="89"/>
     </row>
     <row r="76" spans="1:42" ht="16.5" thickBot="1">
       <c r="B76" s="37"/>
@@ -16359,21 +16367,21 @@
       <c r="K76" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="L76" s="98">
+      <c r="L76" s="96">
         <f>J76*$K$188</f>
         <v>1110</v>
       </c>
-      <c r="M76" s="98">
+      <c r="M76" s="96">
         <f t="shared" si="17"/>
         <v>1.1100000000000001</v>
       </c>
-      <c r="N76" s="98">
+      <c r="N76" s="96">
         <v>1.28</v>
       </c>
-      <c r="O76" s="98">
+      <c r="O76" s="96">
         <v>0.9</v>
       </c>
-      <c r="P76" s="102">
+      <c r="P76" s="100">
         <f t="shared" si="18"/>
         <v>1.2787200000000001</v>
       </c>
@@ -16394,12 +16402,12 @@
         <v>52.427520000000001</v>
       </c>
       <c r="AA76" s="70"/>
-      <c r="AB76" s="125"/>
+      <c r="AB76" s="123"/>
       <c r="AC76" s="77"/>
       <c r="AF76" s="64"/>
-      <c r="AH76" s="84"/>
+      <c r="AH76" s="123"/>
       <c r="AI76" s="77"/>
-      <c r="AP76" s="91"/>
+      <c r="AP76" s="89"/>
     </row>
     <row r="77" spans="1:42" ht="15.75">
       <c r="A77" s="18">
@@ -16435,21 +16443,21 @@
       <c r="K77" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="L77" s="98">
+      <c r="L77" s="96">
         <f>J77*$K$187</f>
         <v>1395</v>
       </c>
-      <c r="M77" s="98">
+      <c r="M77" s="96">
         <f t="shared" si="17"/>
         <v>1.395</v>
       </c>
-      <c r="N77" s="98">
+      <c r="N77" s="96">
         <v>1.34</v>
       </c>
-      <c r="O77" s="98">
+      <c r="O77" s="96">
         <v>0.9</v>
       </c>
-      <c r="P77" s="102">
+      <c r="P77" s="100">
         <f t="shared" si="18"/>
         <v>1.6823700000000001</v>
       </c>
@@ -16493,45 +16501,45 @@
         <f>IF(Z77&lt;$T$178,($T$178-Z77)*F77,0)</f>
         <v>0</v>
       </c>
-      <c r="AB77" s="125">
+      <c r="AB77" s="123">
         <f>IF(AA77=0,F77,0)</f>
         <v>70.8</v>
       </c>
-      <c r="AC77" s="86">
+      <c r="AC77" s="84">
         <f>-AB77*$T$122</f>
-        <v>-0.28623408047882321</v>
+        <v>-0.28306176894586521</v>
       </c>
       <c r="AD77" s="72">
         <f>AA77+Y77+AC77</f>
-        <v>0.74929439240074269</v>
+        <v>0.75246670393370074</v>
       </c>
       <c r="AE77">
         <f>AD77/F77</f>
-        <v>1.0583254129953994E-2</v>
+        <v>1.0628060790024022E-2</v>
       </c>
       <c r="AF77" s="72">
         <f>IF(AE77&lt;$T$178,($T$178-AE77)*F77,0)</f>
-        <v>7.8809938299416959E-2</v>
+        <v>7.5637626766458979E-2</v>
       </c>
       <c r="AG77" s="72">
         <f>AD77+AF77</f>
-        <v>0.82810433070015965</v>
-      </c>
-      <c r="AH77" s="84">
+        <v>0.82810433070015976</v>
+      </c>
+      <c r="AH77" s="123">
         <f>IF(AF77=0,F77,0)</f>
         <v>0</v>
       </c>
-      <c r="AI77" s="86">
+      <c r="AI77" s="84">
         <f>-AH77*$T$126</f>
         <v>0</v>
       </c>
       <c r="AJ77" s="72">
         <f>AG77+AI77</f>
-        <v>0.82810433070015965</v>
+        <v>0.82810433070015976</v>
       </c>
       <c r="AK77">
         <f>AJ77/F77</f>
-        <v>1.1696388851697171E-2</v>
+        <v>1.1696388851697173E-2</v>
       </c>
       <c r="AL77" s="72">
         <f>IF(AK77&lt;$T$178,($T$178-AK77)*Q77,0)</f>
@@ -16545,9 +16553,9 @@
         <f>$Z$113*F77</f>
         <v>0.19484807781180233</v>
       </c>
-      <c r="AP77" s="90">
+      <c r="AP77" s="88">
         <f>AJ77+AM77+AN77+AO77</f>
-        <v>1.120376447417863</v>
+        <v>1.1203764474178632</v>
       </c>
     </row>
     <row r="78" spans="1:42" ht="15.75">
@@ -16571,21 +16579,21 @@
       <c r="K78" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="L78" s="98">
+      <c r="L78" s="96">
         <f>J78*$K$188</f>
         <v>1850</v>
       </c>
-      <c r="M78" s="98">
+      <c r="M78" s="96">
         <f t="shared" si="17"/>
         <v>1.85</v>
       </c>
-      <c r="N78" s="98">
+      <c r="N78" s="96">
         <v>1.28</v>
       </c>
-      <c r="O78" s="98">
+      <c r="O78" s="96">
         <v>0.9</v>
       </c>
-      <c r="P78" s="102">
+      <c r="P78" s="100">
         <f t="shared" si="18"/>
         <v>2.1312000000000002</v>
       </c>
@@ -16606,15 +16614,15 @@
         <v>110.82240000000002</v>
       </c>
       <c r="AA78" s="70"/>
-      <c r="AB78" s="125"/>
+      <c r="AB78" s="123"/>
       <c r="AC78" s="77"/>
       <c r="AD78" s="64"/>
       <c r="AF78" s="64"/>
       <c r="AG78" s="64"/>
-      <c r="AH78" s="84"/>
+      <c r="AH78" s="123"/>
       <c r="AI78" s="77"/>
       <c r="AJ78" s="64"/>
-      <c r="AP78" s="91"/>
+      <c r="AP78" s="89"/>
     </row>
     <row r="79" spans="1:42" ht="15.75">
       <c r="B79" s="37"/>
@@ -16637,21 +16645,21 @@
       <c r="K79" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="L79" s="98">
+      <c r="L79" s="96">
         <f>J79*$K$188</f>
         <v>1850</v>
       </c>
-      <c r="M79" s="98">
+      <c r="M79" s="96">
         <f t="shared" si="17"/>
         <v>1.85</v>
       </c>
-      <c r="N79" s="98">
+      <c r="N79" s="96">
         <v>1.28</v>
       </c>
-      <c r="O79" s="98">
+      <c r="O79" s="96">
         <v>0.9</v>
       </c>
-      <c r="P79" s="102">
+      <c r="P79" s="100">
         <f t="shared" si="18"/>
         <v>2.1312000000000002</v>
       </c>
@@ -16672,15 +16680,15 @@
         <v>72.460800000000006</v>
       </c>
       <c r="AA79" s="70"/>
-      <c r="AB79" s="125"/>
+      <c r="AB79" s="123"/>
       <c r="AC79" s="77"/>
       <c r="AD79" s="64"/>
       <c r="AF79" s="64"/>
       <c r="AG79" s="64"/>
-      <c r="AH79" s="84"/>
+      <c r="AH79" s="123"/>
       <c r="AI79" s="77"/>
       <c r="AJ79" s="64"/>
-      <c r="AP79" s="91"/>
+      <c r="AP79" s="89"/>
     </row>
     <row r="80" spans="1:42" ht="16.5" thickBot="1">
       <c r="B80" s="37"/>
@@ -16703,21 +16711,21 @@
       <c r="K80" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="L80" s="98">
+      <c r="L80" s="96">
         <f>J80*$K$188</f>
         <v>1295</v>
       </c>
-      <c r="M80" s="98">
+      <c r="M80" s="96">
         <f t="shared" si="17"/>
         <v>1.2949999999999999</v>
       </c>
-      <c r="N80" s="98">
+      <c r="N80" s="96">
         <v>1.28</v>
       </c>
-      <c r="O80" s="98">
+      <c r="O80" s="96">
         <v>0.9</v>
       </c>
-      <c r="P80" s="102">
+      <c r="P80" s="100">
         <f t="shared" si="18"/>
         <v>1.4918400000000001</v>
       </c>
@@ -16738,12 +16746,12 @@
         <v>62.65728</v>
       </c>
       <c r="AA80" s="70"/>
-      <c r="AB80" s="125"/>
+      <c r="AB80" s="123"/>
       <c r="AC80" s="77"/>
       <c r="AF80" s="64"/>
-      <c r="AH80" s="84"/>
+      <c r="AH80" s="123"/>
       <c r="AI80" s="77"/>
-      <c r="AP80" s="91"/>
+      <c r="AP80" s="89"/>
     </row>
     <row r="81" spans="1:42" ht="15.75">
       <c r="A81" s="18">
@@ -16779,21 +16787,21 @@
       <c r="K81" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="L81" s="98">
+      <c r="L81" s="96">
         <f>J81*$K$187</f>
         <v>1395</v>
       </c>
-      <c r="M81" s="98">
+      <c r="M81" s="96">
         <f t="shared" si="17"/>
         <v>1.395</v>
       </c>
-      <c r="N81" s="98">
+      <c r="N81" s="96">
         <v>1.34</v>
       </c>
-      <c r="O81" s="98">
+      <c r="O81" s="96">
         <v>0.9</v>
       </c>
-      <c r="P81" s="102">
+      <c r="P81" s="100">
         <f t="shared" si="18"/>
         <v>1.6823700000000001</v>
       </c>
@@ -16837,35 +16845,35 @@
         <f>IF(Z81&lt;$T$178,($T$178-Z81)*F81,0)</f>
         <v>0</v>
       </c>
-      <c r="AB81" s="125">
+      <c r="AB81" s="123">
         <f>IF(AA81=0,F81,0)</f>
         <v>52.2</v>
       </c>
-      <c r="AC81" s="86">
+      <c r="AC81" s="84">
         <f>-AB81*$T$122</f>
-        <v>-0.21103699153947136</v>
+        <v>-0.20869808388381592</v>
       </c>
       <c r="AD81" s="72">
         <f>AA81+Y81+AC81</f>
-        <v>0.48149020153486538</v>
+        <v>0.4838291091905208</v>
       </c>
       <c r="AE81">
         <f>AD81/F81</f>
-        <v>9.2239502209744313E-3</v>
+        <v>9.2687568810444591E-3</v>
       </c>
       <c r="AF81" s="72">
         <f>IF(AE81&lt;$T$178,($T$178-AE81)*F81,0)</f>
-        <v>0.12906129652372703</v>
+        <v>0.12672238886807158</v>
       </c>
       <c r="AG81" s="72">
         <f>AD81+AF81</f>
         <v>0.61055149805859243</v>
       </c>
-      <c r="AH81" s="84">
+      <c r="AH81" s="123">
         <f>IF(AF81=0,F81,0)</f>
         <v>0</v>
       </c>
-      <c r="AI81" s="86">
+      <c r="AI81" s="84">
         <f>-AH81*$T$126</f>
         <v>0</v>
       </c>
@@ -16889,7 +16897,7 @@
         <f>$Z$113*F81</f>
         <v>0.14365917601378647</v>
       </c>
-      <c r="AP81" s="90">
+      <c r="AP81" s="88">
         <f>AJ81+AM81+AN81+AO81</f>
         <v>0.82604026207927217</v>
       </c>
@@ -16913,21 +16921,21 @@
       <c r="K82" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="L82" s="98">
+      <c r="L82" s="96">
         <f>J82*$K$187</f>
         <v>1550</v>
       </c>
-      <c r="M82" s="98">
+      <c r="M82" s="96">
         <f t="shared" si="17"/>
         <v>1.55</v>
       </c>
-      <c r="N82" s="98">
+      <c r="N82" s="96">
         <v>1.34</v>
       </c>
-      <c r="O82" s="98">
+      <c r="O82" s="96">
         <v>0.9</v>
       </c>
-      <c r="P82" s="102">
+      <c r="P82" s="100">
         <f t="shared" si="18"/>
         <v>1.8693000000000004</v>
       </c>
@@ -16948,15 +16956,15 @@
         <v>173.84490000000002</v>
       </c>
       <c r="AA82" s="70"/>
-      <c r="AB82" s="125"/>
+      <c r="AB82" s="123"/>
       <c r="AC82" s="77"/>
       <c r="AD82" s="64"/>
       <c r="AF82" s="64"/>
       <c r="AG82" s="64"/>
-      <c r="AH82" s="84"/>
+      <c r="AH82" s="123"/>
       <c r="AI82" s="77"/>
       <c r="AJ82" s="64"/>
-      <c r="AP82" s="91"/>
+      <c r="AP82" s="89"/>
     </row>
     <row r="83" spans="1:42" ht="16.5" thickBot="1">
       <c r="B83" s="37"/>
@@ -16977,21 +16985,21 @@
       <c r="K83" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="L83" s="98">
+      <c r="L83" s="96">
         <f>J83*$K$187</f>
         <v>775</v>
       </c>
-      <c r="M83" s="98">
+      <c r="M83" s="96">
         <f t="shared" si="17"/>
         <v>0.77500000000000002</v>
       </c>
-      <c r="N83" s="98">
+      <c r="N83" s="96">
         <v>1.34</v>
       </c>
-      <c r="O83" s="98">
+      <c r="O83" s="96">
         <v>0.9</v>
       </c>
-      <c r="P83" s="102">
+      <c r="P83" s="100">
         <f t="shared" si="18"/>
         <v>0.9346500000000002</v>
       </c>
@@ -17012,12 +17020,12 @@
         <v>57.013650000000013</v>
       </c>
       <c r="AA83" s="70"/>
-      <c r="AB83" s="125"/>
+      <c r="AB83" s="123"/>
       <c r="AC83" s="77"/>
       <c r="AF83" s="64"/>
-      <c r="AH83" s="84"/>
+      <c r="AH83" s="123"/>
       <c r="AI83" s="77"/>
-      <c r="AP83" s="91"/>
+      <c r="AP83" s="89"/>
     </row>
     <row r="84" spans="1:42" ht="16.5" thickBot="1">
       <c r="A84" s="18">
@@ -17043,39 +17051,39 @@
       <c r="I84" s="27"/>
       <c r="J84" s="27"/>
       <c r="K84" s="28"/>
-      <c r="L84" s="98"/>
-      <c r="M84" s="98"/>
-      <c r="N84" s="98"/>
-      <c r="O84" s="98"/>
-      <c r="P84" s="102"/>
+      <c r="L84" s="96"/>
+      <c r="M84" s="96"/>
+      <c r="N84" s="96"/>
+      <c r="O84" s="96"/>
+      <c r="P84" s="100"/>
       <c r="R84" s="60"/>
       <c r="S84" s="60"/>
       <c r="T84" s="60"/>
       <c r="U84" s="75"/>
       <c r="AA84" s="70"/>
-      <c r="AB84" s="125">
+      <c r="AB84" s="123">
         <f>IF(AA84=0,F84,0)</f>
         <v>75.17</v>
       </c>
-      <c r="AC84" s="86">
+      <c r="AC84" s="84">
         <f>-AB84*$T$122</f>
-        <v>-0.30390135352532688</v>
+        <v>-0.30053323688786288</v>
       </c>
       <c r="AD84" s="64"/>
       <c r="AF84" s="64"/>
       <c r="AG84" s="64"/>
-      <c r="AH84" s="84">
+      <c r="AH84" s="123">
         <f>IF(AF84=0,F84,0)</f>
         <v>75.17</v>
       </c>
-      <c r="AI84" s="86">
+      <c r="AI84" s="84">
         <f>-AH84*$T$126</f>
-        <v>-3.3118090941695585E-2</v>
+        <v>-3.2597536799800202E-2</v>
       </c>
       <c r="AJ84" s="64"/>
       <c r="AM84" s="72">
         <f>F84*$Y$171</f>
-        <v>3.3757554781438595</v>
+        <v>3.379644148923219</v>
       </c>
       <c r="AN84" s="72">
         <f>$Z$112*F84</f>
@@ -17085,9 +17093,9 @@
         <f>$Z$113*F84</f>
         <v>0.20687471764284154</v>
       </c>
-      <c r="AP84" s="90">
+      <c r="AP84" s="88">
         <f>AJ84+AM84+AN84+AO84</f>
-        <v>3.6860675546081216</v>
+        <v>3.6899562253874811</v>
       </c>
     </row>
     <row r="85" spans="1:42" ht="15.75">
@@ -17124,21 +17132,21 @@
       <c r="K85" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="L85" s="98">
+      <c r="L85" s="96">
         <f>J85*$K$187</f>
         <v>1550</v>
       </c>
-      <c r="M85" s="98">
+      <c r="M85" s="96">
         <f t="shared" si="17"/>
         <v>1.55</v>
       </c>
-      <c r="N85" s="98">
+      <c r="N85" s="96">
         <v>1.34</v>
       </c>
-      <c r="O85" s="98">
+      <c r="O85" s="96">
         <v>0.9</v>
       </c>
-      <c r="P85" s="102">
+      <c r="P85" s="100">
         <f t="shared" si="18"/>
         <v>1.8693000000000004</v>
       </c>
@@ -17170,33 +17178,33 @@
         <f>W85/F85</f>
         <v>1.280763915547025</v>
       </c>
-      <c r="Y85" s="70">
+      <c r="Y85" s="130">
         <f>$T$160*W85</f>
         <v>0.20016939391686261</v>
       </c>
       <c r="Z85">
-        <f>Y85/F84</f>
-        <v>2.6628893696536201E-3</v>
+        <f>Y85/F85</f>
+        <v>3.8420229158706836E-3</v>
       </c>
       <c r="AA85" s="70">
         <f>IF(Z85&lt;$T$178,($T$178-Z85)*F85,0)</f>
-        <v>0.47064532301446904</v>
-      </c>
-      <c r="AB85" s="125">
+        <v>0.40921246525656002</v>
+      </c>
+      <c r="AB85" s="123">
         <f>IF(AA85=0,F85,0)</f>
         <v>0</v>
       </c>
-      <c r="AC85" s="86">
+      <c r="AC85" s="84">
         <f>-AB85*$T$122</f>
         <v>0</v>
       </c>
       <c r="AD85" s="72">
         <f>AA85+Y85+AC85</f>
-        <v>0.67081471693133166</v>
+        <v>0.60938185917342258</v>
       </c>
       <c r="AE85">
         <f>AD85/F85</f>
-        <v>1.2875522397914235E-2</v>
+        <v>1.169638885169717E-2</v>
       </c>
       <c r="AF85" s="72">
         <f>IF(AE85&lt;$T$178,($T$178-AE85)*F85,0)</f>
@@ -17204,23 +17212,23 @@
       </c>
       <c r="AG85" s="72">
         <f>AD85+AF85</f>
-        <v>0.67081471693133166</v>
-      </c>
-      <c r="AH85" s="84">
+        <v>0.60938185917342258</v>
+      </c>
+      <c r="AH85" s="123">
         <f>IF(AF85=0,F85,0)</f>
         <v>52.1</v>
       </c>
-      <c r="AI85" s="86">
+      <c r="AI85" s="84">
         <f>-AH85*$T$126</f>
-        <v>-2.2954004763367567E-2</v>
+        <v>-2.2593210952103107E-2</v>
       </c>
       <c r="AJ85" s="72">
         <f>AG85+AI85</f>
-        <v>0.64786071216796404</v>
+        <v>0.58678864822131949</v>
       </c>
       <c r="AK85">
         <f>AJ85/F85</f>
-        <v>1.243494649074787E-2</v>
+        <v>1.126273796969903E-2</v>
       </c>
       <c r="AL85" s="72">
         <f>IF(AK85&lt;$T$178,($T$178-AK85)*Q85,0)</f>
@@ -17234,9 +17242,9 @@
         <f>$Z$113*F85</f>
         <v>0.14338396686433477</v>
       </c>
-      <c r="AP85" s="90">
+      <c r="AP85" s="88">
         <f>AJ85+AM85+AN85+AO85</f>
-        <v>0.86293666246446621</v>
+        <v>0.80186459851782166</v>
       </c>
     </row>
     <row r="86" spans="1:42" ht="15.75">
@@ -17260,21 +17268,21 @@
       <c r="K86" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="L86" s="98">
+      <c r="L86" s="96">
         <f>J86*$K$187</f>
         <v>1705</v>
       </c>
-      <c r="M86" s="98">
+      <c r="M86" s="96">
         <f t="shared" si="17"/>
         <v>1.7050000000000001</v>
       </c>
-      <c r="N86" s="98">
+      <c r="N86" s="96">
         <v>1.34</v>
       </c>
-      <c r="O86" s="98">
+      <c r="O86" s="96">
         <v>0.9</v>
       </c>
-      <c r="P86" s="102">
+      <c r="P86" s="100">
         <f t="shared" si="18"/>
         <v>2.0562300000000002</v>
       </c>
@@ -17295,15 +17303,15 @@
         <v>8.2249200000000009</v>
       </c>
       <c r="AA86" s="70"/>
-      <c r="AB86" s="125"/>
+      <c r="AB86" s="123"/>
       <c r="AC86" s="77"/>
       <c r="AD86" s="64"/>
       <c r="AF86" s="64"/>
       <c r="AG86" s="64"/>
-      <c r="AH86" s="84"/>
+      <c r="AH86" s="123"/>
       <c r="AI86" s="77"/>
       <c r="AJ86" s="64"/>
-      <c r="AP86" s="91"/>
+      <c r="AP86" s="89"/>
     </row>
     <row r="87" spans="1:42" ht="16.5" thickBot="1">
       <c r="B87" s="37"/>
@@ -17326,21 +17334,21 @@
       <c r="K87" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="L87" s="98">
+      <c r="L87" s="96">
         <f>J87*$K$188</f>
         <v>740</v>
       </c>
-      <c r="M87" s="98">
+      <c r="M87" s="96">
         <f t="shared" si="17"/>
         <v>0.74</v>
       </c>
-      <c r="N87" s="98">
+      <c r="N87" s="96">
         <v>1.28</v>
       </c>
-      <c r="O87" s="98">
+      <c r="O87" s="96">
         <v>0.9</v>
       </c>
-      <c r="P87" s="102">
+      <c r="P87" s="100">
         <f t="shared" si="18"/>
         <v>0.85248000000000002</v>
       </c>
@@ -17361,12 +17369,12 @@
         <v>13.63968</v>
       </c>
       <c r="AA87" s="70"/>
-      <c r="AB87" s="125"/>
+      <c r="AB87" s="123"/>
       <c r="AC87" s="77"/>
       <c r="AF87" s="64"/>
-      <c r="AH87" s="84"/>
+      <c r="AH87" s="123"/>
       <c r="AI87" s="77"/>
-      <c r="AP87" s="91"/>
+      <c r="AP87" s="89"/>
     </row>
     <row r="88" spans="1:42" ht="16.5" thickBot="1">
       <c r="A88" s="18">
@@ -17392,39 +17400,39 @@
       <c r="I88" s="27"/>
       <c r="J88" s="27"/>
       <c r="K88" s="28"/>
-      <c r="L88" s="98"/>
-      <c r="M88" s="98"/>
-      <c r="N88" s="98"/>
-      <c r="O88" s="98"/>
-      <c r="P88" s="102"/>
+      <c r="L88" s="96"/>
+      <c r="M88" s="96"/>
+      <c r="N88" s="96"/>
+      <c r="O88" s="96"/>
+      <c r="P88" s="100"/>
       <c r="R88" s="60"/>
       <c r="S88" s="60"/>
       <c r="T88" s="60"/>
       <c r="U88" s="75"/>
       <c r="AA88" s="70"/>
-      <c r="AB88" s="125">
+      <c r="AB88" s="123">
         <f>IF(AA88=0,F88,0)</f>
         <v>56.4</v>
       </c>
-      <c r="AC88" s="86">
+      <c r="AC88" s="84">
         <f>-AB88*$T$122</f>
-        <v>-0.22801697936448628</v>
+        <v>-0.22548988373653672</v>
       </c>
       <c r="AD88" s="64"/>
       <c r="AF88" s="64"/>
       <c r="AG88" s="64"/>
-      <c r="AH88" s="84">
+      <c r="AH88" s="123">
         <f>IF(AF88=0,F88,0)</f>
         <v>56.4</v>
       </c>
-      <c r="AI88" s="86">
+      <c r="AI88" s="84">
         <f>-AH88*$T$126</f>
-        <v>-2.4848481164182933E-2</v>
+        <v>-2.4457909744695111E-2</v>
       </c>
       <c r="AJ88" s="64"/>
       <c r="AM88" s="72">
         <f>F88*$Y$171</f>
-        <v>2.5328270449290096</v>
+        <v>2.5357447119764474</v>
       </c>
       <c r="AN88" s="72">
         <f>$Z$112*F88</f>
@@ -17434,9 +17442,9 @@
         <f>$Z$113*F88</f>
         <v>0.15521796029075777</v>
       </c>
-      <c r="AP88" s="90">
+      <c r="AP88" s="88">
         <f>AJ88+AM88+AN88+AO88</f>
-        <v>2.7656539853651463</v>
+        <v>2.7685716524125841</v>
       </c>
     </row>
     <row r="89" spans="1:42" ht="15.75">
@@ -17473,21 +17481,21 @@
       <c r="K89" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="L89" s="98">
+      <c r="L89" s="96">
         <f t="shared" ref="L89:L95" si="21">J89*$K$187</f>
         <v>1085</v>
       </c>
-      <c r="M89" s="98">
+      <c r="M89" s="96">
         <f t="shared" si="17"/>
         <v>1.085</v>
       </c>
-      <c r="N89" s="98">
+      <c r="N89" s="96">
         <v>1.34</v>
       </c>
-      <c r="O89" s="98">
+      <c r="O89" s="96">
         <v>0.9</v>
       </c>
-      <c r="P89" s="102">
+      <c r="P89" s="100">
         <f t="shared" si="18"/>
         <v>1.3085100000000001</v>
       </c>
@@ -17531,11 +17539,11 @@
         <f>IF(Z89&lt;$T$178,($T$178-Z89)*F89,0)</f>
         <v>0.66669301056898034</v>
       </c>
-      <c r="AB89" s="125">
+      <c r="AB89" s="123">
         <f>IF(AA89=0,F89,0)</f>
         <v>0</v>
       </c>
-      <c r="AC89" s="86">
+      <c r="AC89" s="84">
         <f>-AB89*$T$122</f>
         <v>0</v>
       </c>
@@ -17555,21 +17563,21 @@
         <f>AD89+AF89</f>
         <v>0.87921754998207635</v>
       </c>
-      <c r="AH89" s="84">
+      <c r="AH89" s="123">
         <f>IF(AF89=0,F89,0)</f>
         <v>75.17</v>
       </c>
-      <c r="AI89" s="86">
+      <c r="AI89" s="84">
         <f>-AH89*$T$126</f>
-        <v>-3.3118090941695585E-2</v>
+        <v>-3.2597536799800202E-2</v>
       </c>
       <c r="AJ89" s="72">
         <f>AG89+AI89</f>
-        <v>0.84609945904038075</v>
+        <v>0.8466200131822762</v>
       </c>
       <c r="AK89">
         <f>AJ89/F89</f>
-        <v>1.1255812944530806E-2</v>
+        <v>1.1262737969699031E-2</v>
       </c>
       <c r="AL89" s="72">
         <f>IF(AK89&lt;$T$178,($T$178-AK89)*Q89,0)</f>
@@ -17583,9 +17591,9 @@
         <f>$Z$113*F89</f>
         <v>0.20687471764284154</v>
       </c>
-      <c r="AP89" s="90">
+      <c r="AP89" s="88">
         <f>AJ89+AM89+AN89+AO89</f>
-        <v>1.1564115355046432</v>
+        <v>1.1569320896465385</v>
       </c>
     </row>
     <row r="90" spans="1:42" ht="15.75">
@@ -17607,21 +17615,21 @@
       <c r="K90" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="L90" s="98">
+      <c r="L90" s="96">
         <f t="shared" si="21"/>
         <v>1705</v>
       </c>
-      <c r="M90" s="98">
+      <c r="M90" s="96">
         <f t="shared" si="17"/>
         <v>1.7050000000000001</v>
       </c>
-      <c r="N90" s="98">
+      <c r="N90" s="96">
         <v>1.34</v>
       </c>
-      <c r="O90" s="98">
+      <c r="O90" s="96">
         <v>0.9</v>
       </c>
-      <c r="P90" s="102">
+      <c r="P90" s="100">
         <f t="shared" si="18"/>
         <v>2.0562300000000002</v>
       </c>
@@ -17642,15 +17650,15 @@
         <v>4.1124600000000004</v>
       </c>
       <c r="AA90" s="70"/>
-      <c r="AB90" s="125"/>
+      <c r="AB90" s="123"/>
       <c r="AC90" s="77"/>
       <c r="AD90" s="64"/>
       <c r="AF90" s="64"/>
       <c r="AG90" s="64"/>
-      <c r="AH90" s="84"/>
+      <c r="AH90" s="123"/>
       <c r="AI90" s="77"/>
       <c r="AJ90" s="64"/>
-      <c r="AP90" s="91"/>
+      <c r="AP90" s="89"/>
     </row>
     <row r="91" spans="1:42" ht="15.75">
       <c r="B91" s="37"/>
@@ -17671,21 +17679,21 @@
       <c r="K91" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="L91" s="98">
+      <c r="L91" s="96">
         <f t="shared" si="21"/>
         <v>1395</v>
       </c>
-      <c r="M91" s="98">
+      <c r="M91" s="96">
         <f t="shared" si="17"/>
         <v>1.395</v>
       </c>
-      <c r="N91" s="98">
+      <c r="N91" s="96">
         <v>1.34</v>
       </c>
-      <c r="O91" s="98">
+      <c r="O91" s="96">
         <v>0.9</v>
       </c>
-      <c r="P91" s="102">
+      <c r="P91" s="100">
         <f t="shared" si="18"/>
         <v>1.6823700000000001</v>
       </c>
@@ -17706,15 +17714,15 @@
         <v>0</v>
       </c>
       <c r="AA91" s="70"/>
-      <c r="AB91" s="125"/>
+      <c r="AB91" s="123"/>
       <c r="AC91" s="77"/>
       <c r="AD91" s="64"/>
       <c r="AF91" s="64"/>
       <c r="AG91" s="64"/>
-      <c r="AH91" s="84"/>
+      <c r="AH91" s="123"/>
       <c r="AI91" s="77"/>
       <c r="AJ91" s="64"/>
-      <c r="AP91" s="91"/>
+      <c r="AP91" s="89"/>
     </row>
     <row r="92" spans="1:42" ht="16.5" thickBot="1">
       <c r="B92" s="37"/>
@@ -17735,21 +17743,21 @@
       <c r="K92" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="L92" s="98">
+      <c r="L92" s="96">
         <f t="shared" si="21"/>
         <v>775</v>
       </c>
-      <c r="M92" s="98">
+      <c r="M92" s="96">
         <f t="shared" si="17"/>
         <v>0.77500000000000002</v>
       </c>
-      <c r="N92" s="98">
+      <c r="N92" s="96">
         <v>1.34</v>
       </c>
-      <c r="O92" s="98">
+      <c r="O92" s="96">
         <v>0.9</v>
       </c>
-      <c r="P92" s="102">
+      <c r="P92" s="100">
         <f t="shared" si="18"/>
         <v>0.9346500000000002</v>
       </c>
@@ -17770,12 +17778,12 @@
         <v>0</v>
       </c>
       <c r="AA92" s="70"/>
-      <c r="AB92" s="125"/>
+      <c r="AB92" s="123"/>
       <c r="AC92" s="77"/>
       <c r="AF92" s="64"/>
-      <c r="AH92" s="84"/>
+      <c r="AH92" s="123"/>
       <c r="AI92" s="77"/>
-      <c r="AP92" s="91"/>
+      <c r="AP92" s="89"/>
     </row>
     <row r="93" spans="1:42" ht="15.75">
       <c r="A93" s="18">
@@ -17811,21 +17819,21 @@
       <c r="K93" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="L93" s="98">
+      <c r="L93" s="96">
         <f t="shared" si="21"/>
         <v>1705</v>
       </c>
-      <c r="M93" s="98">
+      <c r="M93" s="96">
         <f t="shared" si="17"/>
         <v>1.7050000000000001</v>
       </c>
-      <c r="N93" s="98">
+      <c r="N93" s="96">
         <v>1.34</v>
       </c>
-      <c r="O93" s="98">
+      <c r="O93" s="96">
         <v>0.9</v>
       </c>
-      <c r="P93" s="102">
+      <c r="P93" s="100">
         <f t="shared" si="18"/>
         <v>2.0562300000000002</v>
       </c>
@@ -17869,11 +17877,11 @@
         <f>IF(Z93&lt;$T$178,($T$178-Z93)*F93,0)</f>
         <v>0.47014761197600441</v>
       </c>
-      <c r="AB93" s="125">
+      <c r="AB93" s="123">
         <f>IF(AA93=0,F93,0)</f>
         <v>0</v>
       </c>
-      <c r="AC93" s="86">
+      <c r="AC93" s="84">
         <f>-AB93*$T$122</f>
         <v>0</v>
       </c>
@@ -17893,21 +17901,21 @@
         <f>AD93+AF93</f>
         <v>1.4959681341320683</v>
       </c>
-      <c r="AH93" s="84">
+      <c r="AH93" s="123">
         <f>IF(AF93=0,F93,0)</f>
         <v>127.9</v>
       </c>
-      <c r="AI93" s="86">
+      <c r="AI93" s="84">
         <f>-AH93*$T$126</f>
-        <v>-5.6349658526577966E-2</v>
+        <v>-5.5463947807562142E-2</v>
       </c>
       <c r="AJ93" s="72">
         <f>AG93+AI93</f>
-        <v>1.4396184756054904</v>
+        <v>1.4405041863245063</v>
       </c>
       <c r="AK93">
         <f>AJ93/F93</f>
-        <v>1.1255812944530808E-2</v>
+        <v>1.1262737969699033E-2</v>
       </c>
       <c r="AL93" s="72">
         <f>IF(AK93&lt;$T$178,($T$178-AK93)*Q93,0)</f>
@@ -17921,9 +17929,9 @@
         <f>$Z$113*F93</f>
         <v>0.35199250214872202</v>
       </c>
-      <c r="AP93" s="90">
+      <c r="AP93" s="88">
         <f>AJ93+AM93+AN93+AO93</f>
-        <v>1.9676072288285733</v>
+        <v>1.9684929395475892</v>
       </c>
     </row>
     <row r="94" spans="1:42" ht="15.75">
@@ -17947,21 +17955,21 @@
       <c r="K94" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="L94" s="98">
+      <c r="L94" s="96">
         <f t="shared" si="21"/>
         <v>775</v>
       </c>
-      <c r="M94" s="98">
+      <c r="M94" s="96">
         <f t="shared" si="17"/>
         <v>0.77500000000000002</v>
       </c>
-      <c r="N94" s="98">
+      <c r="N94" s="96">
         <v>1.34</v>
       </c>
-      <c r="O94" s="98">
+      <c r="O94" s="96">
         <v>0.9</v>
       </c>
-      <c r="P94" s="102">
+      <c r="P94" s="100">
         <f t="shared" si="18"/>
         <v>0.9346500000000002</v>
       </c>
@@ -17982,15 +17990,15 @@
         <v>84.118500000000012</v>
       </c>
       <c r="AA94" s="70"/>
-      <c r="AB94" s="125"/>
+      <c r="AB94" s="123"/>
       <c r="AC94" s="77"/>
       <c r="AD94" s="64"/>
       <c r="AF94" s="64"/>
       <c r="AG94" s="64"/>
-      <c r="AH94" s="84"/>
+      <c r="AH94" s="123"/>
       <c r="AI94" s="77"/>
       <c r="AJ94" s="64"/>
-      <c r="AP94" s="91"/>
+      <c r="AP94" s="89"/>
     </row>
     <row r="95" spans="1:42" ht="15.75">
       <c r="B95" s="37"/>
@@ -18013,21 +18021,21 @@
       <c r="K95" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="L95" s="98">
+      <c r="L95" s="96">
         <f t="shared" si="21"/>
         <v>775</v>
       </c>
-      <c r="M95" s="98">
+      <c r="M95" s="96">
         <f t="shared" si="17"/>
         <v>0.77500000000000002</v>
       </c>
-      <c r="N95" s="98">
+      <c r="N95" s="96">
         <v>1.34</v>
       </c>
-      <c r="O95" s="98">
+      <c r="O95" s="96">
         <v>0.9</v>
       </c>
-      <c r="P95" s="102">
+      <c r="P95" s="100">
         <f t="shared" si="18"/>
         <v>0.9346500000000002</v>
       </c>
@@ -18048,15 +18056,15 @@
         <v>44.863200000000006</v>
       </c>
       <c r="AA95" s="70"/>
-      <c r="AB95" s="125"/>
+      <c r="AB95" s="123"/>
       <c r="AC95" s="77"/>
       <c r="AD95" s="64"/>
       <c r="AF95" s="64"/>
       <c r="AG95" s="64"/>
-      <c r="AH95" s="84"/>
+      <c r="AH95" s="123"/>
       <c r="AI95" s="77"/>
       <c r="AJ95" s="64"/>
-      <c r="AP95" s="91"/>
+      <c r="AP95" s="89"/>
     </row>
     <row r="96" spans="1:42" ht="15.75">
       <c r="B96" s="37"/>
@@ -18079,21 +18087,21 @@
       <c r="K96" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="L96" s="98">
+      <c r="L96" s="96">
         <f>J96*$K$188</f>
         <v>2590</v>
       </c>
-      <c r="M96" s="98">
+      <c r="M96" s="96">
         <f t="shared" si="17"/>
         <v>2.59</v>
       </c>
-      <c r="N96" s="98">
+      <c r="N96" s="96">
         <v>1.28</v>
       </c>
-      <c r="O96" s="98">
+      <c r="O96" s="96">
         <v>0.9</v>
       </c>
-      <c r="P96" s="102">
+      <c r="P96" s="100">
         <f t="shared" si="18"/>
         <v>2.9836800000000001</v>
       </c>
@@ -18114,12 +18122,12 @@
         <v>62.65728</v>
       </c>
       <c r="AA96" s="70"/>
-      <c r="AB96" s="125"/>
+      <c r="AB96" s="123"/>
       <c r="AC96" s="77"/>
       <c r="AF96" s="64"/>
-      <c r="AH96" s="84"/>
+      <c r="AH96" s="123"/>
       <c r="AI96" s="77"/>
-      <c r="AP96" s="91"/>
+      <c r="AP96" s="89"/>
     </row>
     <row r="97" spans="1:42" ht="15.75">
       <c r="B97" s="37"/>
@@ -18142,19 +18150,19 @@
       <c r="K97" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="L97" s="98">
+      <c r="L97" s="96">
         <v>605</v>
       </c>
-      <c r="M97" s="98">
+      <c r="M97" s="96">
         <v>0.60499999999999998</v>
       </c>
-      <c r="N97" s="98">
+      <c r="N97" s="96">
         <v>1.1200000000000001</v>
       </c>
-      <c r="O97" s="98">
+      <c r="O97" s="96">
         <v>0.9</v>
       </c>
-      <c r="P97" s="102">
+      <c r="P97" s="100">
         <f t="shared" si="18"/>
         <v>0.60984000000000005</v>
       </c>
@@ -18175,15 +18183,15 @@
         <v>0</v>
       </c>
       <c r="AA97" s="70"/>
-      <c r="AB97" s="125"/>
+      <c r="AB97" s="123"/>
       <c r="AC97" s="77"/>
       <c r="AD97" s="64"/>
       <c r="AF97" s="64"/>
       <c r="AG97" s="64"/>
-      <c r="AH97" s="84"/>
+      <c r="AH97" s="123"/>
       <c r="AI97" s="77"/>
       <c r="AJ97" s="64"/>
-      <c r="AP97" s="91"/>
+      <c r="AP97" s="89"/>
     </row>
     <row r="98" spans="1:42" ht="15.75">
       <c r="B98" s="37"/>
@@ -18206,19 +18214,19 @@
       <c r="K98" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="L98" s="98">
+      <c r="L98" s="96">
         <v>605</v>
       </c>
-      <c r="M98" s="98">
+      <c r="M98" s="96">
         <v>0.60499999999999998</v>
       </c>
-      <c r="N98" s="98">
+      <c r="N98" s="96">
         <v>1.1200000000000001</v>
       </c>
-      <c r="O98" s="98">
+      <c r="O98" s="96">
         <v>0.9</v>
       </c>
-      <c r="P98" s="102">
+      <c r="P98" s="100">
         <f t="shared" si="18"/>
         <v>0.60984000000000005</v>
       </c>
@@ -18239,15 +18247,15 @@
         <v>0</v>
       </c>
       <c r="AA98" s="70"/>
-      <c r="AB98" s="125"/>
+      <c r="AB98" s="123"/>
       <c r="AC98" s="77"/>
       <c r="AD98" s="64"/>
       <c r="AF98" s="64"/>
       <c r="AG98" s="64"/>
-      <c r="AH98" s="84"/>
+      <c r="AH98" s="123"/>
       <c r="AI98" s="77"/>
       <c r="AJ98" s="64"/>
-      <c r="AP98" s="91"/>
+      <c r="AP98" s="89"/>
     </row>
     <row r="99" spans="1:42" ht="15.75">
       <c r="B99" s="37"/>
@@ -18270,19 +18278,19 @@
       <c r="K99" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="L99" s="98">
+      <c r="L99" s="96">
         <v>1100</v>
       </c>
-      <c r="M99" s="98">
+      <c r="M99" s="96">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N99" s="98">
+      <c r="N99" s="96">
         <v>1.1200000000000001</v>
       </c>
-      <c r="O99" s="98">
+      <c r="O99" s="96">
         <v>0.8</v>
       </c>
-      <c r="P99" s="102">
+      <c r="P99" s="100">
         <f t="shared" si="18"/>
         <v>0.98560000000000025</v>
       </c>
@@ -18303,15 +18311,15 @@
         <v>18.726400000000005</v>
       </c>
       <c r="AA99" s="70"/>
-      <c r="AB99" s="125"/>
+      <c r="AB99" s="123"/>
       <c r="AC99" s="77"/>
       <c r="AD99" s="64"/>
       <c r="AF99" s="64"/>
       <c r="AG99" s="64"/>
-      <c r="AH99" s="84"/>
+      <c r="AH99" s="123"/>
       <c r="AI99" s="77"/>
       <c r="AJ99" s="64"/>
-      <c r="AP99" s="91"/>
+      <c r="AP99" s="89"/>
     </row>
     <row r="100" spans="1:42" ht="16.5" thickBot="1">
       <c r="B100" s="37"/>
@@ -18334,19 +18342,19 @@
       <c r="K100" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="L100" s="98">
+      <c r="L100" s="96">
         <v>800</v>
       </c>
-      <c r="M100" s="98">
+      <c r="M100" s="96">
         <v>0.8</v>
       </c>
-      <c r="N100" s="98">
+      <c r="N100" s="96">
         <v>1.1200000000000001</v>
       </c>
-      <c r="O100" s="98">
+      <c r="O100" s="96">
         <v>0.8</v>
       </c>
-      <c r="P100" s="102">
+      <c r="P100" s="100">
         <f t="shared" si="18"/>
         <v>0.7168000000000001</v>
       </c>
@@ -18367,15 +18375,15 @@
         <v>0</v>
       </c>
       <c r="AA100" s="70"/>
-      <c r="AB100" s="125"/>
+      <c r="AB100" s="123"/>
       <c r="AC100" s="77"/>
       <c r="AD100" s="64"/>
       <c r="AF100" s="64"/>
       <c r="AG100" s="64"/>
-      <c r="AH100" s="84"/>
+      <c r="AH100" s="123"/>
       <c r="AI100" s="77"/>
       <c r="AJ100" s="64"/>
-      <c r="AP100" s="91"/>
+      <c r="AP100" s="89"/>
     </row>
     <row r="101" spans="1:42" ht="15.75">
       <c r="A101" s="18">
@@ -18411,21 +18419,21 @@
       <c r="K101" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="L101" s="98">
+      <c r="L101" s="96">
         <f>J101*$K$187</f>
         <v>1705</v>
       </c>
-      <c r="M101" s="98">
+      <c r="M101" s="96">
         <f t="shared" si="17"/>
         <v>1.7050000000000001</v>
       </c>
-      <c r="N101" s="98">
+      <c r="N101" s="96">
         <v>1.34</v>
       </c>
-      <c r="O101" s="98">
+      <c r="O101" s="96">
         <v>0.9</v>
       </c>
-      <c r="P101" s="102">
+      <c r="P101" s="100">
         <f t="shared" si="18"/>
         <v>2.0562300000000002</v>
       </c>
@@ -18469,21 +18477,21 @@
         <f>IF(Z101&lt;$T$178,($T$178-Z101)*F101,0)</f>
         <v>0</v>
       </c>
-      <c r="AB101" s="125">
+      <c r="AB101" s="123">
         <f>IF(AA101=0,F101,0)</f>
         <v>75.17</v>
       </c>
-      <c r="AC101" s="86">
+      <c r="AC101" s="84">
         <f>-AB101*$T$122</f>
-        <v>-0.30390135352532688</v>
+        <v>-0.30053323688786288</v>
       </c>
       <c r="AD101" s="72">
         <f>AA101+Y101+AC101</f>
-        <v>1.1478823734944767</v>
+        <v>1.1512504901319409</v>
       </c>
       <c r="AE101">
         <f>AD101/F101</f>
-        <v>1.5270485213442554E-2</v>
+        <v>1.5315291873512583E-2</v>
       </c>
       <c r="AF101" s="72">
         <f>IF(AE101&lt;$T$178,($T$178-AE101)*F101,0)</f>
@@ -18491,23 +18499,23 @@
       </c>
       <c r="AG101" s="72">
         <f>AD101+AF101</f>
-        <v>1.1478823734944767</v>
-      </c>
-      <c r="AH101" s="84">
+        <v>1.1512504901319409</v>
+      </c>
+      <c r="AH101" s="123">
         <f>IF(AF101=0,F101,0)</f>
         <v>75.17</v>
       </c>
-      <c r="AI101" s="86">
+      <c r="AI101" s="84">
         <f>-AH101*$T$126</f>
-        <v>-3.3118090941695585E-2</v>
+        <v>-3.2597536799800202E-2</v>
       </c>
       <c r="AJ101" s="72">
         <f>AG101+AI101</f>
-        <v>1.1147642825527813</v>
+        <v>1.1186529533321408</v>
       </c>
       <c r="AK101">
         <f>AJ101/F101</f>
-        <v>1.4829909306276191E-2</v>
+        <v>1.4881640991514443E-2</v>
       </c>
       <c r="AL101" s="72">
         <f>IF(AK101&lt;$T$178,($T$178-AK101)*Q101,0)</f>
@@ -18521,9 +18529,9 @@
         <f>$Z$113*F101</f>
         <v>0.20687471764284154</v>
       </c>
-      <c r="AP101" s="90">
+      <c r="AP101" s="88">
         <f>AJ101+AM101+AN101+AO101</f>
-        <v>1.4250763590170437</v>
+        <v>1.4289650297964032</v>
       </c>
     </row>
     <row r="102" spans="1:42" ht="15.75">
@@ -18545,21 +18553,21 @@
       <c r="K102" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="L102" s="98">
+      <c r="L102" s="96">
         <f>J102*$K$187</f>
         <v>1550</v>
       </c>
-      <c r="M102" s="98">
+      <c r="M102" s="96">
         <f t="shared" si="17"/>
         <v>1.55</v>
       </c>
-      <c r="N102" s="98">
+      <c r="N102" s="96">
         <v>1.34</v>
       </c>
-      <c r="O102" s="98">
+      <c r="O102" s="96">
         <v>0.9</v>
       </c>
-      <c r="P102" s="102">
+      <c r="P102" s="100">
         <f t="shared" si="18"/>
         <v>1.8693000000000004</v>
       </c>
@@ -18580,15 +18588,15 @@
         <v>125.24310000000003</v>
       </c>
       <c r="AA102" s="70"/>
-      <c r="AB102" s="125"/>
+      <c r="AB102" s="123"/>
       <c r="AC102" s="77"/>
       <c r="AD102" s="64"/>
       <c r="AF102" s="64"/>
       <c r="AG102" s="64"/>
-      <c r="AH102" s="84"/>
+      <c r="AH102" s="123"/>
       <c r="AI102" s="77"/>
       <c r="AJ102" s="64"/>
-      <c r="AP102" s="91"/>
+      <c r="AP102" s="89"/>
     </row>
     <row r="103" spans="1:42" ht="15.75">
       <c r="B103" s="37"/>
@@ -18609,21 +18617,21 @@
       <c r="K103" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="L103" s="98">
+      <c r="L103" s="96">
         <f>J103*$K$187</f>
         <v>1550</v>
       </c>
-      <c r="M103" s="98">
+      <c r="M103" s="96">
         <f t="shared" si="17"/>
         <v>1.55</v>
       </c>
-      <c r="N103" s="98">
+      <c r="N103" s="96">
         <v>1.34</v>
       </c>
-      <c r="O103" s="98">
+      <c r="O103" s="96">
         <v>0.9</v>
       </c>
-      <c r="P103" s="102">
+      <c r="P103" s="100">
         <f t="shared" si="18"/>
         <v>1.8693000000000004</v>
       </c>
@@ -18644,15 +18652,15 @@
         <v>119.63520000000003</v>
       </c>
       <c r="AA103" s="70"/>
-      <c r="AB103" s="125"/>
+      <c r="AB103" s="123"/>
       <c r="AC103" s="77"/>
       <c r="AD103" s="64"/>
       <c r="AF103" s="64"/>
       <c r="AG103" s="64"/>
-      <c r="AH103" s="84"/>
+      <c r="AH103" s="123"/>
       <c r="AI103" s="77"/>
       <c r="AJ103" s="64"/>
-      <c r="AP103" s="91"/>
+      <c r="AP103" s="89"/>
     </row>
     <row r="104" spans="1:42" ht="16.5" thickBot="1">
       <c r="B104" s="37"/>
@@ -18673,21 +18681,21 @@
       <c r="K104" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="L104" s="98">
+      <c r="L104" s="96">
         <f>J104*$K$187</f>
         <v>1085</v>
       </c>
-      <c r="M104" s="98">
+      <c r="M104" s="96">
         <f t="shared" si="17"/>
         <v>1.085</v>
       </c>
-      <c r="N104" s="98">
+      <c r="N104" s="96">
         <v>1.34</v>
       </c>
-      <c r="O104" s="98">
+      <c r="O104" s="96">
         <v>0.9</v>
       </c>
-      <c r="P104" s="102">
+      <c r="P104" s="100">
         <f t="shared" si="18"/>
         <v>1.3085100000000001</v>
       </c>
@@ -18708,12 +18716,12 @@
         <v>74.585070000000002</v>
       </c>
       <c r="AA104" s="70"/>
-      <c r="AB104" s="125"/>
+      <c r="AB104" s="123"/>
       <c r="AC104" s="77"/>
       <c r="AF104" s="64"/>
-      <c r="AH104" s="84"/>
+      <c r="AH104" s="123"/>
       <c r="AI104" s="77"/>
-      <c r="AP104" s="91"/>
+      <c r="AP104" s="89"/>
     </row>
     <row r="105" spans="1:42" ht="16.5" thickBot="1">
       <c r="A105" s="18">
@@ -18735,32 +18743,32 @@
       <c r="I105" s="27"/>
       <c r="J105" s="27"/>
       <c r="K105" s="28"/>
-      <c r="L105" s="98"/>
-      <c r="M105" s="98"/>
-      <c r="N105" s="98"/>
-      <c r="O105" s="98"/>
-      <c r="P105" s="102"/>
+      <c r="L105" s="96"/>
+      <c r="M105" s="96"/>
+      <c r="N105" s="96"/>
+      <c r="O105" s="96"/>
+      <c r="P105" s="100"/>
       <c r="R105" s="60"/>
       <c r="S105" s="60"/>
       <c r="T105" s="60"/>
       <c r="U105" s="75"/>
       <c r="AA105" s="70"/>
-      <c r="AB105" s="125">
+      <c r="AB105" s="123">
         <f>IF(AA105=0,F105,0)</f>
         <v>0</v>
       </c>
-      <c r="AC105" s="86">
+      <c r="AC105" s="84">
         <f>-AB105*$T$122</f>
         <v>0</v>
       </c>
       <c r="AD105" s="64"/>
       <c r="AF105" s="64"/>
       <c r="AG105" s="64"/>
-      <c r="AH105" s="84">
+      <c r="AH105" s="123">
         <f>IF(AF105=0,F105,0)</f>
         <v>0</v>
       </c>
-      <c r="AI105" s="86">
+      <c r="AI105" s="84">
         <f>-AH105*$T$126</f>
         <v>0</v>
       </c>
@@ -18777,7 +18785,7 @@
         <f>$Z$113*F105</f>
         <v>0</v>
       </c>
-      <c r="AP105" s="90">
+      <c r="AP105" s="88">
         <f>AJ105+AM105+AN105+AO105</f>
         <v>0</v>
       </c>
@@ -18816,21 +18824,21 @@
       <c r="K106" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="L106" s="98">
+      <c r="L106" s="96">
         <f>J106*$K$187</f>
         <v>775</v>
       </c>
-      <c r="M106" s="98">
+      <c r="M106" s="96">
         <f t="shared" si="17"/>
         <v>0.77500000000000002</v>
       </c>
-      <c r="N106" s="98">
+      <c r="N106" s="96">
         <v>1.34</v>
       </c>
-      <c r="O106" s="98">
+      <c r="O106" s="96">
         <v>0.9</v>
       </c>
-      <c r="P106" s="102">
+      <c r="P106" s="100">
         <f t="shared" si="18"/>
         <v>0.9346500000000002</v>
       </c>
@@ -18874,11 +18882,11 @@
         <f>IF(Z106&lt;$T$178,($T$178-Z106)*F106,0)</f>
         <v>0.19891897678702944</v>
       </c>
-      <c r="AB106" s="125">
+      <c r="AB106" s="123">
         <f>IF(AA106=0,F106,0)</f>
         <v>0</v>
       </c>
-      <c r="AC106" s="86">
+      <c r="AC106" s="84">
         <f>-AB106*$T$122</f>
         <v>0</v>
       </c>
@@ -18898,21 +18906,21 @@
         <f>AD106+AF106</f>
         <v>0.45966808187169883</v>
       </c>
-      <c r="AH106" s="84">
+      <c r="AH106" s="123">
         <f>IF(AF106=0,F106,0)</f>
         <v>39.299999999999997</v>
       </c>
-      <c r="AI106" s="86">
+      <c r="AI106" s="84">
         <f>-AH106*$T$126</f>
-        <v>-1.7314633151638108E-2</v>
+        <v>-1.7042479662526911E-2</v>
       </c>
       <c r="AJ106" s="72">
         <f>AG106+AI106</f>
-        <v>0.44235344872006072</v>
+        <v>0.44262560220917191</v>
       </c>
       <c r="AK106">
         <f>AJ106/F106</f>
-        <v>1.1255812944530808E-2</v>
+        <v>1.1262737969699031E-2</v>
       </c>
       <c r="AL106" s="72">
         <f>IF(AK106&lt;$T$178,($T$178-AK106)*Q106,0)</f>
@@ -18926,9 +18934,9 @@
         <f>$Z$113*F106</f>
         <v>0.10815719573451739</v>
       </c>
-      <c r="AP106" s="90">
+      <c r="AP106" s="88">
         <f>AJ106+AM106+AN106+AO106</f>
-        <v>0.60458924232183686</v>
+        <v>0.604861395810948</v>
       </c>
     </row>
     <row r="107" spans="1:42" ht="15.75" thickBot="1">
@@ -18950,21 +18958,21 @@
       <c r="K107" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="L107" s="98">
+      <c r="L107" s="96">
         <f>J107*$K$187</f>
         <v>775</v>
       </c>
-      <c r="M107" s="98">
+      <c r="M107" s="96">
         <f t="shared" si="17"/>
         <v>0.77500000000000002</v>
       </c>
-      <c r="N107" s="98">
+      <c r="N107" s="96">
         <v>1.34</v>
       </c>
-      <c r="O107" s="98">
+      <c r="O107" s="96">
         <v>0.9</v>
       </c>
-      <c r="P107" s="102">
+      <c r="P107" s="100">
         <f t="shared" si="18"/>
         <v>0.9346500000000002</v>
       </c>
@@ -18985,9 +18993,9 @@
         <v>43.928550000000008</v>
       </c>
       <c r="AA107" s="70"/>
-      <c r="AB107" s="126"/>
+      <c r="AB107" s="124"/>
       <c r="AC107" s="77"/>
-      <c r="AH107" s="85"/>
+      <c r="AH107" s="124"/>
       <c r="AI107" s="77"/>
     </row>
     <row r="108" spans="1:42" ht="15.75">
@@ -19003,49 +19011,49 @@
         <f>SUM(Y8:Y107)</f>
         <v>14.468351382782599</v>
       </c>
-      <c r="AA108" s="110">
+      <c r="AA108" s="108">
         <f>SUM(AA2:AA107)</f>
-        <v>5.6211845409287546</v>
-      </c>
-      <c r="AB108" s="127">
+        <v>5.5588853607673885</v>
+      </c>
+      <c r="AB108" s="125">
         <f>SUM(AB2:AB107)</f>
         <v>1390.4</v>
       </c>
       <c r="AC108" s="70">
         <f>SUM(AC2:AC107)</f>
-        <v>-5.6211845409287537</v>
-      </c>
-      <c r="AD108" s="88">
+        <v>-5.5588853607673867</v>
+      </c>
+      <c r="AD108" s="86">
         <f>SUM(AD8:AD107)</f>
-        <v>17.717391196014326</v>
-      </c>
-      <c r="AF108" s="110">
+        <v>17.68138232364905</v>
+      </c>
+      <c r="AF108" s="108">
         <f>SUM(AF2:AF107)</f>
-        <v>0.88352651847235486</v>
-      </c>
-      <c r="AG108" s="88">
+        <v>0.86963914225025052</v>
+      </c>
+      <c r="AG108" s="86">
         <f>SUM(AG8:AG107)</f>
-        <v>18.60091771448668</v>
-      </c>
-      <c r="AH108" s="75">
+        <v>18.551021465899304</v>
+      </c>
+      <c r="AH108" s="125">
         <f>SUM(AH2:AH107)</f>
         <v>2005.39</v>
       </c>
       <c r="AI108" s="70">
         <f>SUM(AI2:AI107)</f>
-        <v>-0.88352651847235475</v>
-      </c>
-      <c r="AJ108" s="89">
+        <v>-0.8696391422502503</v>
+      </c>
+      <c r="AJ108" s="87">
         <f>SUM(AJ8:AJ107)</f>
-        <v>18.071460023808577</v>
-      </c>
-      <c r="AL108" s="110">
+        <v>18.029885854966857</v>
+      </c>
+      <c r="AL108" s="108">
         <f>SUM(AL2:AL107)</f>
         <v>0</v>
       </c>
       <c r="AM108" s="70">
         <f>SUM(AM2:AM107)</f>
-        <v>36.090539976191465</v>
+        <v>36.132114145033192</v>
       </c>
       <c r="AN108" s="70">
         <f>SUM(AN2:AN107)</f>
@@ -19055,9 +19063,9 @@
         <f>SUM(AO2:AO107)</f>
         <v>6.3720000000000017</v>
       </c>
-      <c r="AP108" s="86">
+      <c r="AP108" s="84">
         <f>SUM(AP2:AP107)</f>
-        <v>63.720000000000063</v>
+        <v>63.720000000000034</v>
       </c>
     </row>
     <row r="109" spans="1:42" ht="30">
@@ -19075,11 +19083,11 @@
       <c r="N109" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="T109" s="101">
+      <c r="T109" s="99">
         <f>SUM(T8:T107)</f>
         <v>3096</v>
       </c>
-      <c r="U109" s="101">
+      <c r="U109" s="99">
         <f>SUM(U8:U107)</f>
         <v>4823.1212499999992</v>
       </c>
@@ -19100,7 +19108,7 @@
         <f>F111-F109</f>
         <v>803.64999999999964</v>
       </c>
-      <c r="T110" s="104">
+      <c r="T110" s="102">
         <f>MAX(X8:X106)</f>
         <v>7.7981381743348539</v>
       </c>
@@ -19108,8 +19116,8 @@
         <f>INDEX(B8:B107,MATCH(T110,X8:X107,0))</f>
         <v>кв.25</v>
       </c>
-      <c r="V110" s="103"/>
-      <c r="W110" s="103"/>
+      <c r="V110" s="101"/>
+      <c r="W110" s="101"/>
       <c r="X110" s="76" t="s">
         <v>160</v>
       </c>
@@ -19135,7 +19143,7 @@
         <f ca="1">показники!E96</f>
         <v>1550</v>
       </c>
-      <c r="T111" s="108">
+      <c r="T111" s="106">
         <f>R111-S111</f>
         <v>63.720000000000027</v>
       </c>
@@ -19149,7 +19157,7 @@
       <c r="S112" t="s">
         <v>228</v>
       </c>
-      <c r="T112" s="108">
+      <c r="T112" s="106">
         <f>0.05*T111</f>
         <v>3.1860000000000017</v>
       </c>
@@ -19165,10 +19173,10 @@
       <c r="AA112" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="AB112" s="129"/>
+      <c r="AB112" s="127"/>
       <c r="AC112" s="66"/>
       <c r="AE112" s="74"/>
-      <c r="AH112" s="66"/>
+      <c r="AH112" s="127"/>
       <c r="AI112" s="66"/>
       <c r="AK112" s="74"/>
       <c r="AL112" s="74"/>
@@ -19185,7 +19193,13 @@
         <f>F109/F111*100</f>
         <v>65.290045047574225</v>
       </c>
-      <c r="T113" s="108">
+      <c r="R113" t="s">
+        <v>230</v>
+      </c>
+      <c r="S113" t="s">
+        <v>229</v>
+      </c>
+      <c r="T113" s="106">
         <f>T111*0.1</f>
         <v>6.3720000000000034</v>
       </c>
@@ -19201,16 +19215,16 @@
       <c r="AA113" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="AB113" s="129"/>
+      <c r="AB113" s="127"/>
       <c r="AC113" s="66"/>
       <c r="AE113" s="74"/>
-      <c r="AH113" s="66"/>
+      <c r="AH113" s="127"/>
       <c r="AI113" s="66"/>
       <c r="AK113" s="74"/>
       <c r="AL113" s="74"/>
     </row>
     <row r="114" spans="1:38" ht="15.75">
-      <c r="T114" s="109">
+      <c r="T114" s="107">
         <f>SUM(Y8:Y106)</f>
         <v>14.468351382782599</v>
       </c>
@@ -19221,9 +19235,9 @@
       <c r="W114" s="66"/>
     </row>
     <row r="115" spans="1:38" ht="15.75">
-      <c r="T115" s="107">
+      <c r="T115" s="105">
         <f>SUM(AD8:AD106)</f>
-        <v>17.717391196014326</v>
+        <v>17.68138232364905</v>
       </c>
       <c r="U115" s="66" t="s">
         <v>122</v>
@@ -19241,9 +19255,9 @@
       <c r="B116" t="s">
         <v>123</v>
       </c>
-      <c r="T116" s="106">
+      <c r="T116" s="104">
         <f>AG108</f>
-        <v>18.60091771448668</v>
+        <v>18.551021465899304</v>
       </c>
       <c r="U116" s="66" t="s">
         <v>122</v>
@@ -19256,9 +19270,9 @@
     </row>
     <row r="117" spans="1:38" ht="16.5" thickBot="1">
       <c r="A117" s="68"/>
-      <c r="T117" s="105">
+      <c r="T117" s="103">
         <f>AJ108</f>
-        <v>18.071460023808577</v>
+        <v>18.029885854966857</v>
       </c>
       <c r="U117" s="66" t="s">
         <v>122</v>
@@ -19273,16 +19287,17 @@
       <c r="A118" s="36"/>
       <c r="C118" s="36"/>
       <c r="D118" s="36"/>
-      <c r="T118" s="105">
+      <c r="T118" s="103">
         <f>SUM(AM2:AM106)</f>
-        <v>36.090539976191465</v>
+        <v>36.132114145033192</v>
       </c>
       <c r="U118" s="66" t="s">
         <v>122</v>
       </c>
       <c r="V118" s="66"/>
       <c r="W118" s="66"/>
-      <c r="AB118" s="130"/>
+      <c r="AB118" s="124"/>
+      <c r="AH118" s="124"/>
     </row>
     <row r="119" spans="1:38" s="40" customFormat="1">
       <c r="A119" s="36"/>
@@ -19301,7 +19316,8 @@
       <c r="X119" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="AB119" s="130"/>
+      <c r="AB119" s="124"/>
+      <c r="AH119" s="124"/>
     </row>
     <row r="120" spans="1:38" s="40" customFormat="1">
       <c r="A120" s="36"/>
@@ -19319,12 +19335,13 @@
       <c r="X120" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="AB120" s="130"/>
+      <c r="AB120" s="124"/>
+      <c r="AH120" s="124"/>
     </row>
     <row r="121" spans="1:38">
       <c r="T121" s="40">
         <f>AA108</f>
-        <v>5.6211845409287546</v>
+        <v>5.5588853607673885</v>
       </c>
       <c r="U121" s="66" t="s">
         <v>122</v>
@@ -19341,7 +19358,7 @@
       </c>
       <c r="T122">
         <f>T121/T120</f>
-        <v>4.0428542440511753E-3</v>
+        <v>3.9980475839811475E-3</v>
       </c>
       <c r="U122" s="66" t="s">
         <v>155</v>
@@ -19387,7 +19404,7 @@
       </c>
       <c r="T125" s="79">
         <f>AF108</f>
-        <v>0.88352651847235486</v>
+        <v>0.86963914225025052</v>
       </c>
       <c r="U125" s="66" t="s">
         <v>122</v>
@@ -19402,9 +19419,9 @@
       <c r="C126" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="T126" s="100">
+      <c r="T126" s="98">
         <f>T125/T124</f>
-        <v>4.4057590716636407E-4</v>
+        <v>4.3365088199814026E-4</v>
       </c>
       <c r="U126" s="66" t="s">
         <v>155</v>
@@ -19420,7 +19437,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="129" spans="1:28">
+    <row r="129" spans="1:34">
       <c r="A129" s="68">
         <v>2</v>
       </c>
@@ -19428,30 +19445,32 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:28" s="40" customFormat="1">
+    <row r="131" spans="1:34" s="40" customFormat="1">
       <c r="A131" s="36"/>
       <c r="B131"/>
       <c r="C131" s="36"/>
       <c r="D131" s="36"/>
-      <c r="AB131" s="130"/>
-    </row>
-    <row r="132" spans="1:28" s="40" customFormat="1">
+      <c r="AB131" s="124"/>
+      <c r="AH131" s="124"/>
+    </row>
+    <row r="132" spans="1:34" s="40" customFormat="1">
       <c r="A132" s="36"/>
       <c r="C132" s="36"/>
       <c r="D132" s="36"/>
-      <c r="AB132" s="130"/>
-    </row>
-    <row r="134" spans="1:28">
+      <c r="AB132" s="124"/>
+      <c r="AH132" s="124"/>
+    </row>
+    <row r="134" spans="1:34">
       <c r="C134" s="67" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="135" spans="1:28">
+    <row r="135" spans="1:34">
       <c r="C135" s="67" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="137" spans="1:28">
+    <row r="137" spans="1:34">
       <c r="A137" s="68">
         <v>3</v>
       </c>
@@ -19459,7 +19478,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="139" spans="1:28" s="40" customFormat="1" ht="15.75">
+    <row r="139" spans="1:34" s="40" customFormat="1" ht="15.75">
       <c r="A139" s="36"/>
       <c r="C139" s="36"/>
       <c r="D139" s="36"/>
@@ -19467,25 +19486,27 @@
         <f>(T111-T112-T113)/(F111)</f>
         <v>2.3392777703394343E-2</v>
       </c>
-      <c r="AB139" s="130"/>
-    </row>
-    <row r="140" spans="1:28" s="40" customFormat="1">
+      <c r="AB139" s="124"/>
+      <c r="AH139" s="124"/>
+    </row>
+    <row r="140" spans="1:34" s="40" customFormat="1">
       <c r="A140" s="36"/>
       <c r="C140" s="36"/>
       <c r="D140" s="36"/>
-      <c r="AB140" s="130"/>
-    </row>
-    <row r="142" spans="1:28">
+      <c r="AB140" s="124"/>
+      <c r="AH140" s="124"/>
+    </row>
+    <row r="142" spans="1:34">
       <c r="C142" s="67" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="144" spans="1:28">
+    <row r="144" spans="1:34">
       <c r="C144" s="67" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="147" spans="1:28">
+    <row r="147" spans="1:34">
       <c r="A147" s="68">
         <v>4</v>
       </c>
@@ -19493,40 +19514,41 @@
         <v>133</v>
       </c>
     </row>
-    <row r="148" spans="1:28">
-      <c r="T148" s="121"/>
-      <c r="U148" s="121"/>
-      <c r="V148" s="121" t="str">
+    <row r="148" spans="1:34">
+      <c r="T148" s="119"/>
+      <c r="U148" s="119"/>
+      <c r="V148" s="119" t="str">
         <f>U110</f>
         <v>кв.25</v>
       </c>
     </row>
-    <row r="149" spans="1:28" s="40" customFormat="1" ht="15.75">
+    <row r="149" spans="1:34" s="40" customFormat="1" ht="15.75">
       <c r="A149" s="36"/>
       <c r="C149" s="36"/>
       <c r="D149" s="36"/>
-      <c r="T149" s="122">
+      <c r="T149" s="120">
         <f>T139*V149</f>
         <v>1.5914106671619173</v>
       </c>
-      <c r="U149" s="121"/>
-      <c r="V149" s="121">
+      <c r="U149" s="119"/>
+      <c r="V149" s="119">
         <f>INDEX(F2:F107,MATCH(U110,B2:B107,0))</f>
         <v>68.03</v>
       </c>
-      <c r="AB149" s="130"/>
-    </row>
-    <row r="150" spans="1:28">
-      <c r="T150" s="121"/>
-      <c r="U150" s="121"/>
-      <c r="V150" s="121"/>
-    </row>
-    <row r="151" spans="1:28">
+      <c r="AB149" s="124"/>
+      <c r="AH149" s="124"/>
+    </row>
+    <row r="150" spans="1:34">
+      <c r="T150" s="119"/>
+      <c r="U150" s="119"/>
+      <c r="V150" s="119"/>
+    </row>
+    <row r="151" spans="1:34">
       <c r="C151" s="67" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="153" spans="1:28">
+    <row r="153" spans="1:34">
       <c r="A153" s="68">
         <v>5</v>
       </c>
@@ -19534,61 +19556,63 @@
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:28">
+    <row r="154" spans="1:34">
       <c r="B154" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="155" spans="1:28" s="40" customFormat="1" ht="15.75">
+    <row r="155" spans="1:34" s="40" customFormat="1" ht="15.75">
       <c r="A155" s="36"/>
       <c r="C155" s="36"/>
       <c r="D155" s="36"/>
       <c r="T155" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="AB155" s="130"/>
-    </row>
-    <row r="157" spans="1:28">
+      <c r="AB155" s="124"/>
+      <c r="AH155" s="124"/>
+    </row>
+    <row r="157" spans="1:34">
       <c r="C157" s="67" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="158" spans="1:28">
+    <row r="158" spans="1:34">
       <c r="C158" s="67" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="159" spans="1:28">
-      <c r="T159" s="121"/>
-      <c r="U159" s="121"/>
-      <c r="V159" s="121">
+    <row r="159" spans="1:34">
+      <c r="T159" s="119"/>
+      <c r="U159" s="119"/>
+      <c r="V159" s="119">
         <f>INDEX(W2:W107,MATCH(U110,B2:B107,0))</f>
         <v>530.50734000000011</v>
       </c>
     </row>
-    <row r="160" spans="1:28" s="40" customFormat="1" ht="15.75">
+    <row r="160" spans="1:34" s="40" customFormat="1" ht="15.75">
       <c r="A160" s="36"/>
       <c r="C160" s="36"/>
       <c r="D160" s="36"/>
-      <c r="T160" s="122">
+      <c r="T160" s="129">
         <f>T149/V159</f>
         <v>2.9997901012301111E-3</v>
       </c>
-      <c r="U160" s="121"/>
-      <c r="V160" s="121"/>
-      <c r="AB160" s="130"/>
-    </row>
-    <row r="161" spans="1:28" ht="15.75">
-      <c r="T161" s="122"/>
-      <c r="U161" s="121"/>
-      <c r="V161" s="121"/>
-    </row>
-    <row r="162" spans="1:28">
+      <c r="U160" s="119"/>
+      <c r="V160" s="119"/>
+      <c r="AB160" s="124"/>
+      <c r="AH160" s="124"/>
+    </row>
+    <row r="161" spans="1:34" ht="15.75">
+      <c r="T161" s="120"/>
+      <c r="U161" s="119"/>
+      <c r="V161" s="119"/>
+    </row>
+    <row r="162" spans="1:34">
       <c r="C162" s="67" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="164" spans="1:28">
+    <row r="164" spans="1:34">
       <c r="A164" s="68">
         <v>6</v>
       </c>
@@ -19596,7 +19620,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="166" spans="1:28" s="40" customFormat="1" ht="15.75">
+    <row r="166" spans="1:34" s="40" customFormat="1" ht="15.75">
       <c r="A166" s="36"/>
       <c r="C166" s="36"/>
       <c r="D166" s="36"/>
@@ -19606,25 +19630,27 @@
       </c>
       <c r="Y166" s="72">
         <f>T111-T117-T112-T113</f>
-        <v>36.090539976191451</v>
+        <v>36.132114145033171</v>
       </c>
       <c r="Z166" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="AB166" s="130"/>
-    </row>
-    <row r="167" spans="1:28" s="40" customFormat="1">
+      <c r="AB166" s="124"/>
+      <c r="AH166" s="124"/>
+    </row>
+    <row r="167" spans="1:34" s="40" customFormat="1">
       <c r="A167" s="36"/>
       <c r="C167" s="36"/>
       <c r="D167" s="36"/>
-      <c r="AB167" s="130"/>
-    </row>
-    <row r="169" spans="1:28">
+      <c r="AB167" s="124"/>
+      <c r="AH167" s="124"/>
+    </row>
+    <row r="169" spans="1:34">
       <c r="B169" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="171" spans="1:28" s="40" customFormat="1" ht="15.75">
+    <row r="171" spans="1:34" s="40" customFormat="1" ht="15.75">
       <c r="A171" s="36"/>
       <c r="B171"/>
       <c r="C171" s="36"/>
@@ -19635,25 +19661,27 @@
       </c>
       <c r="Y171" s="72">
         <f>Y166/F110</f>
-        <v>4.4908280938457619E-2</v>
+        <v>4.4960012623695873E-2</v>
       </c>
       <c r="Z171" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="AB171" s="130"/>
-    </row>
-    <row r="172" spans="1:28" s="40" customFormat="1">
+      <c r="AB171" s="124"/>
+      <c r="AH171" s="124"/>
+    </row>
+    <row r="172" spans="1:34" s="40" customFormat="1">
       <c r="A172" s="36"/>
       <c r="C172" s="36"/>
       <c r="D172" s="36"/>
-      <c r="AB172" s="130"/>
-    </row>
-    <row r="174" spans="1:28">
+      <c r="AB172" s="124"/>
+      <c r="AH172" s="124"/>
+    </row>
+    <row r="174" spans="1:34">
       <c r="B174" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="176" spans="1:28">
+    <row r="176" spans="1:34">
       <c r="A176" s="68">
         <v>7</v>
       </c>
@@ -19661,7 +19689,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="178" spans="1:28" s="40" customFormat="1" ht="15.75">
+    <row r="178" spans="1:34" s="40" customFormat="1" ht="15.75">
       <c r="A178" s="36"/>
       <c r="B178"/>
       <c r="C178" s="36"/>
@@ -19673,9 +19701,10 @@
         <f>0.5*T139</f>
         <v>1.1696388851697171E-2</v>
       </c>
-      <c r="AB178" s="130"/>
-    </row>
-    <row r="180" spans="1:28">
+      <c r="AB178" s="124"/>
+      <c r="AH178" s="124"/>
+    </row>
+    <row r="180" spans="1:34">
       <c r="A180" s="68">
         <v>8</v>
       </c>
@@ -19683,20 +19712,22 @@
         <v>144</v>
       </c>
     </row>
-    <row r="182" spans="1:28" s="40" customFormat="1">
+    <row r="182" spans="1:34" s="40" customFormat="1">
       <c r="A182" s="36"/>
       <c r="B182"/>
       <c r="C182" s="36"/>
       <c r="D182" s="36"/>
-      <c r="AB182" s="130"/>
-    </row>
-    <row r="184" spans="1:28" s="40" customFormat="1">
+      <c r="AB182" s="124"/>
+      <c r="AH182" s="124"/>
+    </row>
+    <row r="184" spans="1:34" s="40" customFormat="1">
       <c r="A184" s="36"/>
       <c r="C184" s="36"/>
       <c r="D184" s="36"/>
-      <c r="AB184" s="130"/>
-    </row>
-    <row r="187" spans="1:28">
+      <c r="AB184" s="124"/>
+      <c r="AH184" s="124"/>
+    </row>
+    <row r="187" spans="1:34">
       <c r="A187" s="68">
         <v>9</v>
       </c>
@@ -19712,7 +19743,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="188" spans="1:28">
+    <row r="188" spans="1:34">
       <c r="A188" s="68"/>
       <c r="B188" s="6" t="s">
         <v>206</v>
@@ -19726,7 +19757,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="189" spans="1:28">
+    <row r="189" spans="1:34">
       <c r="A189" s="68"/>
       <c r="B189" s="6" t="s">
         <v>205</v>
@@ -19740,20 +19771,20 @@
         <v>202</v>
       </c>
     </row>
-    <row r="190" spans="1:28">
+    <row r="190" spans="1:34">
       <c r="A190" s="68"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
     </row>
-    <row r="191" spans="1:28">
+    <row r="191" spans="1:34">
       <c r="B191" t="s">
         <v>179</v>
       </c>
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
     </row>
-    <row r="192" spans="1:28">
+    <row r="192" spans="1:34">
       <c r="B192" t="s">
         <v>181</v>
       </c>
@@ -19768,40 +19799,40 @@
       <c r="D193" s="6"/>
     </row>
     <row r="194" spans="2:4">
-      <c r="B194" s="92" t="s">
+      <c r="B194" s="90" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="196" spans="2:4">
-      <c r="B196" s="94" t="s">
+      <c r="B196" s="92" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="197" spans="2:4">
-      <c r="B197" s="93"/>
+      <c r="B197" s="91"/>
     </row>
     <row r="200" spans="2:4">
-      <c r="B200" s="95" t="s">
+      <c r="B200" s="93" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="201" spans="2:4">
-      <c r="B201" s="95" t="s">
+      <c r="B201" s="93" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="202" spans="2:4">
-      <c r="B202" s="95" t="s">
+      <c r="B202" s="93" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="203" spans="2:4" ht="17.25">
-      <c r="B203" s="95" t="s">
+      <c r="B203" s="93" t="s">
         <v>187</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -19819,12 +19850,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="94" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="94" t="s">
         <v>196</v>
       </c>
     </row>
@@ -19834,12 +19865,12 @@
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="94" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="94" t="s">
         <v>190</v>
       </c>
     </row>
@@ -19849,27 +19880,27 @@
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="94" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="94" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="94" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="94" t="s">
         <v>194</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -19891,25 +19922,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="65.25">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="112" t="s">
         <v>209</v>
       </c>
-      <c r="D1" s="114" t="s">
+      <c r="D1" s="112" t="s">
         <v>210</v>
       </c>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="113" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="113" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="114" t="s">
+      <c r="G1" s="112" t="s">
         <v>158</v>
       </c>
     </row>
@@ -19921,16 +19952,16 @@
         <v>23</v>
       </c>
       <c r="C2" s="11"/>
-      <c r="D2" s="116">
+      <c r="D2" s="114">
         <v>1.2109416048266439</v>
       </c>
-      <c r="E2" s="116">
+      <c r="E2" s="114">
         <v>4.4795212777444277E-2</v>
       </c>
-      <c r="F2" s="116">
+      <c r="F2" s="114">
         <v>8.9590425554888553E-2</v>
       </c>
-      <c r="G2" s="117">
+      <c r="G2" s="115">
         <v>1.3453272431589767</v>
       </c>
     </row>
@@ -19942,16 +19973,16 @@
         <v>24</v>
       </c>
       <c r="C3" s="11"/>
-      <c r="D3" s="116">
+      <c r="D3" s="114">
         <v>1.0618712217704129</v>
       </c>
-      <c r="E3" s="116">
+      <c r="E3" s="114">
         <v>3.9280793666561592E-2</v>
       </c>
-      <c r="F3" s="116">
+      <c r="F3" s="114">
         <v>7.8561587333123184E-2</v>
       </c>
-      <c r="G3" s="117">
+      <c r="G3" s="115">
         <v>1.1797136027700976</v>
       </c>
     </row>
@@ -19963,16 +19994,16 @@
         <v>25</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="D4" s="116">
+      <c r="D4" s="114">
         <v>1.0390001493015117</v>
       </c>
-      <c r="E4" s="116">
+      <c r="E4" s="114">
         <v>3.8434745802974117E-2</v>
       </c>
-      <c r="F4" s="116">
+      <c r="F4" s="114">
         <v>7.6869491605948234E-2</v>
       </c>
-      <c r="G4" s="117">
+      <c r="G4" s="115">
         <v>1.1543043867104341</v>
       </c>
     </row>
@@ -19984,16 +20015,16 @@
         <v>26</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="D5" s="116">
+      <c r="D5" s="114">
         <v>1.3722643481340722</v>
       </c>
-      <c r="E5" s="116">
+      <c r="E5" s="114">
         <v>5.0762871815248835E-2</v>
       </c>
-      <c r="F5" s="116">
+      <c r="F5" s="114">
         <v>0.10152574363049767</v>
       </c>
-      <c r="G5" s="117">
+      <c r="G5" s="115">
         <v>1.5245529635798187</v>
       </c>
     </row>
@@ -20005,16 +20036,16 @@
         <v>27</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="116">
+      <c r="D6" s="114">
         <v>1.3892134464815613</v>
       </c>
-      <c r="E6" s="116">
+      <c r="E6" s="114">
         <v>5.1389853714157413E-2</v>
       </c>
-      <c r="F6" s="116">
+      <c r="F6" s="114">
         <v>0.10277970742831483</v>
       </c>
-      <c r="G6" s="117">
+      <c r="G6" s="115">
         <v>1.5433830076240336</v>
       </c>
     </row>
@@ -20026,16 +20057,16 @@
         <v>28</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="116">
+      <c r="D7" s="114">
         <v>1.0618712217704129</v>
       </c>
-      <c r="E7" s="116">
+      <c r="E7" s="114">
         <v>3.9280793666561592E-2</v>
       </c>
-      <c r="F7" s="116">
+      <c r="F7" s="114">
         <v>7.8561587333123184E-2</v>
       </c>
-      <c r="G7" s="117">
+      <c r="G7" s="115">
         <v>1.1797136027700976</v>
       </c>
     </row>
@@ -20046,28 +20077,28 @@
       <c r="B8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="116">
+      <c r="C8" s="114">
         <v>0.54351155042243793</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="116">
+      <c r="E8" s="114">
         <v>3.9205253678741281E-2</v>
       </c>
-      <c r="F8" s="116">
+      <c r="F8" s="114">
         <v>7.8410507357482562E-2</v>
       </c>
-      <c r="G8" s="117">
+      <c r="G8" s="115">
         <v>0.66112731145866177</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="34"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="119"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="118"/>
+      <c r="G9" s="116"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="34"/>
@@ -20076,7 +20107,7 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="118"/>
+      <c r="G10" s="116"/>
     </row>
     <row r="11" spans="1:7" ht="15.75">
       <c r="A11" s="34">
@@ -20085,17 +20116,17 @@
       <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="116">
+      <c r="C11" s="117"/>
+      <c r="D11" s="114">
         <v>1.5350165334708066</v>
       </c>
-      <c r="E11" s="116">
+      <c r="E11" s="114">
         <v>5.6783408844527601E-2</v>
       </c>
-      <c r="F11" s="116">
+      <c r="F11" s="114">
         <v>0.1135668176890552</v>
       </c>
-      <c r="G11" s="117">
+      <c r="G11" s="115">
         <v>1.7053667600043894</v>
       </c>
     </row>
@@ -20106,37 +20137,37 @@
       <c r="B12" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="116">
+      <c r="C12" s="114">
         <v>0.43599246256353513</v>
       </c>
       <c r="D12" s="11"/>
-      <c r="E12" s="116">
+      <c r="E12" s="114">
         <v>5.1389853714157413E-2</v>
       </c>
-      <c r="F12" s="116">
+      <c r="F12" s="114">
         <v>0.10277970742831483</v>
       </c>
-      <c r="G12" s="117">
+      <c r="G12" s="115">
         <v>0.59016202370600745</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75">
       <c r="A13" s="34"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="119"/>
+      <c r="C13" s="117"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="118"/>
+      <c r="G13" s="116"/>
     </row>
     <row r="14" spans="1:7" ht="15.75">
       <c r="A14" s="34"/>
       <c r="B14" s="37"/>
-      <c r="C14" s="119"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="118"/>
+      <c r="G14" s="116"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="34"/>
@@ -20145,7 +20176,7 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="118"/>
+      <c r="G15" s="116"/>
     </row>
     <row r="16" spans="1:7" ht="15.75">
       <c r="A16" s="34">
@@ -20154,37 +20185,37 @@
       <c r="B16" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="116">
+      <c r="C16" s="114">
         <v>0.40366222701574334</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="116">
+      <c r="E16" s="114">
         <v>3.9280793666561592E-2</v>
       </c>
-      <c r="F16" s="116">
+      <c r="F16" s="114">
         <v>7.8561587333123184E-2</v>
       </c>
-      <c r="G16" s="117">
+      <c r="G16" s="115">
         <v>0.52150460801542819</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75">
       <c r="A17" s="34"/>
       <c r="B17" s="37"/>
-      <c r="C17" s="119"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="118"/>
+      <c r="G17" s="116"/>
     </row>
     <row r="18" spans="1:7" ht="15.75">
       <c r="A18" s="34"/>
       <c r="B18" s="37"/>
-      <c r="C18" s="119"/>
+      <c r="C18" s="117"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="118"/>
+      <c r="G18" s="116"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="34"/>
@@ -20193,7 +20224,7 @@
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="118"/>
+      <c r="G19" s="116"/>
     </row>
     <row r="20" spans="1:7" ht="15.75">
       <c r="A20" s="34">
@@ -20202,37 +20233,37 @@
       <c r="B20" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="116">
+      <c r="C20" s="114">
         <v>0.33261809212182092</v>
       </c>
       <c r="D20" s="11"/>
-      <c r="E20" s="116">
+      <c r="E20" s="114">
         <v>3.9205253678741281E-2</v>
       </c>
-      <c r="F20" s="116">
+      <c r="F20" s="114">
         <v>7.8410507357482562E-2</v>
       </c>
-      <c r="G20" s="117">
+      <c r="G20" s="115">
         <v>0.45023385315804476</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75">
       <c r="A21" s="34"/>
       <c r="B21" s="37"/>
-      <c r="C21" s="119"/>
+      <c r="C21" s="117"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="118"/>
+      <c r="G21" s="116"/>
     </row>
     <row r="22" spans="1:7" ht="15.75">
       <c r="A22" s="34"/>
       <c r="B22" s="37"/>
-      <c r="C22" s="119"/>
+      <c r="C22" s="117"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="118"/>
+      <c r="G22" s="116"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="34"/>
@@ -20241,7 +20272,7 @@
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="118"/>
+      <c r="G23" s="116"/>
     </row>
     <row r="24" spans="1:7" ht="15.75">
       <c r="A24" s="34">
@@ -20250,17 +20281,17 @@
       <c r="B24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="119"/>
-      <c r="D24" s="116">
+      <c r="C24" s="117"/>
+      <c r="D24" s="114">
         <v>1.5070403108972397</v>
       </c>
-      <c r="E24" s="116">
+      <c r="E24" s="114">
         <v>5.5748511011389335E-2</v>
       </c>
-      <c r="F24" s="116">
+      <c r="F24" s="114">
         <v>0.11149702202277867</v>
       </c>
-      <c r="G24" s="117">
+      <c r="G24" s="115">
         <v>1.6742858439314077</v>
       </c>
     </row>
@@ -20271,17 +20302,17 @@
       <c r="B25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="119"/>
-      <c r="D25" s="116">
+      <c r="C25" s="117"/>
+      <c r="D25" s="114">
         <v>1.4192317290969942</v>
       </c>
-      <c r="E25" s="116">
+      <c r="E25" s="114">
         <v>5.2500291535115977E-2</v>
       </c>
-      <c r="F25" s="116">
+      <c r="F25" s="114">
         <v>0.10500058307023195</v>
       </c>
-      <c r="G25" s="117">
+      <c r="G25" s="115">
         <v>1.5767326037023421</v>
       </c>
     </row>
@@ -20292,28 +20323,28 @@
       <c r="B26" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="116">
+      <c r="C26" s="114">
         <v>0.3260810891552649</v>
       </c>
       <c r="D26" s="11"/>
-      <c r="E26" s="116">
+      <c r="E26" s="114">
         <v>3.8434745802974117E-2</v>
       </c>
-      <c r="F26" s="116">
+      <c r="F26" s="114">
         <v>7.6869491605948234E-2</v>
       </c>
-      <c r="G26" s="117">
+      <c r="G26" s="115">
         <v>0.44138532656418727</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75">
       <c r="A27" s="34"/>
       <c r="B27" s="37"/>
-      <c r="C27" s="119"/>
+      <c r="C27" s="117"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="118"/>
+      <c r="G27" s="116"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="34"/>
@@ -20322,7 +20353,7 @@
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="118"/>
+      <c r="G28" s="116"/>
     </row>
     <row r="29" spans="1:7" ht="15.75">
       <c r="A29" s="34">
@@ -20331,37 +20362,37 @@
       <c r="B29" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="116">
+      <c r="C29" s="114">
         <v>0.3260810891552649</v>
       </c>
       <c r="D29" s="11"/>
-      <c r="E29" s="116">
+      <c r="E29" s="114">
         <v>3.8434745802974117E-2</v>
       </c>
-      <c r="F29" s="116">
+      <c r="F29" s="114">
         <v>7.6869491605948234E-2</v>
       </c>
-      <c r="G29" s="117">
+      <c r="G29" s="115">
         <v>0.44138532656418727</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75">
       <c r="A30" s="34"/>
       <c r="B30" s="37"/>
-      <c r="C30" s="119"/>
+      <c r="C30" s="117"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="118"/>
+      <c r="G30" s="116"/>
     </row>
     <row r="31" spans="1:7" ht="15.75">
       <c r="A31" s="34"/>
       <c r="B31" s="37"/>
-      <c r="C31" s="119"/>
+      <c r="C31" s="117"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="118"/>
+      <c r="G31" s="116"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="34"/>
@@ -20370,7 +20401,7 @@
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="118"/>
+      <c r="G32" s="116"/>
     </row>
     <row r="33" spans="1:7" ht="15.75">
       <c r="A33" s="34">
@@ -20379,37 +20410,37 @@
       <c r="B33" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="116">
+      <c r="C33" s="114">
         <v>0.4729713911096412</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="116">
+      <c r="E33" s="114">
         <v>5.5748511011389335E-2</v>
       </c>
-      <c r="F33" s="116">
+      <c r="F33" s="114">
         <v>0.11149702202277867</v>
       </c>
-      <c r="G33" s="117">
+      <c r="G33" s="115">
         <v>0.64021692414380915</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75">
       <c r="A34" s="34"/>
       <c r="B34" s="37"/>
-      <c r="C34" s="119"/>
+      <c r="C34" s="117"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="118"/>
+      <c r="G34" s="116"/>
     </row>
     <row r="35" spans="1:7" ht="15.75">
       <c r="A35" s="34"/>
       <c r="B35" s="37"/>
-      <c r="C35" s="119"/>
+      <c r="C35" s="117"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="118"/>
+      <c r="G35" s="116"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="34"/>
@@ -20418,7 +20449,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="118"/>
+      <c r="G36" s="116"/>
     </row>
     <row r="37" spans="1:7" ht="15.75">
       <c r="A37" s="34">
@@ -20427,37 +20458,37 @@
       <c r="B37" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="116">
+      <c r="C37" s="114">
         <v>0.50127806088373639</v>
       </c>
       <c r="D37" s="11"/>
-      <c r="E37" s="116">
+      <c r="E37" s="114">
         <v>5.1389853714157413E-2</v>
       </c>
-      <c r="F37" s="116">
+      <c r="F37" s="114">
         <v>0.10277970742831483</v>
       </c>
-      <c r="G37" s="117">
+      <c r="G37" s="115">
         <v>0.65544762202620865</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75">
       <c r="A38" s="34"/>
       <c r="B38" s="37"/>
-      <c r="C38" s="119"/>
+      <c r="C38" s="117"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="118"/>
+      <c r="G38" s="116"/>
     </row>
     <row r="39" spans="1:7" ht="15.75">
       <c r="A39" s="34"/>
       <c r="B39" s="37"/>
-      <c r="C39" s="119"/>
+      <c r="C39" s="117"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="118"/>
+      <c r="G39" s="116"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="34"/>
@@ -20466,7 +20497,7 @@
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="118"/>
+      <c r="G40" s="116"/>
     </row>
     <row r="41" spans="1:7" ht="15.75">
       <c r="A41" s="34">
@@ -20475,37 +20506,37 @@
       <c r="B41" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="116">
+      <c r="C41" s="114">
         <v>0.59290058005481694</v>
       </c>
       <c r="D41" s="11"/>
-      <c r="E41" s="116">
+      <c r="E41" s="114">
         <v>3.8434745802974117E-2</v>
       </c>
-      <c r="F41" s="116">
+      <c r="F41" s="114">
         <v>7.6869491605948234E-2</v>
       </c>
-      <c r="G41" s="117">
+      <c r="G41" s="115">
         <v>0.70820481746373931</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75">
       <c r="A42" s="34"/>
       <c r="B42" s="37"/>
-      <c r="C42" s="119"/>
+      <c r="C42" s="117"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="118"/>
+      <c r="G42" s="116"/>
     </row>
     <row r="43" spans="1:7" ht="15.75">
       <c r="A43" s="34"/>
       <c r="B43" s="37"/>
-      <c r="C43" s="119"/>
+      <c r="C43" s="117"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="118"/>
+      <c r="G43" s="116"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="34"/>
@@ -20514,7 +20545,7 @@
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="118"/>
+      <c r="G44" s="116"/>
     </row>
     <row r="45" spans="1:7" ht="15.75">
       <c r="A45" s="34">
@@ -20523,17 +20554,17 @@
       <c r="B45" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="119"/>
-      <c r="D45" s="116">
+      <c r="C45" s="117"/>
+      <c r="D45" s="114">
         <v>1.0598291617285467</v>
       </c>
-      <c r="E45" s="116">
+      <c r="E45" s="114">
         <v>3.9205253678741281E-2</v>
       </c>
-      <c r="F45" s="116">
+      <c r="F45" s="114">
         <v>7.8410507357482562E-2</v>
       </c>
-      <c r="G45" s="117">
+      <c r="G45" s="115">
         <v>1.1774449227647705</v>
       </c>
     </row>
@@ -20544,37 +20575,37 @@
       <c r="B46" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="116">
+      <c r="C46" s="114">
         <v>1.013434118483743</v>
       </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="116">
+      <c r="E46" s="114">
         <v>5.046826586274962E-2</v>
       </c>
-      <c r="F46" s="116">
+      <c r="F46" s="114">
         <v>0.10093653172549924</v>
       </c>
-      <c r="G46" s="117">
+      <c r="G46" s="115">
         <v>1.1648389160719919</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75">
       <c r="A47" s="34"/>
       <c r="B47" s="37"/>
-      <c r="C47" s="119"/>
+      <c r="C47" s="117"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="118"/>
+      <c r="G47" s="116"/>
     </row>
     <row r="48" spans="1:7" ht="15.75">
       <c r="A48" s="34"/>
       <c r="B48" s="37"/>
-      <c r="C48" s="119"/>
+      <c r="C48" s="117"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="118"/>
+      <c r="G48" s="116"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="34"/>
@@ -20583,7 +20614,7 @@
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="118"/>
+      <c r="G49" s="116"/>
     </row>
     <row r="50" spans="1:7" ht="15.75">
       <c r="A50" s="34">
@@ -20592,37 +20623,37 @@
       <c r="B50" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="116">
+      <c r="C50" s="114">
         <v>0.44541343742710121</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="116">
+      <c r="E50" s="114">
         <v>5.2500291535115977E-2</v>
       </c>
-      <c r="F50" s="116">
+      <c r="F50" s="114">
         <v>0.10500058307023195</v>
       </c>
-      <c r="G50" s="117">
+      <c r="G50" s="115">
         <v>0.60291431203244916</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75">
       <c r="A51" s="34"/>
       <c r="B51" s="37"/>
-      <c r="C51" s="119"/>
+      <c r="C51" s="117"/>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
-      <c r="G51" s="118"/>
+      <c r="G51" s="116"/>
     </row>
     <row r="52" spans="1:7" ht="15.75">
       <c r="A52" s="34"/>
       <c r="B52" s="37"/>
-      <c r="C52" s="119"/>
+      <c r="C52" s="117"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="118"/>
+      <c r="G52" s="116"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="34"/>
@@ -20631,7 +20662,7 @@
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
-      <c r="G53" s="118"/>
+      <c r="G53" s="116"/>
     </row>
     <row r="54" spans="1:7" ht="15.75">
       <c r="A54" s="34">
@@ -20640,28 +20671,28 @@
       <c r="B54" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="116">
+      <c r="C54" s="114">
         <v>0.35876610398804493</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="116">
+      <c r="E54" s="114">
         <v>4.2287285181809964E-2</v>
       </c>
-      <c r="F54" s="116">
+      <c r="F54" s="114">
         <v>8.4574570363619928E-2</v>
       </c>
-      <c r="G54" s="117">
+      <c r="G54" s="115">
         <v>0.48562795953347482</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75">
       <c r="A55" s="34"/>
       <c r="B55" s="37"/>
-      <c r="C55" s="119"/>
+      <c r="C55" s="117"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="118"/>
+      <c r="G55" s="116"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="34"/>
@@ -20670,7 +20701,7 @@
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="118"/>
+      <c r="G56" s="116"/>
     </row>
     <row r="57" spans="1:7" ht="15.75">
       <c r="A57" s="34">
@@ -20679,28 +20710,28 @@
       <c r="B57" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C57" s="116">
+      <c r="C57" s="114">
         <v>0.43645938949922503</v>
       </c>
       <c r="D57" s="11"/>
-      <c r="E57" s="116">
+      <c r="E57" s="114">
         <v>3.9205253678741281E-2</v>
       </c>
-      <c r="F57" s="116">
+      <c r="F57" s="114">
         <v>7.8410507357482562E-2</v>
       </c>
-      <c r="G57" s="117">
+      <c r="G57" s="115">
         <v>0.55407515053544887</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75">
       <c r="A58" s="34"/>
       <c r="B58" s="37"/>
-      <c r="C58" s="119"/>
+      <c r="C58" s="117"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
-      <c r="G58" s="118"/>
+      <c r="G58" s="116"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="34"/>
@@ -20709,7 +20740,7 @@
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
-      <c r="G59" s="118"/>
+      <c r="G59" s="116"/>
     </row>
     <row r="60" spans="1:7" ht="15.75">
       <c r="A60" s="34">
@@ -20718,37 +20749,37 @@
       <c r="B60" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C60" s="116">
+      <c r="C60" s="114">
         <v>0.44746426188719718</v>
       </c>
       <c r="D60" s="11"/>
-      <c r="E60" s="116">
+      <c r="E60" s="114">
         <v>5.274201949614097E-2</v>
       </c>
-      <c r="F60" s="116">
+      <c r="F60" s="114">
         <v>0.10548403899228194</v>
       </c>
-      <c r="G60" s="117">
+      <c r="G60" s="115">
         <v>0.60569032037562009</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75">
       <c r="A61" s="34"/>
       <c r="B61" s="37"/>
-      <c r="C61" s="119"/>
+      <c r="C61" s="117"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
-      <c r="G61" s="118"/>
+      <c r="G61" s="116"/>
     </row>
     <row r="62" spans="1:7" ht="15.75">
       <c r="A62" s="34"/>
       <c r="B62" s="37"/>
-      <c r="C62" s="119"/>
+      <c r="C62" s="117"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
-      <c r="G62" s="118"/>
+      <c r="G62" s="116"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="34"/>
@@ -20757,7 +20788,7 @@
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="118"/>
+      <c r="G63" s="116"/>
     </row>
     <row r="64" spans="1:7" ht="15.75">
       <c r="A64" s="34">
@@ -20766,46 +20797,46 @@
       <c r="B64" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="116">
+      <c r="C64" s="114">
         <v>0.70243099632752259</v>
       </c>
       <c r="D64" s="11"/>
-      <c r="E64" s="116">
+      <c r="E64" s="114">
         <v>5.1389853714157413E-2</v>
       </c>
-      <c r="F64" s="116">
+      <c r="F64" s="114">
         <v>0.10277970742831483</v>
       </c>
-      <c r="G64" s="117">
+      <c r="G64" s="115">
         <v>0.85660055746999486</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75">
       <c r="A65" s="34"/>
       <c r="B65" s="37"/>
-      <c r="C65" s="119"/>
+      <c r="C65" s="117"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
-      <c r="G65" s="118"/>
+      <c r="G65" s="116"/>
     </row>
     <row r="66" spans="1:7" ht="15.75">
       <c r="A66" s="34"/>
       <c r="B66" s="37"/>
-      <c r="C66" s="119"/>
+      <c r="C66" s="117"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
-      <c r="G66" s="118"/>
+      <c r="G66" s="116"/>
     </row>
     <row r="67" spans="1:7" ht="15.75">
       <c r="A67" s="34"/>
       <c r="B67" s="37"/>
-      <c r="C67" s="119"/>
+      <c r="C67" s="117"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
-      <c r="G67" s="118"/>
+      <c r="G67" s="116"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="34"/>
@@ -20814,7 +20845,7 @@
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="118"/>
+      <c r="G68" s="116"/>
     </row>
     <row r="69" spans="1:7" ht="15.75">
       <c r="A69" s="34">
@@ -20823,17 +20854,17 @@
       <c r="B69" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C69" s="119"/>
-      <c r="D69" s="116">
+      <c r="C69" s="117"/>
+      <c r="D69" s="114">
         <v>1.0679974018960114</v>
       </c>
-      <c r="E69" s="116">
+      <c r="E69" s="114">
         <v>3.9507413630022525E-2</v>
       </c>
-      <c r="F69" s="116">
+      <c r="F69" s="114">
         <v>7.9014827260045051E-2</v>
       </c>
-      <c r="G69" s="117">
+      <c r="G69" s="115">
         <v>1.1865196427860789</v>
       </c>
     </row>
@@ -20844,28 +20875,28 @@
       <c r="B70" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C70" s="116">
+      <c r="C70" s="114">
         <v>0.33401584567507459</v>
       </c>
       <c r="D70" s="11"/>
-      <c r="E70" s="116">
+      <c r="E70" s="114">
         <v>3.9205253678741281E-2</v>
       </c>
-      <c r="F70" s="116">
+      <c r="F70" s="114">
         <v>7.8410507357482562E-2</v>
       </c>
-      <c r="G70" s="117">
+      <c r="G70" s="115">
         <v>0.45163160671129843</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15.75">
       <c r="A71" s="34"/>
       <c r="B71" s="37"/>
-      <c r="C71" s="119"/>
+      <c r="C71" s="117"/>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
-      <c r="G71" s="118"/>
+      <c r="G71" s="116"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="34"/>
@@ -20874,7 +20905,7 @@
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
-      <c r="G72" s="118"/>
+      <c r="G72" s="116"/>
     </row>
     <row r="73" spans="1:7" ht="15.75">
       <c r="A73" s="34">
@@ -20883,37 +20914,37 @@
       <c r="B73" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C73" s="116">
+      <c r="C73" s="114">
         <v>0.77088928577622307</v>
       </c>
       <c r="D73" s="11"/>
-      <c r="E73" s="116">
+      <c r="E73" s="114">
         <v>5.0460711863967583E-2</v>
       </c>
-      <c r="F73" s="116">
+      <c r="F73" s="114">
         <v>0.10092142372793517</v>
       </c>
-      <c r="G73" s="117">
+      <c r="G73" s="115">
         <v>0.92227142136812579</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15.75">
       <c r="A74" s="34"/>
       <c r="B74" s="37"/>
-      <c r="C74" s="119"/>
+      <c r="C74" s="117"/>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
-      <c r="G74" s="118"/>
+      <c r="G74" s="116"/>
     </row>
     <row r="75" spans="1:7" ht="15.75">
       <c r="A75" s="34"/>
       <c r="B75" s="37"/>
-      <c r="C75" s="119"/>
+      <c r="C75" s="117"/>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
-      <c r="G75" s="118"/>
+      <c r="G75" s="116"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="34"/>
@@ -20922,7 +20953,7 @@
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
-      <c r="G76" s="118"/>
+      <c r="G76" s="116"/>
     </row>
     <row r="77" spans="1:7" ht="15.75">
       <c r="A77" s="34">
@@ -20931,37 +20962,37 @@
       <c r="B77" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C77" s="116">
+      <c r="C77" s="114">
         <v>0.45459964670263009</v>
       </c>
       <c r="D77" s="11"/>
-      <c r="E77" s="116">
+      <c r="E77" s="114">
         <v>5.3482311376780015E-2</v>
       </c>
-      <c r="F77" s="116">
+      <c r="F77" s="114">
         <v>0.10696462275356003</v>
       </c>
-      <c r="G77" s="117">
+      <c r="G77" s="115">
         <v>0.61504658083297015</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.75">
       <c r="A78" s="34"/>
       <c r="B78" s="37"/>
-      <c r="C78" s="119"/>
+      <c r="C78" s="117"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
-      <c r="G78" s="118"/>
+      <c r="G78" s="116"/>
     </row>
     <row r="79" spans="1:7" ht="15.75">
       <c r="A79" s="34"/>
       <c r="B79" s="37"/>
-      <c r="C79" s="119"/>
+      <c r="C79" s="117"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
-      <c r="G79" s="118"/>
+      <c r="G79" s="116"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="34"/>
@@ -20970,7 +21001,7 @@
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
-      <c r="G80" s="118"/>
+      <c r="G80" s="116"/>
     </row>
     <row r="81" spans="1:7" ht="15.75">
       <c r="A81" s="34">
@@ -20979,28 +21010,28 @@
       <c r="B81" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C81" s="116">
+      <c r="C81" s="114">
         <v>0.82993645177413955</v>
       </c>
       <c r="D81" s="11"/>
-      <c r="E81" s="116">
+      <c r="E81" s="114">
         <v>3.9431873642202221E-2</v>
       </c>
-      <c r="F81" s="116">
+      <c r="F81" s="114">
         <v>7.8863747284404442E-2</v>
       </c>
-      <c r="G81" s="117">
+      <c r="G81" s="115">
         <v>0.94823207270074628</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15.75">
       <c r="A82" s="34"/>
       <c r="B82" s="37"/>
-      <c r="C82" s="119"/>
+      <c r="C82" s="117"/>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
-      <c r="G82" s="118"/>
+      <c r="G82" s="116"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="34"/>
@@ -21009,7 +21040,7 @@
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
-      <c r="G83" s="118"/>
+      <c r="G83" s="116"/>
     </row>
     <row r="84" spans="1:7" ht="15.75">
       <c r="A84" s="34">
@@ -21018,17 +21049,17 @@
       <c r="B84" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C84" s="119"/>
-      <c r="D84" s="116">
+      <c r="C84" s="117"/>
+      <c r="D84" s="114">
         <v>1.5350165334708066</v>
       </c>
-      <c r="E84" s="116">
+      <c r="E84" s="114">
         <v>5.6783408844527601E-2</v>
       </c>
-      <c r="F84" s="116">
+      <c r="F84" s="114">
         <v>0.1135668176890552</v>
       </c>
-      <c r="G84" s="117">
+      <c r="G84" s="115">
         <v>1.7053667600043894</v>
       </c>
     </row>
@@ -21039,28 +21070,28 @@
       <c r="B85" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C85" s="116">
+      <c r="C85" s="114">
         <v>0.39243517682818485</v>
       </c>
       <c r="D85" s="11"/>
-      <c r="E85" s="116">
+      <c r="E85" s="114">
         <v>3.9356333654381903E-2</v>
       </c>
-      <c r="F85" s="116">
+      <c r="F85" s="114">
         <v>7.8712667308763806E-2</v>
       </c>
-      <c r="G85" s="117">
+      <c r="G85" s="115">
         <v>0.51050417779133062</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15.75">
       <c r="A86" s="34"/>
       <c r="B86" s="37"/>
-      <c r="C86" s="119"/>
+      <c r="C86" s="117"/>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
-      <c r="G86" s="118"/>
+      <c r="G86" s="116"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="34"/>
@@ -21069,7 +21100,7 @@
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
-      <c r="G87" s="118"/>
+      <c r="G87" s="116"/>
     </row>
     <row r="88" spans="1:7" ht="15.75">
       <c r="A88" s="34">
@@ -21078,17 +21109,17 @@
       <c r="B88" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C88" s="119"/>
-      <c r="D88" s="116">
+      <c r="C88" s="117"/>
+      <c r="D88" s="114">
         <v>1.1517218636125248</v>
       </c>
-      <c r="E88" s="116">
+      <c r="E88" s="114">
         <v>4.2604553130655268E-2</v>
       </c>
-      <c r="F88" s="116">
+      <c r="F88" s="114">
         <v>8.5209106261310535E-2</v>
       </c>
-      <c r="G88" s="117">
+      <c r="G88" s="115">
         <v>1.2795355230044907</v>
       </c>
     </row>
@@ -21099,37 +21130,37 @@
       <c r="B89" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C89" s="116">
+      <c r="C89" s="114">
         <v>0.48175148332942724</v>
       </c>
       <c r="D89" s="11"/>
-      <c r="E89" s="116">
+      <c r="E89" s="114">
         <v>5.6783408844527601E-2</v>
       </c>
-      <c r="F89" s="116">
+      <c r="F89" s="114">
         <v>0.1135668176890552</v>
       </c>
-      <c r="G89" s="117">
+      <c r="G89" s="115">
         <v>0.65210170986301008</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15.75">
       <c r="A90" s="34"/>
       <c r="B90" s="37"/>
-      <c r="C90" s="119"/>
+      <c r="C90" s="117"/>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
-      <c r="G90" s="118"/>
+      <c r="G90" s="116"/>
     </row>
     <row r="91" spans="1:7" ht="15.75">
       <c r="A91" s="34"/>
       <c r="B91" s="37"/>
-      <c r="C91" s="119"/>
+      <c r="C91" s="117"/>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
-      <c r="G91" s="118"/>
+      <c r="G91" s="116"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="34"/>
@@ -21138,7 +21169,7 @@
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
-      <c r="G92" s="118"/>
+      <c r="G92" s="116"/>
     </row>
     <row r="93" spans="1:7" ht="15.75">
       <c r="A93" s="34">
@@ -21147,37 +21178,37 @@
       <c r="B93" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C93" s="116">
+      <c r="C93" s="114">
         <v>1.1634879837042325</v>
       </c>
       <c r="D93" s="11"/>
-      <c r="E93" s="116">
+      <c r="E93" s="114">
         <v>9.661564442217746E-2</v>
       </c>
-      <c r="F93" s="116">
+      <c r="F93" s="114">
         <v>0.19323128884435492</v>
       </c>
-      <c r="G93" s="117">
+      <c r="G93" s="115">
         <v>1.453334916970765</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15.75">
       <c r="A94" s="34"/>
       <c r="B94" s="37"/>
-      <c r="C94" s="119"/>
+      <c r="C94" s="117"/>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
-      <c r="G94" s="118"/>
+      <c r="G94" s="116"/>
     </row>
     <row r="95" spans="1:7" ht="15.75">
       <c r="A95" s="34"/>
       <c r="B95" s="37"/>
-      <c r="C95" s="119"/>
+      <c r="C95" s="117"/>
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
-      <c r="G95" s="118"/>
+      <c r="G95" s="116"/>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="34"/>
@@ -21186,43 +21217,43 @@
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
-      <c r="G96" s="118"/>
+      <c r="G96" s="116"/>
     </row>
     <row r="97" spans="1:7" ht="15.75">
       <c r="A97" s="34"/>
       <c r="B97" s="37"/>
-      <c r="C97" s="119"/>
+      <c r="C97" s="117"/>
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
-      <c r="G97" s="118"/>
+      <c r="G97" s="116"/>
     </row>
     <row r="98" spans="1:7" ht="15.75">
       <c r="A98" s="34"/>
       <c r="B98" s="37"/>
-      <c r="C98" s="119"/>
+      <c r="C98" s="117"/>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
-      <c r="G98" s="118"/>
+      <c r="G98" s="116"/>
     </row>
     <row r="99" spans="1:7" ht="15.75">
       <c r="A99" s="34"/>
       <c r="B99" s="37"/>
-      <c r="C99" s="119"/>
+      <c r="C99" s="117"/>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
-      <c r="G99" s="118"/>
+      <c r="G99" s="116"/>
     </row>
     <row r="100" spans="1:7" ht="15.75">
       <c r="A100" s="34"/>
       <c r="B100" s="37"/>
-      <c r="C100" s="119"/>
+      <c r="C100" s="117"/>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
-      <c r="G100" s="118"/>
+      <c r="G100" s="116"/>
     </row>
     <row r="101" spans="1:7" ht="15.75">
       <c r="A101" s="34">
@@ -21231,37 +21262,37 @@
       <c r="B101" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C101" s="116">
+      <c r="C101" s="114">
         <v>1.3039368706519319</v>
       </c>
       <c r="D101" s="11"/>
-      <c r="E101" s="116">
+      <c r="E101" s="114">
         <v>5.6783408844527601E-2</v>
       </c>
-      <c r="F101" s="116">
+      <c r="F101" s="114">
         <v>0.1135668176890552</v>
       </c>
-      <c r="G101" s="117">
+      <c r="G101" s="115">
         <v>1.4742870971855147</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15.75">
       <c r="A102" s="34"/>
       <c r="B102" s="37"/>
-      <c r="C102" s="119"/>
+      <c r="C102" s="117"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
-      <c r="G102" s="118"/>
+      <c r="G102" s="116"/>
     </row>
     <row r="103" spans="1:7" ht="15.75">
       <c r="A103" s="34"/>
       <c r="B103" s="37"/>
-      <c r="C103" s="119"/>
+      <c r="C103" s="117"/>
       <c r="D103" s="11"/>
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
-      <c r="G103" s="118"/>
+      <c r="G103" s="116"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="34"/>
@@ -21270,7 +21301,7 @@
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
-      <c r="G104" s="118"/>
+      <c r="G104" s="116"/>
     </row>
     <row r="105" spans="1:7" ht="15.75">
       <c r="A105" s="34">
@@ -21279,17 +21310,17 @@
       <c r="B105" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C105" s="119"/>
-      <c r="D105" s="116">
-        <v>0</v>
-      </c>
-      <c r="E105" s="116">
-        <v>0</v>
-      </c>
-      <c r="F105" s="116">
-        <v>0</v>
-      </c>
-      <c r="G105" s="117">
+      <c r="C105" s="117"/>
+      <c r="D105" s="114">
+        <v>0</v>
+      </c>
+      <c r="E105" s="114">
+        <v>0</v>
+      </c>
+      <c r="F105" s="114">
+        <v>0</v>
+      </c>
+      <c r="G105" s="115">
         <v>0</v>
       </c>
     </row>
@@ -21300,17 +21331,17 @@
       <c r="B106" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C106" s="116">
+      <c r="C106" s="114">
         <v>0.25186687900554067</v>
       </c>
       <c r="D106" s="11"/>
-      <c r="E106" s="116">
+      <c r="E106" s="114">
         <v>2.9687215213382127E-2</v>
       </c>
-      <c r="F106" s="116">
+      <c r="F106" s="114">
         <v>5.9374430426764255E-2</v>
       </c>
-      <c r="G106" s="117">
+      <c r="G106" s="115">
         <v>0.34092852464568707</v>
       </c>
     </row>
@@ -21324,10 +21355,10 @@
       <c r="G107" s="11"/>
     </row>
     <row r="108" spans="1:7" ht="30">
-      <c r="B108" s="111" t="s">
+      <c r="B108" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="C108" s="89">
+      <c r="C108" s="87">
         <f>SUM(C8:C107)</f>
         <v>13.32198447354248</v>
       </c>
@@ -21343,7 +21374,7 @@
         <f>SUM(F2:F107)</f>
         <v>3.498000000000002</v>
       </c>
-      <c r="G108" s="86">
+      <c r="G108" s="84">
         <f>SUM(G2:G107)</f>
         <v>34.98000000000004</v>
       </c>
@@ -21471,7 +21502,7 @@
       <c r="G184" s="40"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>